--- a/data/most-used-german-words.xlsx
+++ b/data/most-used-german-words.xlsx
@@ -136,13 +136,13 @@
     <t>die Frau</t>
   </si>
   <si>
-    <t>woman, wife, Mrs.</t>
+    <t>woman|wife|Mrs.</t>
   </si>
   <si>
     <t>der Mensch</t>
   </si>
   <si>
-    <t>human being, man</t>
+    <t>human being|man</t>
   </si>
   <si>
     <t>das Deutsch</t>
@@ -172,7 +172,7 @@
     <t>das Land</t>
   </si>
   <si>
-    <t>land, country, state</t>
+    <t>land|country|state</t>
   </si>
   <si>
     <t>die Frage</t>
@@ -190,7 +190,7 @@
     <t>der Fall</t>
   </si>
   <si>
-    <t>fall, case</t>
+    <t>fall|case</t>
   </si>
   <si>
     <t>die Leute</t>
@@ -220,13 +220,13 @@
     <t>die Stadt</t>
   </si>
   <si>
-    <t>city, town</t>
+    <t>city|town</t>
   </si>
   <si>
     <t>der Herr</t>
   </si>
   <si>
-    <t>man, Mr.</t>
+    <t>man|Mr.</t>
   </si>
   <si>
     <t>der/das Teil</t>
@@ -250,7 +250,7 @@
     <t>das Recht</t>
   </si>
   <si>
-    <t>right, law</t>
+    <t>right|law</t>
   </si>
   <si>
     <t>das Ende</t>
@@ -286,7 +286,7 @@
     <t>die Seite</t>
   </si>
   <si>
-    <t>side, page</t>
+    <t>side|page</t>
   </si>
   <si>
     <t>das Leben</t>
@@ -304,7 +304,7 @@
     <t>der Grund</t>
   </si>
   <si>
-    <t>reason, basis</t>
+    <t>reason|basis</t>
   </si>
   <si>
     <t>das Auge</t>
@@ -328,19 +328,19 @@
     <t>die Art</t>
   </si>
   <si>
-    <t>type, kind</t>
+    <t>type|kind</t>
   </si>
   <si>
     <t>der Bereich</t>
   </si>
   <si>
-    <t>area, region</t>
+    <t>area|region</t>
   </si>
   <si>
     <t>der Weg</t>
   </si>
   <si>
-    <t>path, way</t>
+    <t>path|way</t>
   </si>
   <si>
     <t>die Stunde</t>
@@ -358,13 +358,13 @@
     <t>die Geschichte</t>
   </si>
   <si>
-    <t>history, story</t>
+    <t>history|story</t>
   </si>
   <si>
     <t>die Gesellschaft</t>
   </si>
   <si>
-    <t>society, company</t>
+    <t>society|company</t>
   </si>
   <si>
     <t>der Kopf</t>
@@ -376,7 +376,7 @@
     <t>das Paar</t>
   </si>
   <si>
-    <t>pair, couple</t>
+    <t>pair|couple</t>
   </si>
   <si>
     <t>die Möglichkeit</t>
@@ -388,7 +388,7 @@
     <t>das Unternehmen</t>
   </si>
   <si>
-    <t>enterprise, company</t>
+    <t>enterprise|company</t>
   </si>
   <si>
     <t>das Bild</t>
@@ -418,7 +418,7 @@
     <t>die Form</t>
   </si>
   <si>
-    <t>form, shape</t>
+    <t>form|shape</t>
   </si>
   <si>
     <t>die Entwicklung</t>
@@ -454,7 +454,7 @@
     <t>die Aufgabe</t>
   </si>
   <si>
-    <t>task, assignment, job</t>
+    <t>task|assignment|job</t>
   </si>
   <si>
     <t>die Universität</t>
@@ -466,7 +466,7 @@
     <t>der Sinn</t>
   </si>
   <si>
-    <t>sense, meaning</t>
+    <t>sense|meaning</t>
   </si>
   <si>
     <t>der Staat</t>
@@ -478,7 +478,7 @@
     <t>das Ziel</t>
   </si>
   <si>
-    <t>destination, goal</t>
+    <t>destination|goal</t>
   </si>
   <si>
     <t>der Freund</t>
@@ -490,7 +490,7 @@
     <t>das Thema</t>
   </si>
   <si>
-    <t>subject, topic, theme</t>
+    <t>subject|topic|theme</t>
   </si>
   <si>
     <t>die Person</t>
@@ -520,19 +520,19 @@
     <t>der Raum</t>
   </si>
   <si>
-    <t>room, space</t>
+    <t>room|space</t>
   </si>
   <si>
     <t>der Blick</t>
   </si>
   <si>
-    <t>look, view, glance</t>
+    <t>look|view|glance</t>
   </si>
   <si>
     <t>der Platz</t>
   </si>
   <si>
-    <t>place, room, square</t>
+    <t>place|room|square</t>
   </si>
   <si>
     <t>die Zahl</t>
@@ -550,7 +550,7 @@
     <t>die Uhr</t>
   </si>
   <si>
-    <t>clock, watch, o'clock</t>
+    <t>clock|watch|o'clock</t>
   </si>
   <si>
     <t>die Eltern</t>
@@ -604,7 +604,7 @@
     <t>der Ort</t>
   </si>
   <si>
-    <t>place, town, location</t>
+    <t>place|town|location</t>
   </si>
   <si>
     <t>der Moment</t>
@@ -616,7 +616,7 @@
     <t>die Folge</t>
   </si>
   <si>
-    <t>result, consequence</t>
+    <t>result|consequence</t>
   </si>
   <si>
     <t>das Interesse</t>
@@ -646,13 +646,13 @@
     <t>der Schüler</t>
   </si>
   <si>
-    <t>pupil, student</t>
+    <t>pupil|student</t>
   </si>
   <si>
     <t>die Bedeutung</t>
   </si>
   <si>
-    <t>meaning, significance</t>
+    <t>meaning|significance</t>
   </si>
   <si>
     <t>der Text</t>
@@ -676,13 +676,13 @@
     <t>die Weise</t>
   </si>
   <si>
-    <t>way, manner</t>
+    <t>way|manner</t>
   </si>
   <si>
     <t>die Regierung</t>
   </si>
   <si>
-    <t>rule, government</t>
+    <t>rule|government</t>
   </si>
   <si>
     <t>das Stück</t>
@@ -712,7 +712,7 @@
     <t>der Punkt</t>
   </si>
   <si>
-    <t>dot, point, period</t>
+    <t>dot|point|period</t>
   </si>
   <si>
     <t>die Situation</t>
@@ -730,7 +730,7 @@
     <t>der Preis</t>
   </si>
   <si>
-    <t>price, prize</t>
+    <t>price|prize</t>
   </si>
   <si>
     <t>die Abbildung</t>
@@ -742,7 +742,7 @@
     <t>der Begriff</t>
   </si>
   <si>
-    <t>concept, idea, term</t>
+    <t>concept|idea|term</t>
   </si>
   <si>
     <t>die Funktion</t>
@@ -754,7 +754,7 @@
     <t>der Boden</t>
   </si>
   <si>
-    <t>ground, floor, bottom</t>
+    <t>ground|floor|bottom</t>
   </si>
   <si>
     <t>das Jahrhundert</t>
@@ -775,13 +775,13 @@
     <t>die Stimme</t>
   </si>
   <si>
-    <t>voice, vote</t>
+    <t>voice|vote</t>
   </si>
   <si>
     <t>der Rahmen</t>
   </si>
   <si>
-    <t>frame, framework</t>
+    <t>frame|framework</t>
   </si>
   <si>
     <t>die Richtung</t>
@@ -799,7 +799,7 @@
     <t>die Angst</t>
   </si>
   <si>
-    <t>fear, anxiety</t>
+    <t>fear|anxiety</t>
   </si>
   <si>
     <t>die Information</t>
@@ -829,7 +829,7 @@
     <t>der Beruf</t>
   </si>
   <si>
-    <t>occupation, job, profession</t>
+    <t>occupation|job|profession</t>
   </si>
   <si>
     <t>die Regel</t>
@@ -847,7 +847,7 @@
     <t>der Absatz</t>
   </si>
   <si>
-    <t>sales, paragraph, heel</t>
+    <t>sales|paragraph|heel</t>
   </si>
   <si>
     <t>der Gott</t>
@@ -859,13 +859,13 @@
     <t>das Auto</t>
   </si>
   <si>
-    <t>automobile, car</t>
+    <t>automobile|car</t>
   </si>
   <si>
     <t>die Beziehung</t>
   </si>
   <si>
-    <t>relation, relationship</t>
+    <t>relation|relationship</t>
   </si>
   <si>
     <t>die Erfahrung</t>
@@ -919,7 +919,7 @@
     <t>die Bank</t>
   </si>
   <si>
-    <t>bank, bench</t>
+    <t>bank|bench</t>
   </si>
   <si>
     <t>die Partei</t>
@@ -979,19 +979,19 @@
     <t>der Prozess</t>
   </si>
   <si>
-    <t>trial, process</t>
+    <t>trial|process</t>
   </si>
   <si>
     <t>der Betrieb</t>
   </si>
   <si>
-    <t>business, operation</t>
+    <t>business|operation</t>
   </si>
   <si>
     <t>der Zusammenhang</t>
   </si>
   <si>
-    <t>connection, context</t>
+    <t>connection|context</t>
   </si>
   <si>
     <t>das Gesetz</t>
@@ -1009,13 +1009,13 @@
     <t>die Firma</t>
   </si>
   <si>
-    <t>firm, company</t>
+    <t>firm|company</t>
   </si>
   <si>
     <t>die Kraft</t>
   </si>
   <si>
-    <t>strength, power</t>
+    <t>strength|power</t>
   </si>
   <si>
     <t>der Student</t>
@@ -1051,7 +1051,7 @@
     <t>die Grenze</t>
   </si>
   <si>
-    <t>border, frontier</t>
+    <t>border|frontier</t>
   </si>
   <si>
     <t>der Satz</t>
@@ -1081,7 +1081,7 @@
     <t>die Lage</t>
   </si>
   <si>
-    <t>situation, location</t>
+    <t>situation|location</t>
   </si>
   <si>
     <t>die Leistung</t>
@@ -1111,7 +1111,7 @@
     <t>der Chef</t>
   </si>
   <si>
-    <t>head, leader, boss</t>
+    <t>head|leader|boss</t>
   </si>
   <si>
     <t>der Zug</t>
@@ -1123,13 +1123,13 @@
     <t>der Arzt</t>
   </si>
   <si>
-    <t>physician, doctor</t>
+    <t>physician|doctor</t>
   </si>
   <si>
     <t>das Auftreten</t>
   </si>
   <si>
-    <t>behavior, conduct, occurrence</t>
+    <t>behavior|conduct|occurrence</t>
   </si>
   <si>
     <t>der Fuß</t>
@@ -1165,7 +1165,7 @@
     <t>die Höhe</t>
   </si>
   <si>
-    <t>height, altitude</t>
+    <t>height|altitude</t>
   </si>
   <si>
     <t>der Junge</t>
@@ -1207,7 +1207,7 @@
     <t>das Studium</t>
   </si>
   <si>
-    <t>study, studies</t>
+    <t>study|studies</t>
   </si>
   <si>
     <t>der Vergleich</t>
@@ -1243,13 +1243,13 @@
     <t>der Kunde</t>
   </si>
   <si>
-    <t>customer, client</t>
+    <t>customer|client</t>
   </si>
   <si>
     <t>der Mitarbeiter</t>
   </si>
   <si>
-    <t>employee, co-worker</t>
+    <t>employee|co-worker</t>
   </si>
   <si>
     <t>der Tod</t>
@@ -1273,7 +1273,7 @@
     <t>die Wirtschaft</t>
   </si>
   <si>
-    <t>economy, commerce</t>
+    <t>economy|commerce</t>
   </si>
   <si>
     <t>das Tier</t>
@@ -1285,7 +1285,7 @@
     <t>die Bewegung</t>
   </si>
   <si>
-    <t>movement, motion</t>
+    <t>movement|motion</t>
   </si>
   <si>
     <t>der Gast</t>
@@ -1297,19 +1297,19 @@
     <t>die Sicherheit</t>
   </si>
   <si>
-    <t>security, safety</t>
+    <t>security|safety</t>
   </si>
   <si>
     <t>der Einsatz</t>
   </si>
   <si>
-    <t>inset, deployment</t>
+    <t>inset|deployment</t>
   </si>
   <si>
     <t>das Gebiet</t>
   </si>
   <si>
-    <t>region, area</t>
+    <t>region|area</t>
   </si>
   <si>
     <t>der Dank</t>
@@ -1333,7 +1333,7 @@
     <t>die Angabe</t>
   </si>
   <si>
-    <t>information, statement</t>
+    <t>information|statement</t>
   </si>
   <si>
     <t>der Bruder</t>
@@ -1351,7 +1351,7 @@
     <t>das Fach</t>
   </si>
   <si>
-    <t>compartment, subject</t>
+    <t>compartment|subject</t>
   </si>
   <si>
     <t>das Herz</t>
@@ -1369,7 +1369,7 @@
     <t>die Menge</t>
   </si>
   <si>
-    <t>quantity, amount</t>
+    <t>quantity|amount</t>
   </si>
   <si>
     <t>der Sommer</t>
@@ -1393,25 +1393,25 @@
     <t>die Antwort</t>
   </si>
   <si>
-    <t>answer, reply</t>
+    <t>answer|reply</t>
   </si>
   <si>
     <t>die Verbindung</t>
   </si>
   <si>
-    <t>connection, link</t>
+    <t>connection|link</t>
   </si>
   <si>
     <t>die Vorstellung</t>
   </si>
   <si>
-    <t>idea, introduction</t>
+    <t>idea|introduction</t>
   </si>
   <si>
     <t>die Anwendung</t>
   </si>
   <si>
-    <t>application, use</t>
+    <t>application|use</t>
   </si>
   <si>
     <t>das Alter</t>
@@ -1423,7 +1423,7 @@
     <t>die Kosten</t>
   </si>
   <si>
-    <t>costs, expenses</t>
+    <t>costs|expenses</t>
   </si>
   <si>
     <t>der Patient</t>
@@ -1447,7 +1447,7 @@
     <t>die Ausbildung</t>
   </si>
   <si>
-    <t>training, development</t>
+    <t>training|development</t>
   </si>
   <si>
     <t>die Gefahr</t>
@@ -1459,7 +1459,7 @@
     <t>das Gerät</t>
   </si>
   <si>
-    <t>tool, piece of equipment, appliance</t>
+    <t>tool|piece of equipment|appliance</t>
   </si>
   <si>
     <t>der Kilometer</t>
@@ -1489,7 +1489,7 @@
     <t>das Verfahren</t>
   </si>
   <si>
-    <t>method, process, technique</t>
+    <t>method|process|technique</t>
   </si>
   <si>
     <t>der Vertrag</t>
@@ -1513,13 +1513,13 @@
     <t>die Ordnung</t>
   </si>
   <si>
-    <t>order, tidiness</t>
+    <t>order|tidiness</t>
   </si>
   <si>
     <t>der Stoff</t>
   </si>
   <si>
-    <t>material, substance</t>
+    <t>material|substance</t>
   </si>
   <si>
     <t>der Beginn</t>
@@ -1528,7 +1528,7 @@
     <t>das Glück</t>
   </si>
   <si>
-    <t>luck, fortune</t>
+    <t>luck|fortune</t>
   </si>
   <si>
     <t>das Wochenende</t>
@@ -1546,7 +1546,7 @@
     <t>die Reihe</t>
   </si>
   <si>
-    <t>row, line</t>
+    <t>row|line</t>
   </si>
   <si>
     <t>der Westen/West</t>
@@ -1558,7 +1558,7 @@
     <t>die Bevölkerung</t>
   </si>
   <si>
-    <t>population, people</t>
+    <t>population|people</t>
   </si>
   <si>
     <t>das Institut</t>
@@ -1582,25 +1582,25 @@
     <t>die Erde</t>
   </si>
   <si>
-    <t>earth, ground, soil</t>
+    <t>earth|ground|soil</t>
   </si>
   <si>
     <t>die Ebene</t>
   </si>
   <si>
-    <t>plane, level</t>
+    <t>plane|level</t>
   </si>
   <si>
     <t>die Reise</t>
   </si>
   <si>
-    <t>journey, trip</t>
+    <t>journey|trip</t>
   </si>
   <si>
     <t>die Einheit</t>
   </si>
   <si>
-    <t>unity, unit</t>
+    <t>unity|unit</t>
   </si>
   <si>
     <t>das Haar</t>
@@ -1618,7 +1618,7 @@
     <t>die Nähe</t>
   </si>
   <si>
-    <t>vicinity, proximity</t>
+    <t>vicinity|proximity</t>
   </si>
   <si>
     <t>das Prinzip</t>
@@ -1648,7 +1648,7 @@
     <t>die Bedingung</t>
   </si>
   <si>
-    <t>condition, stipulation</t>
+    <t>condition|stipulation</t>
   </si>
   <si>
     <t>das Risiko</t>
@@ -1660,7 +1660,7 @@
     <t>die Wahl</t>
   </si>
   <si>
-    <t>choice, election</t>
+    <t>choice|election</t>
   </si>
   <si>
     <t>die Wirkung</t>
@@ -1678,7 +1678,7 @@
     <t>die Größe</t>
   </si>
   <si>
-    <t>size, height</t>
+    <t>size|height</t>
   </si>
   <si>
     <t>die Medien</t>
@@ -1690,13 +1690,13 @@
     <t>die Macht</t>
   </si>
   <si>
-    <t>power, strength</t>
+    <t>power|strength</t>
   </si>
   <si>
     <t>die Untersuchung</t>
   </si>
   <si>
-    <t>examination, investigation</t>
+    <t>examination|investigation</t>
   </si>
   <si>
     <t>die Veränderung</t>
@@ -1738,7 +1738,7 @@
     <t>die Rede</t>
   </si>
   <si>
-    <t>speech, talk</t>
+    <t>speech|talk</t>
   </si>
   <si>
     <t>der Sport</t>
@@ -1753,31 +1753,31 @@
     <t>die Diskussion</t>
   </si>
   <si>
-    <t>discussion, debate</t>
+    <t>discussion|debate</t>
   </si>
   <si>
     <t>die Forderung</t>
   </si>
   <si>
-    <t>demand, claim</t>
+    <t>demand|claim</t>
   </si>
   <si>
     <t>der Kreis</t>
   </si>
   <si>
-    <t>circle, district</t>
+    <t>circle|district</t>
   </si>
   <si>
     <t>die Technik</t>
   </si>
   <si>
-    <t>technology, technique</t>
+    <t>technology|technique</t>
   </si>
   <si>
     <t>der Versuch</t>
   </si>
   <si>
-    <t>attempt, experiment</t>
+    <t>attempt|experiment</t>
   </si>
   <si>
     <t>das Schweigen</t>
@@ -1789,7 +1789,7 @@
     <t>die Krankheit</t>
   </si>
   <si>
-    <t>illness, disease</t>
+    <t>illness|disease</t>
   </si>
   <si>
     <t>die Schwierigkeit</t>
@@ -1807,13 +1807,13 @@
     <t>die Voraussetzung</t>
   </si>
   <si>
-    <t>condition, requirement</t>
+    <t>condition|requirement</t>
   </si>
   <si>
     <t>der Kampf</t>
   </si>
   <si>
-    <t>fight, struggle</t>
+    <t>fight|struggle</t>
   </si>
   <si>
     <t>der Künstler</t>
@@ -1849,7 +1849,7 @@
     <t>das Konzept</t>
   </si>
   <si>
-    <t>draft, plan</t>
+    <t>draft|plan</t>
   </si>
   <si>
     <t>die Linie</t>
@@ -1879,7 +1879,7 @@
     <t>der Gegensatz</t>
   </si>
   <si>
-    <t>opposite, contrast</t>
+    <t>opposite|contrast</t>
   </si>
   <si>
     <t>das Kapitel</t>
@@ -1921,13 +1921,13 @@
     <t>der Himmel</t>
   </si>
   <si>
-    <t>sky, heaven</t>
+    <t>sky|heaven</t>
   </si>
   <si>
     <t>der Inhalt</t>
   </si>
   <si>
-    <t>contents, plot</t>
+    <t>contents|plot</t>
   </si>
   <si>
     <t>die Wand</t>
@@ -1960,7 +1960,7 @@
     <t>der Ansatz</t>
   </si>
   <si>
-    <t>approach, attempt</t>
+    <t>approach|attempt</t>
   </si>
   <si>
     <t>der Aspekt</t>
@@ -1990,7 +1990,7 @@
     <t>der Kurs</t>
   </si>
   <si>
-    <t>course, exchange rate</t>
+    <t>course|exchange rate</t>
   </si>
   <si>
     <t>das Papier</t>
@@ -2032,7 +2032,7 @@
     <t>die Küche</t>
   </si>
   <si>
-    <t>kitchen, cuisine</t>
+    <t>kitchen|cuisine</t>
   </si>
   <si>
     <t>die Wirklichkeit</t>
@@ -2044,13 +2044,13 @@
     <t>der Druck</t>
   </si>
   <si>
-    <t>pressure, printing</t>
+    <t>pressure|printing</t>
   </si>
   <si>
     <t>das Essen</t>
   </si>
   <si>
-    <t>food, meal</t>
+    <t>food|meal</t>
   </si>
   <si>
     <t>die Grundlage</t>
@@ -2062,7 +2062,7 @@
     <t>der Zustand</t>
   </si>
   <si>
-    <t>condition, state</t>
+    <t>condition|state</t>
   </si>
   <si>
     <t>die Hälfte</t>
@@ -2074,13 +2074,13 @@
     <t>das Meer</t>
   </si>
   <si>
-    <t>sea, ocean</t>
+    <t>sea|ocean</t>
   </si>
   <si>
     <t>der Dienst</t>
   </si>
   <si>
-    <t>service, duty</t>
+    <t>service|duty</t>
   </si>
   <si>
     <t>der Gegenstand</t>
@@ -2098,13 +2098,13 @@
     <t>der Zeitpunkt</t>
   </si>
   <si>
-    <t>moment, point in time</t>
+    <t>moment|point in time</t>
   </si>
   <si>
     <t>der Auftrag</t>
   </si>
   <si>
-    <t>instructions, order, job</t>
+    <t>instructions|order|job</t>
   </si>
   <si>
     <t>der Baum</t>
@@ -2122,7 +2122,7 @@
     <t>die Gemeinde</t>
   </si>
   <si>
-    <t>community, municipality</t>
+    <t>community|municipality</t>
   </si>
   <si>
     <t>der Hinweis</t>
@@ -2134,7 +2134,7 @@
     <t>das Netz</t>
   </si>
   <si>
-    <t>net, network</t>
+    <t>net|network</t>
   </si>
   <si>
     <t>die Position</t>
@@ -2146,7 +2146,7 @@
     <t>der Schluss</t>
   </si>
   <si>
-    <t>end, conclusion</t>
+    <t>end|conclusion</t>
   </si>
   <si>
     <t>die Bundesrepublik</t>
@@ -2176,19 +2176,19 @@
     <t>die Praxis</t>
   </si>
   <si>
-    <t>practice, doctor's office</t>
+    <t>practice|doctor's office</t>
   </si>
   <si>
     <t>der Wald</t>
   </si>
   <si>
-    <t>forest, woods</t>
+    <t>forest|woods</t>
   </si>
   <si>
     <t>der Ausdruck</t>
   </si>
   <si>
-    <t>term, expression</t>
+    <t>term|expression</t>
   </si>
   <si>
     <t>der Finger</t>
@@ -2209,7 +2209,7 @@
     <t>die Sicht</t>
   </si>
   <si>
-    <t>view, visibility</t>
+    <t>view|visibility</t>
   </si>
   <si>
     <t>die Theorie</t>
@@ -2227,7 +2227,7 @@
     <t>der Haushalt</t>
   </si>
   <si>
-    <t>household, budget</t>
+    <t>household|budget</t>
   </si>
   <si>
     <t>der Hund</t>
@@ -2266,7 +2266,7 @@
     <t>der Verein</t>
   </si>
   <si>
-    <t>association, club</t>
+    <t>association|club</t>
   </si>
   <si>
     <t>das Fernsehen</t>
@@ -2308,13 +2308,13 @@
     <t>der Rest</t>
   </si>
   <si>
-    <t>rest, remains</t>
+    <t>rest|remains</t>
   </si>
   <si>
     <t>die Ruhe</t>
   </si>
   <si>
-    <t>silence, peace</t>
+    <t>silence|peace</t>
   </si>
   <si>
     <t>der Schaden</t>
@@ -2353,7 +2353,7 @@
     <t>der Wagen</t>
   </si>
   <si>
-    <t>car, carriage</t>
+    <t>car|carriage</t>
   </si>
   <si>
     <t>der Wind</t>
@@ -2407,7 +2407,7 @@
     <t>der Anteil</t>
   </si>
   <si>
-    <t>share, portion</t>
+    <t>share|portion</t>
   </si>
   <si>
     <t>der/die Beschäftigte</t>
@@ -2437,19 +2437,19 @@
     <t>der Gang</t>
   </si>
   <si>
-    <t>corridor, aisle, course</t>
+    <t>corridor|aisle|course</t>
   </si>
   <si>
     <t>der Lauf</t>
   </si>
   <si>
-    <t>course, running</t>
+    <t>course|running</t>
   </si>
   <si>
     <t>der Unterricht</t>
   </si>
   <si>
-    <t>instruction, classes</t>
+    <t>instruction|classes</t>
   </si>
   <si>
     <t>das Zentrum</t>
@@ -2461,7 +2461,7 @@
     <t>das Amt</t>
   </si>
   <si>
-    <t>office, department, function</t>
+    <t>office|department|function</t>
   </si>
   <si>
     <t>der Anschlag</t>
@@ -2482,7 +2482,7 @@
     <t>die Einrichtung</t>
   </si>
   <si>
-    <t>institution, furnishings</t>
+    <t>institution|furnishings</t>
   </si>
   <si>
     <t>das Feld</t>
@@ -2494,7 +2494,7 @@
     <t>die Hochschule</t>
   </si>
   <si>
-    <t>college, university</t>
+    <t>college|university</t>
   </si>
   <si>
     <t>das Hotel</t>
@@ -2506,7 +2506,7 @@
     <t>das Publikum</t>
   </si>
   <si>
-    <t>public, audience</t>
+    <t>public|audience</t>
   </si>
   <si>
     <t>die Studie</t>
@@ -2530,19 +2530,19 @@
     <t>die Spur</t>
   </si>
   <si>
-    <t>track, lane</t>
+    <t>track|lane</t>
   </si>
   <si>
     <t>der Berg</t>
   </si>
   <si>
-    <t>hill, mountain</t>
+    <t>hill|mountain</t>
   </si>
   <si>
     <t>die Erkenntnis</t>
   </si>
   <si>
-    <t>realization, discovery</t>
+    <t>realization|discovery</t>
   </si>
   <si>
     <t>der Faktor</t>
@@ -2554,7 +2554,7 @@
     <t>der Fehler</t>
   </si>
   <si>
-    <t>mistake, error</t>
+    <t>mistake|error</t>
   </si>
   <si>
     <t>die Freiheit</t>
@@ -2575,7 +2575,7 @@
     <t>die Kritik</t>
   </si>
   <si>
-    <t>criticism, review</t>
+    <t>criticism|review</t>
   </si>
   <si>
     <t>der Partner</t>
@@ -2620,7 +2620,7 @@
     <t>das Opfer</t>
   </si>
   <si>
-    <t>sacrifice, victim</t>
+    <t>sacrifice|victim</t>
   </si>
   <si>
     <t>der Sprecher</t>
@@ -2632,31 +2632,31 @@
     <t>der Arbeitsplatz</t>
   </si>
   <si>
-    <t>workplace, job</t>
+    <t>workplace|job</t>
   </si>
   <si>
     <t>die Aufnahme</t>
   </si>
   <si>
-    <t>reception, recording, snapshot</t>
+    <t>reception|recording|snapshot</t>
   </si>
   <si>
     <t>die Fähigkeit</t>
   </si>
   <si>
-    <t>ability, capability</t>
+    <t>ability|capability</t>
   </si>
   <si>
     <t>die Karte</t>
   </si>
   <si>
-    <t>card, ticket, menu</t>
+    <t>card|ticket|menu</t>
   </si>
   <si>
     <t>der Urlaub</t>
   </si>
   <si>
-    <t>vacation, holiday</t>
+    <t>vacation|holiday</t>
   </si>
   <si>
     <t>die Verantwortung</t>
@@ -2680,7 +2680,7 @@
     <t>der Gesellschafter</t>
   </si>
   <si>
-    <t>associate, shareholder</t>
+    <t>associate|shareholder</t>
   </si>
   <si>
     <t>das Jahrzehnt</t>
@@ -2704,13 +2704,13 @@
     <t>die Prüfung</t>
   </si>
   <si>
-    <t>examination, test</t>
+    <t>examination|test</t>
   </si>
   <si>
     <t>die Regelung</t>
   </si>
   <si>
-    <t>regulation, settlement</t>
+    <t>regulation|settlement</t>
   </si>
   <si>
     <t>das Schiff</t>
@@ -2728,7 +2728,7 @@
     <t>der Bezug</t>
   </si>
   <si>
-    <t>reference, cover</t>
+    <t>reference|cover</t>
   </si>
   <si>
     <t>die Bitte</t>
@@ -2746,7 +2746,7 @@
     <t>der Band</t>
   </si>
   <si>
-    <t>volume, tome</t>
+    <t>volume|tome</t>
   </si>
   <si>
     <t>die Band</t>
@@ -2758,7 +2758,7 @@
     <t>das Band</t>
   </si>
   <si>
-    <t>ribbon, tape</t>
+    <t>ribbon|tape</t>
   </si>
   <si>
     <t>der Bericht</t>
@@ -2770,13 +2770,13 @@
     <t>die Einstellung</t>
   </si>
   <si>
-    <t>attitude, employment</t>
+    <t>attitude|employment</t>
   </si>
   <si>
     <t>das Gericht</t>
   </si>
   <si>
-    <t>court, dish</t>
+    <t>court|dish</t>
   </si>
   <si>
     <t>der Gewinn</t>
@@ -2824,7 +2824,7 @@
     <t>der Bund</t>
   </si>
   <si>
-    <t>association, alliance</t>
+    <t>association|alliance</t>
   </si>
   <si>
     <t>der Direktor</t>
@@ -2866,7 +2866,7 @@
     <t>der Abschnitt</t>
   </si>
   <si>
-    <t>portion, section</t>
+    <t>portion|section</t>
   </si>
   <si>
     <t>der Bauer</t>
@@ -2923,7 +2923,7 @@
     <t>die Nachricht</t>
   </si>
   <si>
-    <t>news, message</t>
+    <t>news|message</t>
   </si>
   <si>
     <t>die Pflanzen</t>
@@ -2935,7 +2935,7 @@
     <t>die Störung</t>
   </si>
   <si>
-    <t>disturbance, interruption</t>
+    <t>disturbance|interruption</t>
   </si>
   <si>
     <t>der Vertreter</t>
@@ -2947,7 +2947,7 @@
     <t>der Vorschlag</t>
   </si>
   <si>
-    <t>suggestion, proposal</t>
+    <t>suggestion|proposal</t>
   </si>
   <si>
     <t>der Zentimeter</t>
@@ -2995,13 +2995,13 @@
     <t>das Blatt</t>
   </si>
   <si>
-    <t>sheet, leaf</t>
+    <t>sheet|leaf</t>
   </si>
   <si>
     <t>der Geist</t>
   </si>
   <si>
-    <t>mind, spirit</t>
+    <t>mind|spirit</t>
   </si>
   <si>
     <t>das Interview</t>
@@ -3019,7 +3019,7 @@
     <t>der Stand</t>
   </si>
   <si>
-    <t>stand, stage</t>
+    <t>stand|stage</t>
   </si>
   <si>
     <t>die Tradition</t>
@@ -3031,13 +3031,13 @@
     <t>die Anlage</t>
   </si>
   <si>
-    <t>sport complex, investment, attachment</t>
+    <t>sport complex|investment|attachment</t>
   </si>
   <si>
     <t>die Behörde</t>
   </si>
   <si>
-    <t>department, authorities</t>
+    <t>department|authorities</t>
   </si>
   <si>
     <t>die Bühne</t>
@@ -3067,7 +3067,7 @@
     <t>der Hof</t>
   </si>
   <si>
-    <t>courtyard, yard</t>
+    <t>courtyard|yard</t>
   </si>
   <si>
     <t>die Kommunikation</t>
@@ -3136,19 +3136,19 @@
     <t>die Ansicht</t>
   </si>
   <si>
-    <t>opinion, view</t>
+    <t>opinion|view</t>
   </si>
   <si>
     <t>die Auseinandersetzung</t>
   </si>
   <si>
-    <t>argument, quarrel</t>
+    <t>argument|quarrel</t>
   </si>
   <si>
     <t>die Bahn</t>
   </si>
   <si>
-    <t>train, railway, way</t>
+    <t>train|railway|way</t>
   </si>
   <si>
     <t>die Bürgermeister</t>
@@ -3178,7 +3178,7 @@
     <t>die Masse</t>
   </si>
   <si>
-    <t>mass, crowd</t>
+    <t>mass|crowd</t>
   </si>
   <si>
     <t>die Nation</t>
@@ -3196,13 +3196,13 @@
     <t>der Stein</t>
   </si>
   <si>
-    <t>rock, stone</t>
+    <t>rock|stone</t>
   </si>
   <si>
     <t>der Ton</t>
   </si>
   <si>
-    <t>sound, tone, clay</t>
+    <t>sound|tone|clay</t>
   </si>
   <si>
     <t>die Veranstaltung</t>
@@ -3220,7 +3220,7 @@
     <t>der Bau</t>
   </si>
   <si>
-    <t>construction, building</t>
+    <t>construction|building</t>
   </si>
   <si>
     <t>das Hobby</t>
@@ -3244,7 +3244,7 @@
     <t>die Leitung</t>
   </si>
   <si>
-    <t>management, leadership, pipe</t>
+    <t>management|leadership|pipe</t>
   </si>
   <si>
     <t>die Lust</t>
@@ -3268,13 +3268,13 @@
     <t>die Rechnung</t>
   </si>
   <si>
-    <t>bill, calculation</t>
+    <t>bill|calculation</t>
   </si>
   <si>
     <t>das Schloss</t>
   </si>
   <si>
-    <t>lock, castle</t>
+    <t>lock|castle</t>
   </si>
   <si>
     <t>die Aktivität</t>
@@ -3289,7 +3289,7 @@
     <t>das Fest</t>
   </si>
   <si>
-    <t>festival, celebration</t>
+    <t>festival|celebration</t>
   </si>
   <si>
     <t>der Kandidat</t>
@@ -3301,13 +3301,13 @@
     <t>die Landschaft</t>
   </si>
   <si>
-    <t>landscape, countryside</t>
+    <t>landscape|countryside</t>
   </si>
   <si>
     <t>die Mannschaft</t>
   </si>
   <si>
-    <t>crew, team</t>
+    <t>crew|team</t>
   </si>
   <si>
     <t>die Mauer</t>
@@ -3334,7 +3334,7 @@
     <t>die Gestalt</t>
   </si>
   <si>
-    <t>shape, form, figure</t>
+    <t>shape|form|figure</t>
   </si>
   <si>
     <t>der Laden</t>
@@ -3352,7 +3352,7 @@
     <t>die Stellung</t>
   </si>
   <si>
-    <t>position, standing</t>
+    <t>position|standing</t>
   </si>
   <si>
     <t>der Zugang</t>
@@ -3364,7 +3364,7 @@
     <t>die Branche</t>
   </si>
   <si>
-    <t>sector, line of business</t>
+    <t>sector|line of business</t>
   </si>
   <si>
     <t>die Figur</t>
@@ -3388,7 +3388,7 @@
     <t>der Umgang</t>
   </si>
   <si>
-    <t>dealings, contact</t>
+    <t>dealings|contact</t>
   </si>
   <si>
     <t>der Vorgang</t>
@@ -3412,19 +3412,19 @@
     <t>die Darstellung</t>
   </si>
   <si>
-    <t>presentation, description</t>
+    <t>presentation|description</t>
   </si>
   <si>
     <t>der Fußball</t>
   </si>
   <si>
-    <t>soccer, football</t>
+    <t>soccer|football</t>
   </si>
   <si>
     <t>die Gewalt</t>
   </si>
   <si>
-    <t>violence, force</t>
+    <t>violence|force</t>
   </si>
   <si>
     <t>die Institution</t>
@@ -3448,13 +3448,13 @@
     <t>das Lager</t>
   </si>
   <si>
-    <t>camp, storeroom</t>
+    <t>camp|storeroom</t>
   </si>
   <si>
     <t>die Lehre</t>
   </si>
   <si>
-    <t>apprenticeship, lesson, doctrine</t>
+    <t>apprenticeship|lesson|doctrine</t>
   </si>
   <si>
     <t>das Pferd</t>
@@ -3472,19 +3472,19 @@
     <t>der Schatten</t>
   </si>
   <si>
-    <t>shadow, shade</t>
+    <t>shadow|shade</t>
   </si>
   <si>
     <t>die Spitze</t>
   </si>
   <si>
-    <t>point, top, peak</t>
+    <t>point|top|peak</t>
   </si>
   <si>
     <t>die Strecke</t>
   </si>
   <si>
-    <t>distance, route</t>
+    <t>distance|route</t>
   </si>
   <si>
     <t>die Szene</t>
@@ -3550,13 +3550,13 @@
     <t>das Tor</t>
   </si>
   <si>
-    <t>gate, goal</t>
+    <t>gate|goal</t>
   </si>
   <si>
     <t>der Verband</t>
   </si>
   <si>
-    <t>association, bandage</t>
+    <t>association|bandage</t>
   </si>
   <si>
     <t>die Aktie</t>
@@ -3568,19 +3568,19 @@
     <t>die Aktion</t>
   </si>
   <si>
-    <t>action, campaign</t>
+    <t>action|campaign</t>
   </si>
   <si>
     <t>der Anlass</t>
   </si>
   <si>
-    <t>occasion, cause</t>
+    <t>occasion|cause</t>
   </si>
   <si>
     <t>die Ausgabe</t>
   </si>
   <si>
-    <t>distribution, edition, expenses</t>
+    <t>distribution|edition|expenses</t>
   </si>
   <si>
     <t>der Ausländer</t>
@@ -3592,7 +3592,7 @@
     <t>das Bundesland</t>
   </si>
   <si>
-    <t>state, province</t>
+    <t>state|province</t>
   </si>
   <si>
     <t>der Club</t>
@@ -3610,7 +3610,7 @@
     <t>die Führung</t>
   </si>
   <si>
-    <t>management, leadership, command</t>
+    <t>management|leadership|command</t>
   </si>
   <si>
     <t>die Geschwindigkeit</t>
@@ -3622,7 +3622,7 @@
     <t>das Gut</t>
   </si>
   <si>
-    <t>estate, goods</t>
+    <t>estate|goods</t>
   </si>
   <si>
     <t>die Medizin</t>
@@ -3646,7 +3646,7 @@
     <t>die Stufe</t>
   </si>
   <si>
-    <t>step, level</t>
+    <t>step|level</t>
   </si>
   <si>
     <t>das Telefon</t>
@@ -3676,19 +3676,19 @@
     <t>die Anforderung</t>
   </si>
   <si>
-    <t>request, demand</t>
+    <t>request|demand</t>
   </si>
   <si>
     <t>das Bad</t>
   </si>
   <si>
-    <t>bath, bathroom, spa</t>
+    <t>bath|bathroom|spa</t>
   </si>
   <si>
     <t>die Belastung</t>
   </si>
   <si>
-    <t>load, strain</t>
+    <t>load|strain</t>
   </si>
   <si>
     <t>der Bus</t>
@@ -3703,19 +3703,19 @@
     <t>die Messe</t>
   </si>
   <si>
-    <t>trade fair, mass</t>
+    <t>trade fair|mass</t>
   </si>
   <si>
     <t>der Umfang</t>
   </si>
   <si>
-    <t>circumference, size, extent</t>
+    <t>circumference|size|extent</t>
   </si>
   <si>
     <t>die Vorschrift</t>
   </si>
   <si>
-    <t>instruction, regulation</t>
+    <t>instruction|regulation</t>
   </si>
   <si>
     <t>das Fahrrad</t>
@@ -3727,7 +3727,7 @@
     <t>die Kommission</t>
   </si>
   <si>
-    <t>commission, committee</t>
+    <t>commission|committee</t>
   </si>
   <si>
     <t>das Krankenhaus</t>
@@ -3739,7 +3739,7 @@
     <t>der Mangel</t>
   </si>
   <si>
-    <t>lack, shortage, defect</t>
+    <t>lack|shortage|defect</t>
   </si>
   <si>
     <t>der Richter</t>
@@ -3757,7 +3757,7 @@
     <t>das Urteil</t>
   </si>
   <si>
-    <t>sentence, judgement</t>
+    <t>sentence|judgement</t>
   </si>
   <si>
     <t>der Anbieter</t>
@@ -3769,7 +3769,7 @@
     <t>die Decke</t>
   </si>
   <si>
-    <t>ceiling, blanket</t>
+    <t>ceiling|blanket</t>
   </si>
   <si>
     <t>der Fisch</t>
@@ -3781,7 +3781,7 @@
     <t>das Fleisch</t>
   </si>
   <si>
-    <t>meat, flesh</t>
+    <t>meat|flesh</t>
   </si>
   <si>
     <t>die Jugend</t>
@@ -3793,7 +3793,7 @@
     <t>der Schmerz</t>
   </si>
   <si>
-    <t>pain, grief</t>
+    <t>pain|grief</t>
   </si>
   <si>
     <t>die Schuld</t>
@@ -3805,13 +3805,13 @@
     <t>die Stimmung</t>
   </si>
   <si>
-    <t>mood, atmosphere</t>
+    <t>mood|atmosphere</t>
   </si>
   <si>
     <t>die Tasche</t>
   </si>
   <si>
-    <t>pocket, bag</t>
+    <t>pocket|bag</t>
   </si>
   <si>
     <t>der Wein</t>
@@ -3856,7 +3856,7 @@
     <t>die Haltung</t>
   </si>
   <si>
-    <t>posture, attitude</t>
+    <t>posture|attitude</t>
   </si>
   <si>
     <t>der Leser</t>
@@ -3892,13 +3892,13 @@
     <t>die Ahnung</t>
   </si>
   <si>
-    <t>suspicion, idea</t>
+    <t>suspicion|idea</t>
   </si>
   <si>
     <t>die Brust</t>
   </si>
   <si>
-    <t>breast, chest</t>
+    <t>breast|chest</t>
   </si>
   <si>
     <t>die Einführung</t>
@@ -3910,13 +3910,13 @@
     <t>die Fahrt</t>
   </si>
   <si>
-    <t>drive, trip</t>
+    <t>drive|trip</t>
   </si>
   <si>
     <t>die Förderung</t>
   </si>
   <si>
-    <t>support, sponsorship</t>
+    <t>support|sponsorship</t>
   </si>
   <si>
     <t>das Kleid</t>
@@ -3952,7 +3952,7 @@
     <t>die Quelle</t>
   </si>
   <si>
-    <t>source, spring</t>
+    <t>source|spring</t>
   </si>
   <si>
     <t>der Regen</t>
@@ -3982,7 +3982,7 @@
     <t>der Termin</t>
   </si>
   <si>
-    <t>appointment, date</t>
+    <t>appointment|date</t>
   </si>
   <si>
     <t>der Test</t>
@@ -4000,13 +4000,13 @@
     <t>der Umsatz</t>
   </si>
   <si>
-    <t>turnover, sales</t>
+    <t>turnover|sales</t>
   </si>
   <si>
     <t>das Vertrauen</t>
   </si>
   <si>
-    <t>trust, faith</t>
+    <t>trust|faith</t>
   </si>
   <si>
     <t>die Verwendung</t>
@@ -4015,13 +4015,13 @@
     <t>der Vorwurf</t>
   </si>
   <si>
-    <t>reproach, accusation</t>
+    <t>reproach|accusation</t>
   </si>
   <si>
     <t>der Wissenschaftler</t>
   </si>
   <si>
-    <t>scholar, scientist</t>
+    <t>scholar|scientist</t>
   </si>
   <si>
     <t>das Bier</t>
@@ -4057,7 +4057,7 @@
     <t>das Leid</t>
   </si>
   <si>
-    <t>sorrow, grief</t>
+    <t>sorrow|grief</t>
   </si>
   <si>
     <t>das Lied</t>
@@ -4081,13 +4081,13 @@
     <t>die Pause</t>
   </si>
   <si>
-    <t>pause, break</t>
+    <t>pause|break</t>
   </si>
   <si>
     <t>die Perspektive</t>
   </si>
   <si>
-    <t>perspective, prospects</t>
+    <t>perspective|prospects</t>
   </si>
   <si>
     <t>das Phänomen</t>
@@ -4120,13 +4120,13 @@
     <t>der Aufbau</t>
   </si>
   <si>
-    <t>construction, structure</t>
+    <t>construction|structure</t>
   </si>
   <si>
     <t>die Bestimmungen</t>
   </si>
   <si>
-    <t>regulation, purpose, fate</t>
+    <t>regulation|purpose|fate</t>
   </si>
   <si>
     <t>die Botschaft</t>
@@ -4180,7 +4180,7 @@
     <t>die Mühe</t>
   </si>
   <si>
-    <t>effort, trouble</t>
+    <t>effort|trouble</t>
   </si>
   <si>
     <t>die Nachfrage</t>
@@ -4228,7 +4228,7 @@
     <t>der Gegner</t>
   </si>
   <si>
-    <t>opponent, competitor, enemy</t>
+    <t>opponent|competitor|enemy</t>
   </si>
   <si>
     <t>die Hinsicht</t>
@@ -4276,13 +4276,13 @@
     <t>der Hals</t>
   </si>
   <si>
-    <t>neck, throat</t>
+    <t>neck|throat</t>
   </si>
   <si>
     <t>die Heimat</t>
   </si>
   <si>
-    <t>home, homeland</t>
+    <t>home|homeland</t>
   </si>
   <si>
     <t>der Kauf</t>
@@ -4294,7 +4294,7 @@
     <t>das Kino</t>
   </si>
   <si>
-    <t>cinema, movie theater</t>
+    <t>cinema|movie theater</t>
   </si>
   <si>
     <t>die Konkurrenz</t>
@@ -4309,19 +4309,19 @@
     <t>die Schicht</t>
   </si>
   <si>
-    <t>layer, class</t>
+    <t>layer|class</t>
   </si>
   <si>
     <t>der Schwerpunkt</t>
   </si>
   <si>
-    <t>main emphasis, center of gravity</t>
+    <t>main emphasis|center of gravity</t>
   </si>
   <si>
     <t>der Streit</t>
   </si>
   <si>
-    <t>argument, fight</t>
+    <t>argument|fight</t>
   </si>
   <si>
     <t>die Verhandlung</t>
@@ -4333,7 +4333,7 @@
     <t>der Ablauf</t>
   </si>
   <si>
-    <t>expiry, action</t>
+    <t>expiry|action</t>
   </si>
   <si>
     <t>der Arbeitnehmer</t>
@@ -4348,7 +4348,7 @@
     <t>der/die Erwachsene</t>
   </si>
   <si>
-    <t>adult, grown-up</t>
+    <t>adult|grown-up</t>
   </si>
   <si>
     <t>der Fahrer</t>
@@ -4414,25 +4414,25 @@
     <t>die Platte</t>
   </si>
   <si>
-    <t>disk, record, plate</t>
+    <t>disk|record|plate</t>
   </si>
   <si>
     <t>der Sitz</t>
   </si>
   <si>
-    <t>seat, headquarters</t>
+    <t>seat|headquarters</t>
   </si>
   <si>
     <t>der Start</t>
   </si>
   <si>
-    <t>start, take-off, launch</t>
+    <t>start|take-off|launch</t>
   </si>
   <si>
     <t>die Tabelle</t>
   </si>
   <si>
-    <t>table, chart</t>
+    <t>table|chart</t>
   </si>
   <si>
     <t>der Tourismus</t>
@@ -4456,13 +4456,13 @@
     <t>der Widerstand</t>
   </si>
   <si>
-    <t>resistance, opposition</t>
+    <t>resistance|opposition</t>
   </si>
   <si>
     <t>der/die Beamte</t>
   </si>
   <si>
-    <t>official, civil servant</t>
+    <t>official|civil servant</t>
   </si>
   <si>
     <t>die Investition</t>
@@ -4474,7 +4474,7 @@
     <t>die Planung</t>
   </si>
   <si>
-    <t>planning, plan</t>
+    <t>planning|plan</t>
   </si>
   <si>
     <t>der Polizist</t>
@@ -4504,7 +4504,7 @@
     <t>das Steuer</t>
   </si>
   <si>
-    <t>steering wheel, helm</t>
+    <t>steering wheel|helm</t>
   </si>
   <si>
     <t>die Therapie</t>
@@ -4516,7 +4516,7 @@
     <t>die Überlegung</t>
   </si>
   <si>
-    <t>thought, thinking</t>
+    <t>thought|thinking</t>
   </si>
   <si>
     <t>der Verkehr</t>
@@ -4534,7 +4534,7 @@
     <t>der/die Abgeordnete</t>
   </si>
   <si>
-    <t>member of the parliament, congress</t>
+    <t>member of the parliament|congress</t>
   </si>
   <si>
     <t>der Anschluss</t>
@@ -4558,7 +4558,7 @@
     <t>die Auswahl</t>
   </si>
   <si>
-    <t>choice, selection</t>
+    <t>choice|selection</t>
   </si>
   <si>
     <t>die Beschreibung</t>
@@ -4576,7 +4576,7 @@
     <t>die Einnahmen</t>
   </si>
   <si>
-    <t>income, receipts, revenue</t>
+    <t>income|receipts|revenue</t>
   </si>
   <si>
     <t>die Erkrankung</t>
@@ -4585,7 +4585,7 @@
     <t>die Fläche</t>
   </si>
   <si>
-    <t>area, surface</t>
+    <t>area|surface</t>
   </si>
   <si>
     <t>der Flughafen</t>
@@ -4624,7 +4624,7 @@
     <t>die Post</t>
   </si>
   <si>
-    <t>mail, post office</t>
+    <t>mail|post office</t>
   </si>
   <si>
     <t>die Saison</t>
@@ -4651,13 +4651,13 @@
     <t>der Alltag</t>
   </si>
   <si>
-    <t>workday, daily routine</t>
+    <t>workday|daily routine</t>
   </si>
   <si>
     <t>der Auftritt</t>
   </si>
   <si>
-    <t>appearance, entrance</t>
+    <t>appearance|entrance</t>
   </si>
   <si>
     <t>der Bahnhof</t>
@@ -4699,7 +4699,7 @@
     <t>der Hersteller</t>
   </si>
   <si>
-    <t>manufacturer, producer</t>
+    <t>manufacturer|producer</t>
   </si>
   <si>
     <t>das Holz</t>
@@ -4729,7 +4729,7 @@
     <t>das Niveau</t>
   </si>
   <si>
-    <t>level, standard</t>
+    <t>level|standard</t>
   </si>
   <si>
     <t>der Pfarrer</t>
@@ -4747,13 +4747,13 @@
     <t>die Schrift</t>
   </si>
   <si>
-    <t>script, handwriting</t>
+    <t>script|handwriting</t>
   </si>
   <si>
     <t>der Standort</t>
   </si>
   <si>
-    <t>site, location</t>
+    <t>site|location</t>
   </si>
   <si>
     <t>der Verlag</t>
@@ -4777,7 +4777,7 @@
     <t>der Beweis</t>
   </si>
   <si>
-    <t>proof, evidence</t>
+    <t>proof|evidence</t>
   </si>
   <si>
     <t>das Detail</t>
@@ -4807,7 +4807,7 @@
     <t>die Kasse</t>
   </si>
   <si>
-    <t>cash register, checkout</t>
+    <t>cash register|checkout</t>
   </si>
   <si>
     <t>die Kategorie</t>
@@ -4843,37 +4843,37 @@
     <t>die Verpflichtung</t>
   </si>
   <si>
-    <t>commitment, obligation</t>
+    <t>commitment|obligation</t>
   </si>
   <si>
     <t>das Abitur</t>
   </si>
   <si>
-    <t>school leaving exam, A levels</t>
+    <t>school leaving exam|A levels</t>
   </si>
   <si>
     <t>der Bedarf</t>
   </si>
   <si>
-    <t>need, demand</t>
+    <t>need|demand</t>
   </si>
   <si>
     <t>die Beratung</t>
   </si>
   <si>
-    <t>advice, discussion, consultation</t>
+    <t>advice|discussion|consultation</t>
   </si>
   <si>
     <t>die Beschäftigung</t>
   </si>
   <si>
-    <t>employment, job, activity, occupation</t>
+    <t>employment|job|activity|occupation</t>
   </si>
   <si>
     <t>die Betrachtung</t>
   </si>
   <si>
-    <t>contemplation, examination</t>
+    <t>contemplation|examination</t>
   </si>
   <si>
     <t>das Frühjahr</t>
@@ -4897,7 +4897,7 @@
     <t>die Kompetenz</t>
   </si>
   <si>
-    <t>competence, authority</t>
+    <t>competence|authority</t>
   </si>
   <si>
     <t>das Lebensmittel</t>
@@ -4909,7 +4909,7 @@
     <t>der Mittelpunkt</t>
   </si>
   <si>
-    <t>midpoint, center of focus</t>
+    <t>midpoint|center of focus</t>
   </si>
   <si>
     <t>der Spiegel</t>
@@ -4933,13 +4933,13 @@
     <t>das Vermögen</t>
   </si>
   <si>
-    <t>assets, fortune, ability</t>
+    <t>assets|fortune|ability</t>
   </si>
   <si>
     <t>das Wesen</t>
   </si>
   <si>
-    <t>being, creature, nature</t>
+    <t>being|creature|nature</t>
   </si>
   <si>
     <t>die Arbeitslosigkeit</t>
@@ -4975,7 +4975,7 @@
     <t>die Bezeichnung</t>
   </si>
   <si>
-    <t>name, term</t>
+    <t>name|term</t>
   </si>
   <si>
     <t>die Brücke</t>
@@ -5005,19 +5005,19 @@
     <t>der Ministerpräsident</t>
   </si>
   <si>
-    <t>governor, minister, president</t>
+    <t>governor|minister|president</t>
   </si>
   <si>
     <t>der Nutzen</t>
   </si>
   <si>
-    <t>benefit, profit, use</t>
+    <t>benefit|profit|use</t>
   </si>
   <si>
     <t>der Ruf</t>
   </si>
   <si>
-    <t>reputation, call</t>
+    <t>reputation|call</t>
   </si>
   <si>
     <t>das Signal</t>
@@ -5032,7 +5032,7 @@
     <t>standard</t>
   </si>
   <si>
-    <t>star, starling</t>
+    <t>star|starling</t>
   </si>
   <si>
     <t>die Substanz</t>
@@ -5044,7 +5044,7 @@
     <t>die Taste</t>
   </si>
   <si>
-    <t>key, button</t>
+    <t>key|button</t>
   </si>
   <si>
     <t>das Teilchen</t>
@@ -5056,7 +5056,7 @@
     <t>die Versicherung</t>
   </si>
   <si>
-    <t>insurance, assurance</t>
+    <t>insurance|assurance</t>
   </si>
   <si>
     <t>die Vorbereitung</t>
@@ -5074,7 +5074,7 @@
     <t>der Anwalt</t>
   </si>
   <si>
-    <t>attorney, lawyer</t>
+    <t>attorney|lawyer</t>
   </si>
   <si>
     <t>das Experiment</t>
@@ -5086,7 +5086,7 @@
     <t>der Glauben</t>
   </si>
   <si>
-    <t>faith, belief</t>
+    <t>faith|belief</t>
   </si>
   <si>
     <t>der Grundsatz</t>
@@ -5104,7 +5104,7 @@
     <t>das Reich</t>
   </si>
   <si>
-    <t>empire, kingdom</t>
+    <t>empire|kingdom</t>
   </si>
   <si>
     <t>das Rennen</t>
@@ -5140,7 +5140,7 @@
     <t>die Spannung</t>
   </si>
   <si>
-    <t>suspense, tension</t>
+    <t>suspense|tension</t>
   </si>
   <si>
     <t>die Technologie</t>
@@ -5152,7 +5152,7 @@
     <t>die Truppe</t>
   </si>
   <si>
-    <t>troops, unit</t>
+    <t>troops|unit</t>
   </si>
   <si>
     <t>das Umfeld</t>
@@ -5176,7 +5176,7 @@
     <t>das Viertel</t>
   </si>
   <si>
-    <t>quarter, district</t>
+    <t>quarter|district</t>
   </si>
   <si>
     <t>das Vorjahr</t>
@@ -5215,7 +5215,7 @@
     <t>der Kanal</t>
   </si>
   <si>
-    <t>canal, channel</t>
+    <t>canal|channel</t>
   </si>
   <si>
     <t>die Karriere</t>
@@ -5245,7 +5245,7 @@
     <t>der Rechner</t>
   </si>
   <si>
-    <t>computer, calculator</t>
+    <t>computer|calculator</t>
   </si>
   <si>
     <t>der Schlaf</t>
@@ -5311,7 +5311,7 @@
     <t>der Bewohner</t>
   </si>
   <si>
-    <t>inhabitant, occupant</t>
+    <t>inhabitant|occupant</t>
   </si>
   <si>
     <t>der Charakter</t>
@@ -5329,7 +5329,7 @@
     <t>die Erziehung</t>
   </si>
   <si>
-    <t>upbringing, education</t>
+    <t>upbringing|education</t>
   </si>
   <si>
     <t>die Geburt</t>
@@ -5359,7 +5359,7 @@
     <t>der Mittag</t>
   </si>
   <si>
-    <t>noon, midday</t>
+    <t>noon|midday</t>
   </si>
   <si>
     <t>die Niederlage</t>
@@ -5413,7 +5413,7 @@
     <t>die Sitzung</t>
   </si>
   <si>
-    <t>meeting, session</t>
+    <t>meeting|session</t>
   </si>
   <si>
     <t>der Sturm</t>
@@ -5437,13 +5437,13 @@
     <t>der Vorstand</t>
   </si>
   <si>
-    <t>board, chairperson</t>
+    <t>board|chairperson</t>
   </si>
   <si>
     <t>der Zufall</t>
   </si>
   <si>
-    <t>chance, coincidence</t>
+    <t>chance|coincidence</t>
   </si>
   <si>
     <t>die Zustimmung</t>
@@ -5455,13 +5455,13 @@
     <t>der/die Angehörige</t>
   </si>
   <si>
-    <t>member, relative</t>
+    <t>member|relative</t>
   </si>
   <si>
     <t>die Annahme</t>
   </si>
   <si>
-    <t>acceptance, assumption</t>
+    <t>acceptance|assumption</t>
   </si>
   <si>
     <t>das Argument</t>
@@ -5488,7 +5488,7 @@
     <t>der Bescheid</t>
   </si>
   <si>
-    <t>information, reply</t>
+    <t>information|reply</t>
   </si>
   <si>
     <t>die Blume</t>
@@ -5530,7 +5530,7 @@
     <t>der Händler</t>
   </si>
   <si>
-    <t>trader, dealer, retailer</t>
+    <t>trader|dealer|retailer</t>
   </si>
   <si>
     <t>der Hinblick</t>
@@ -5608,7 +5608,7 @@
     <t>die Umsetzung</t>
   </si>
   <si>
-    <t>transfer, implementation</t>
+    <t>transfer|implementation</t>
   </si>
   <si>
     <t>der Verkäufer</t>
@@ -5620,7 +5620,7 @@
     <t>die Versorgung</t>
   </si>
   <si>
-    <t>supply, care</t>
+    <t>supply|care</t>
   </si>
   <si>
     <t>der Wandel</t>
@@ -5635,7 +5635,7 @@
     <t>die Angelegenheit</t>
   </si>
   <si>
-    <t>matter, affair</t>
+    <t>matter|affair</t>
   </si>
   <si>
     <t>die Auskunft</t>
@@ -5644,13 +5644,13 @@
     <t>das Ausmaß</t>
   </si>
   <si>
-    <t>extent, size</t>
+    <t>extent|size</t>
   </si>
   <si>
     <t>die Begründung</t>
   </si>
   <si>
-    <t>explanation, justification</t>
+    <t>explanation|justification</t>
   </si>
   <si>
     <t>das Engagement</t>
@@ -5671,7 +5671,7 @@
     <t>die Handlung</t>
   </si>
   <si>
-    <t>action, plot</t>
+    <t>action|plot</t>
   </si>
   <si>
     <t>das Immunsystem</t>
@@ -5689,13 +5689,13 @@
     <t>die Not</t>
   </si>
   <si>
-    <t>need, trouble</t>
+    <t>need|trouble</t>
   </si>
   <si>
     <t>die Persönlichkeit</t>
   </si>
   <si>
-    <t>personality, celebrity</t>
+    <t>personality|celebrity</t>
   </si>
   <si>
     <t>der Schlüssel</t>
@@ -5713,7 +5713,7 @@
     <t>die Seele</t>
   </si>
   <si>
-    <t>soul, mind</t>
+    <t>soul|mind</t>
   </si>
   <si>
     <t>der Unternehmer</t>
@@ -5722,7 +5722,7 @@
     <t>die Unternehmung</t>
   </si>
   <si>
-    <t>undertaking, venture</t>
+    <t>undertaking|venture</t>
   </si>
   <si>
     <t>die Vereinbarung</t>
@@ -5755,7 +5755,7 @@
     <t>die Begegnung</t>
   </si>
   <si>
-    <t>encounter, meeting</t>
+    <t>encounter|meeting</t>
   </si>
   <si>
     <t>das Café</t>
@@ -5776,7 +5776,7 @@
     <t>die Erzählung</t>
   </si>
   <si>
-    <t>narration, story</t>
+    <t>narration|story</t>
   </si>
   <si>
     <t>die Ferne</t>
@@ -5827,13 +5827,13 @@
     <t>die Tonne</t>
   </si>
   <si>
-    <t>ton, barrel</t>
+    <t>ton|barrel</t>
   </si>
   <si>
     <t>der Träger</t>
   </si>
   <si>
-    <t>holder, responsible body</t>
+    <t>holder|responsible body</t>
   </si>
   <si>
     <t>der Trend</t>
@@ -5842,7 +5842,7 @@
     <t>die Variante</t>
   </si>
   <si>
-    <t>variant, variation</t>
+    <t>variant|variation</t>
   </si>
   <si>
     <t>der/die Verwandte</t>
@@ -5878,7 +5878,7 @@
     <t>der Aufwand</t>
   </si>
   <si>
-    <t>expense, effort</t>
+    <t>expense|effort</t>
   </si>
   <si>
     <t>die Aufwendungen</t>
@@ -5899,7 +5899,7 @@
     <t>calculation</t>
   </si>
   <si>
-    <t>continuation, stock, supply</t>
+    <t>continuation|stock|supply</t>
   </si>
   <si>
     <t>das Entwicklungsland</t>
@@ -5911,7 +5911,7 @@
     <t>der Entwurf</t>
   </si>
   <si>
-    <t>sketch, design, draft</t>
+    <t>sketch|design|draft</t>
   </si>
   <si>
     <t>die Fachhochschule</t>
@@ -5932,13 +5932,13 @@
     <t>die Hose</t>
   </si>
   <si>
-    <t>trousers, pants</t>
+    <t>trousers|pants</t>
   </si>
   <si>
     <t>der Impuls</t>
   </si>
   <si>
-    <t>stimulus, impulse</t>
+    <t>stimulus|impulse</t>
   </si>
   <si>
     <t>das Kapital</t>
@@ -5950,19 +5950,19 @@
     <t>der Kern</t>
   </si>
   <si>
-    <t>seed, core, nucleus</t>
+    <t>seed|core|nucleus</t>
   </si>
   <si>
     <t>der Motor</t>
   </si>
   <si>
-    <t>motor, engine</t>
+    <t>motor|engine</t>
   </si>
   <si>
     <t>der Rang</t>
   </si>
   <si>
-    <t>standing, status</t>
+    <t>standing|status</t>
   </si>
   <si>
     <t>der Regisseur</t>
@@ -5989,7 +5989,7 @@
     <t>die Vermittlung</t>
   </si>
   <si>
-    <t>negotiation, placement</t>
+    <t>negotiation|placement</t>
   </si>
   <si>
     <t>der Wahlkampf</t>
@@ -6019,7 +6019,7 @@
     <t>die Behinderung</t>
   </si>
   <si>
-    <t>obstruction, handicap</t>
+    <t>obstruction|handicap</t>
   </si>
   <si>
     <t>die Berücksichtigung</t>
@@ -6037,13 +6037,13 @@
     <t>der Dichter</t>
   </si>
   <si>
-    <t>writer, poet</t>
+    <t>writer|poet</t>
   </si>
   <si>
     <t>der Eingriff</t>
   </si>
   <si>
-    <t>intervention, interference</t>
+    <t>intervention|interference</t>
   </si>
   <si>
     <t>der Einwohner</t>
@@ -6055,13 +6055,13 @@
     <t>der Fan</t>
   </si>
   <si>
-    <t>fan, supporter</t>
+    <t>fan|supporter</t>
   </si>
   <si>
     <t>die Hütte</t>
   </si>
   <si>
-    <t>hut, cabin</t>
+    <t>hut|cabin</t>
   </si>
   <si>
     <t>die Kooperation</t>
@@ -6082,13 +6082,13 @@
     <t>der Täter</t>
   </si>
   <si>
-    <t>culprit, perpetrator</t>
+    <t>culprit|perpetrator</t>
   </si>
   <si>
     <t>die Tour</t>
   </si>
   <si>
-    <t>tour, trip</t>
+    <t>tour|trip</t>
   </si>
   <si>
     <t>die Trennung</t>
@@ -6100,7 +6100,7 @@
     <t>die Übertragung</t>
   </si>
   <si>
-    <t>transmission, broadcast</t>
+    <t>transmission|broadcast</t>
   </si>
   <si>
     <t>die Verfassung</t>
@@ -6112,7 +6112,7 @@
     <t>die Zeitschrift</t>
   </si>
   <si>
-    <t>magazine, journal</t>
+    <t>magazine|journal</t>
   </si>
   <si>
     <t>die Absicht</t>
@@ -6136,7 +6136,7 @@
     <t>der Beschluss</t>
   </si>
   <si>
-    <t>decision, resolution</t>
+    <t>decision|resolution</t>
   </si>
   <si>
     <t>die Bibel</t>
@@ -6148,7 +6148,7 @@
     <t>die Bindung</t>
   </si>
   <si>
-    <t>relationship, attachment</t>
+    <t>relationship|attachment</t>
   </si>
   <si>
     <t>die Börse</t>
@@ -6169,7 +6169,7 @@
     <t>die Einschätzung</t>
   </si>
   <si>
-    <t>opinion, assessment, evaluation</t>
+    <t>opinion|assessment|evaluation</t>
   </si>
   <si>
     <t>das Elektron</t>
@@ -6187,7 +6187,7 @@
     <t>die Erweiterung</t>
   </si>
   <si>
-    <t>expansion, extension</t>
+    <t>expansion|extension</t>
   </si>
   <si>
     <t>der Feind</t>
@@ -6199,7 +6199,7 @@
     <t>die Flucht</t>
   </si>
   <si>
-    <t>flight, escape</t>
+    <t>flight|escape</t>
   </si>
   <si>
     <t>der Flüchtling</t>
@@ -6211,7 +6211,7 @@
     <t>das Geschlecht</t>
   </si>
   <si>
-    <t>sex, gender</t>
+    <t>sex|gender</t>
   </si>
   <si>
     <t>das Gewissen</t>
@@ -6223,19 +6223,19 @@
     <t>der Gläubiger</t>
   </si>
   <si>
-    <t>creditor, believer</t>
+    <t>creditor|believer</t>
   </si>
   <si>
     <t>der Griff</t>
   </si>
   <si>
-    <t>handle, grip, grasp</t>
+    <t>handle|grip|grasp</t>
   </si>
   <si>
     <t>der Halt</t>
   </si>
   <si>
-    <t>stop, hold</t>
+    <t>stop|hold</t>
   </si>
   <si>
     <t>das Hemd</t>
@@ -6271,7 +6271,7 @@
     <t>die Kündigung</t>
   </si>
   <si>
-    <t>termination, notice of dismissal</t>
+    <t>termination|notice of dismissal</t>
   </si>
   <si>
     <t>der Mantel</t>
@@ -6319,7 +6319,7 @@
     <t>das Paket</t>
   </si>
   <si>
-    <t>parcel, package</t>
+    <t>parcel|package</t>
   </si>
   <si>
     <t>die Ressource</t>
@@ -6349,13 +6349,13 @@
     <t>die Scheibe</t>
   </si>
   <si>
-    <t>disc, slice, glass pane</t>
+    <t>disc|slice|glass pane</t>
   </si>
   <si>
     <t>die Stille</t>
   </si>
   <si>
-    <t>peace, silence</t>
+    <t>peace|silence</t>
   </si>
   <si>
     <t>der Stress</t>
@@ -6379,13 +6379,13 @@
     <t>der Übergang</t>
   </si>
   <si>
-    <t>crossing, transition</t>
+    <t>crossing|transition</t>
   </si>
   <si>
     <t>das Vorbild</t>
   </si>
   <si>
-    <t>model, example</t>
+    <t>model|example</t>
   </si>
   <si>
     <t>das Vorgehen</t>
@@ -6397,7 +6397,7 @@
     <t>der Widerspruch</t>
   </si>
   <si>
-    <t>contradiction, dissent</t>
+    <t>contradiction|dissent</t>
   </si>
   <si>
     <t>die Wüste</t>
@@ -6421,13 +6421,13 @@
     <t>der Aufenthalt</t>
   </si>
   <si>
-    <t>stay, residence</t>
+    <t>stay|residence</t>
   </si>
   <si>
     <t>die Aussicht</t>
   </si>
   <si>
-    <t>prospect, view</t>
+    <t>prospect|view</t>
   </si>
   <si>
     <t>der Ball</t>
@@ -6439,13 +6439,13 @@
     <t>die Bemerkung</t>
   </si>
   <si>
-    <t>remark, comment</t>
+    <t>remark|comment</t>
   </si>
   <si>
     <t>der Besitz</t>
   </si>
   <si>
-    <t>property, possession</t>
+    <t>property|possession</t>
   </si>
   <si>
     <t>die Chemie</t>
@@ -6466,7 +6466,7 @@
     <t>die Frist</t>
   </si>
   <si>
-    <t>time period, deadline</t>
+    <t>time period|deadline</t>
   </si>
   <si>
     <t>das Geschenk</t>
@@ -6478,7 +6478,7 @@
     <t>die Gestaltung</t>
   </si>
   <si>
-    <t>design, organization</t>
+    <t>design|organization</t>
   </si>
   <si>
     <t>das Heim</t>
@@ -6487,7 +6487,7 @@
     <t>der Höhepunkt</t>
   </si>
   <si>
-    <t>high point, peak</t>
+    <t>high point|peak</t>
   </si>
   <si>
     <t>der Horizont</t>
@@ -6547,7 +6547,7 @@
     <t>die Übung</t>
   </si>
   <si>
-    <t>exercise, practice</t>
+    <t>exercise|practice</t>
   </si>
   <si>
     <t>der Vortrag</t>
@@ -6562,7 +6562,7 @@
     <t>die Ausführung</t>
   </si>
   <si>
-    <t>implementation, type</t>
+    <t>implementation|type</t>
   </si>
   <si>
     <t>der Besitzer</t>
@@ -6583,13 +6583,13 @@
     <t>die Erscheinung</t>
   </si>
   <si>
-    <t>phenomenon, appearance</t>
+    <t>phenomenon|appearance</t>
   </si>
   <si>
     <t>die Ferien</t>
   </si>
   <si>
-    <t>holiday, vacation</t>
+    <t>holiday|vacation</t>
   </si>
   <si>
     <t>der Flug</t>
@@ -6622,7 +6622,7 @@
     <t>der Gehalt</t>
   </si>
   <si>
-    <t>meaning, contents</t>
+    <t>meaning|contents</t>
   </si>
   <si>
     <t>das Geheimnis</t>
@@ -6634,7 +6634,7 @@
     <t>das Geräusch</t>
   </si>
   <si>
-    <t>sound, noise</t>
+    <t>sound|noise</t>
   </si>
   <si>
     <t>der Geschmack</t>
@@ -6676,13 +6676,13 @@
     <t>die Klage</t>
   </si>
   <si>
-    <t>complaint, lawsuit</t>
+    <t>complaint|lawsuit</t>
   </si>
   <si>
     <t>die Klinik</t>
   </si>
   <si>
-    <t>clinic, hospital</t>
+    <t>clinic|hospital</t>
   </si>
   <si>
     <t>die Lehrerin</t>
@@ -6691,13 +6691,13 @@
     <t>die Marke</t>
   </si>
   <si>
-    <t>brand, stamp</t>
+    <t>brand|stamp</t>
   </si>
   <si>
     <t>das Medikament</t>
   </si>
   <si>
-    <t>medicine, drug</t>
+    <t>medicine|drug</t>
   </si>
   <si>
     <t>die Miete</t>
@@ -6715,13 +6715,13 @@
     <t>der Pass</t>
   </si>
   <si>
-    <t>pass, passport</t>
+    <t>pass|passport</t>
   </si>
   <si>
     <t>die Phantasie</t>
   </si>
   <si>
-    <t>imagination, fantasy</t>
+    <t>imagination|fantasy</t>
   </si>
   <si>
     <t>die Prognose</t>
@@ -6739,13 +6739,13 @@
     <t>das Protokoll</t>
   </si>
   <si>
-    <t>minutes, record</t>
+    <t>minutes|record</t>
   </si>
   <si>
     <t>der Schreck</t>
   </si>
   <si>
-    <t>fright, shock</t>
+    <t>fright|shock</t>
   </si>
   <si>
     <t>die Serie</t>
@@ -6799,7 +6799,7 @@
     <t>der Ärger</t>
   </si>
   <si>
-    <t>annoyance, trouble</t>
+    <t>annoyance|trouble</t>
   </si>
   <si>
     <t>der Austausch</t>
@@ -6832,7 +6832,7 @@
     <t>die Entschuldigung</t>
   </si>
   <si>
-    <t>apology, excuse</t>
+    <t>apology|excuse</t>
   </si>
   <si>
     <t>die Erhöhung</t>
@@ -6922,7 +6922,7 @@
     <t>der Stock</t>
   </si>
   <si>
-    <t>stick, floor</t>
+    <t>stick|floor</t>
   </si>
   <si>
     <t>die Strafe</t>
@@ -6940,7 +6940,7 @@
     <t>das Ufer</t>
   </si>
   <si>
-    <t>shore, bank</t>
+    <t>shore|bank</t>
   </si>
   <si>
     <t>die Umfrage</t>
@@ -6979,7 +6979,7 @@
     <t>das Eis</t>
   </si>
   <si>
-    <t>ice, ice cream</t>
+    <t>ice|ice cream</t>
   </si>
   <si>
     <t>der Empfang</t>
@@ -6997,7 +6997,7 @@
     <t>die Ernährung</t>
   </si>
   <si>
-    <t>food, diet</t>
+    <t>food|diet</t>
   </si>
   <si>
     <t>der Gesichtspunkt</t>
@@ -7039,7 +7039,7 @@
     <t>die Last</t>
   </si>
   <si>
-    <t>load, burden</t>
+    <t>load|burden</t>
   </si>
   <si>
     <t>das Lebensjahr</t>
@@ -7063,7 +7063,7 @@
     <t>das Muster</t>
   </si>
   <si>
-    <t>pattern, model</t>
+    <t>pattern|model</t>
   </si>
   <si>
     <t>der Nachfolger</t>
@@ -7075,7 +7075,7 @@
     <t>die Note</t>
   </si>
   <si>
-    <t>note, grade</t>
+    <t>note|grade</t>
   </si>
   <si>
     <t>der Onkel</t>
@@ -7099,7 +7099,7 @@
     <t>der Reiz</t>
   </si>
   <si>
-    <t>stimulus, appeal</t>
+    <t>stimulus|appeal</t>
   </si>
   <si>
     <t>der Rohstoff</t>
@@ -7123,7 +7123,7 @@
     <t>die Sicherung</t>
   </si>
   <si>
-    <t>protection, fuse</t>
+    <t>protection|fuse</t>
   </si>
   <si>
     <t>der Sieger</t>
@@ -7195,7 +7195,7 @@
     <t>der Abschied</t>
   </si>
   <si>
-    <t>departure, parting</t>
+    <t>departure|parting</t>
   </si>
   <si>
     <t>die Benutzung</t>
@@ -7240,7 +7240,7 @@
     <t>der Flur</t>
   </si>
   <si>
-    <t>hall, corridor</t>
+    <t>hall|corridor</t>
   </si>
   <si>
     <t>das Format</t>
@@ -7285,7 +7285,7 @@
     <t>die Kneipe</t>
   </si>
   <si>
-    <t>pub, bar</t>
+    <t>pub|bar</t>
   </si>
   <si>
     <t>der Kritiker</t>
@@ -7309,7 +7309,7 @@
     <t>die Messung</t>
   </si>
   <si>
-    <t>measuring, measurement</t>
+    <t>measuring|measurement</t>
   </si>
   <si>
     <t>das Motto</t>
@@ -7336,7 +7336,7 @@
     <t>die Probe</t>
   </si>
   <si>
-    <t>sample, test, rehearsal</t>
+    <t>sample|test|rehearsal</t>
   </si>
   <si>
     <t>der Quadratmeter</t>
@@ -7417,19 +7417,19 @@
     <t>das Vorhaben</t>
   </si>
   <si>
-    <t>plan, project</t>
+    <t>plan|project</t>
   </si>
   <si>
     <t>die Vorlage</t>
   </si>
   <si>
-    <t>draft, model</t>
+    <t>draft|model</t>
   </si>
   <si>
     <t>die Wärme</t>
   </si>
   <si>
-    <t>warmth, heat</t>
+    <t>warmth|heat</t>
   </si>
   <si>
     <t>die Werbung</t>
@@ -7453,31 +7453,31 @@
     <t>der Anhänger</t>
   </si>
   <si>
-    <t>supporter, trailer</t>
+    <t>supporter|trailer</t>
   </si>
   <si>
     <t>die Anzeige</t>
   </si>
   <si>
-    <t>display, advertisement</t>
+    <t>display|advertisement</t>
   </si>
   <si>
     <t>die Aufklärung</t>
   </si>
   <si>
-    <t>enlightenment, solution</t>
+    <t>enlightenment|solution</t>
   </si>
   <si>
     <t>die Auflösung</t>
   </si>
   <si>
-    <t>dissolving, breaking up</t>
+    <t>dissolving|breaking up</t>
   </si>
   <si>
     <t>die Bestellung</t>
   </si>
   <si>
-    <t>order, reservation</t>
+    <t>order|reservation</t>
   </si>
   <si>
     <t>der Bude</t>
@@ -7513,7 +7513,7 @@
     <t>die Einsicht</t>
   </si>
   <si>
-    <t>view, insight</t>
+    <t>view|insight</t>
   </si>
   <si>
     <t>das Gedächtnis</t>
@@ -7534,7 +7534,7 @@
     <t>die Herrschaft</t>
   </si>
   <si>
-    <t>power, reign</t>
+    <t>power|reign</t>
   </si>
   <si>
     <t>die Infrastruktur</t>
@@ -7561,13 +7561,13 @@
     <t>die Mitteilung</t>
   </si>
   <si>
-    <t>communication, announcement</t>
+    <t>communication|announcement</t>
   </si>
   <si>
     <t>die Nahrung</t>
   </si>
   <si>
-    <t>nourishment, food</t>
+    <t>nourishment|food</t>
   </si>
   <si>
     <t>der Nebel</t>
@@ -7603,7 +7603,7 @@
     <t>der Schein</t>
   </si>
   <si>
-    <t>light, appearance, certificate</t>
+    <t>light|appearance|certificate</t>
   </si>
   <si>
     <t>der Schnitt</t>
@@ -7645,7 +7645,7 @@
     <t>der Tipp</t>
   </si>
   <si>
-    <t>tip, hint</t>
+    <t>tip|hint</t>
   </si>
   <si>
     <t>das Wiedersehen</t>
@@ -7675,7 +7675,7 @@
     <t>das Zeugnis</t>
   </si>
   <si>
-    <t>report, testimonial</t>
+    <t>report|testimonial</t>
   </si>
   <si>
     <t>der Anblick</t>
@@ -7696,7 +7696,7 @@
     <t>der Anstieg</t>
   </si>
   <si>
-    <t>rise, increase</t>
+    <t>rise|increase</t>
   </si>
   <si>
     <t>das Arbeitsamt</t>
@@ -7726,7 +7726,7 @@
     <t>der Bogen</t>
   </si>
   <si>
-    <t>bow, arc, sheet</t>
+    <t>bow|arc|sheet</t>
   </si>
   <si>
     <t>die Bundesliga</t>
@@ -7756,7 +7756,7 @@
     <t>der Einzelfall</t>
   </si>
   <si>
-    <t>individual, case</t>
+    <t>individual|case</t>
   </si>
   <si>
     <t>die Epoche</t>
@@ -7768,13 +7768,13 @@
     <t>der Erreger</t>
   </si>
   <si>
-    <t>agent, virus, germ</t>
+    <t>agent|virus|germ</t>
   </si>
   <si>
     <t>die Feststellung</t>
   </si>
   <si>
-    <t>observation, remark</t>
+    <t>observation|remark</t>
   </si>
   <si>
     <t>die Formulierung</t>
@@ -7786,7 +7786,7 @@
     <t>das Gelände</t>
   </si>
   <si>
-    <t>ground, site</t>
+    <t>ground|site</t>
   </si>
   <si>
     <t>der/die Geliebte</t>
@@ -7810,7 +7810,7 @@
     <t>die Inszenierung</t>
   </si>
   <si>
-    <t>production, staging</t>
+    <t>production|staging</t>
   </si>
   <si>
     <t>der Kapitän</t>
@@ -7822,7 +7822,7 @@
     <t>die Kiste</t>
   </si>
   <si>
-    <t>box, crate</t>
+    <t>box|crate</t>
   </si>
   <si>
     <t>der Knochen</t>
@@ -7858,7 +7858,7 @@
     <t>der Lohn</t>
   </si>
   <si>
-    <t>wage, pay, reward</t>
+    <t>wage|pay|reward</t>
   </si>
   <si>
     <t>der Magen</t>
@@ -7882,7 +7882,7 @@
     <t>die Öffnung</t>
   </si>
   <si>
-    <t>opening, hole</t>
+    <t>opening|hole</t>
   </si>
   <si>
     <t>die Partie</t>
@@ -7915,7 +7915,7 @@
     <t>die Stiftung</t>
   </si>
   <si>
-    <t>foundation, institute, donation</t>
+    <t>foundation|institute|donation</t>
   </si>
   <si>
     <t>der Teller</t>
@@ -7927,7 +7927,7 @@
     <t>die Unterscheidung</t>
   </si>
   <si>
-    <t>differentiation, distinction</t>
+    <t>differentiation|distinction</t>
   </si>
   <si>
     <t>die Version</t>
@@ -7951,7 +7951,7 @@
     <t>der Zettel</t>
   </si>
   <si>
-    <t>piece of paper, note</t>
+    <t>piece of paper|note</t>
   </si>
   <si>
     <t>der Zins</t>
@@ -7966,7 +7966,7 @@
     <t>der Abbau</t>
   </si>
   <si>
-    <t>reduction, decline, mining</t>
+    <t>reduction|decline|mining</t>
   </si>
   <si>
     <t>die Agentur</t>
@@ -7984,7 +7984,7 @@
     <t>die Anfrage</t>
   </si>
   <si>
-    <t>inquiry, request</t>
+    <t>inquiry|request</t>
   </si>
   <si>
     <t>die Aufführung</t>
@@ -7993,13 +7993,13 @@
     <t>die Auflage</t>
   </si>
   <si>
-    <t>edition, condition, plating</t>
+    <t>edition|condition|plating</t>
   </si>
   <si>
     <t>der Ausbau</t>
   </si>
   <si>
-    <t>extension, consolidation</t>
+    <t>extension|consolidation</t>
   </si>
   <si>
     <t>der Bär</t>
@@ -8011,7 +8011,7 @@
     <t>das Bedenken</t>
   </si>
   <si>
-    <t>concern, doubt</t>
+    <t>concern|doubt</t>
   </si>
   <si>
     <t>der Buchstabe</t>
@@ -8035,13 +8035,13 @@
     <t>der Führer</t>
   </si>
   <si>
-    <t>leader, guide</t>
+    <t>leader|guide</t>
   </si>
   <si>
     <t>die Fusion</t>
   </si>
   <si>
-    <t>fusion, merger</t>
+    <t>fusion|merger</t>
   </si>
   <si>
     <t>der Geruch</t>
@@ -8065,7 +8065,7 @@
     <t>der Kerl</t>
   </si>
   <si>
-    <t>fellow, bloke</t>
+    <t>fellow|bloke</t>
   </si>
   <si>
     <t>die Kollegin</t>
@@ -8128,7 +8128,7 @@
     <t>der Ofen</t>
   </si>
   <si>
-    <t>oven, stove</t>
+    <t>oven|stove</t>
   </si>
   <si>
     <t>die Pflege</t>
@@ -8143,13 +8143,13 @@
     <t>der Posten</t>
   </si>
   <si>
-    <t>post, position</t>
+    <t>post|position</t>
   </si>
   <si>
     <t>der Profi</t>
   </si>
   <si>
-    <t>pro, professional</t>
+    <t>pro|professional</t>
   </si>
   <si>
     <t>das Regime</t>
@@ -8161,7 +8161,7 @@
     <t>der Rock</t>
   </si>
   <si>
-    <t>skirt, rock music</t>
+    <t>skirt|rock music</t>
   </si>
   <si>
     <t>der Rücktritt</t>
@@ -8173,7 +8173,7 @@
     <t>der Schrank</t>
   </si>
   <si>
-    <t>cabinet, wardrobe</t>
+    <t>cabinet|wardrobe</t>
   </si>
   <si>
     <t>die Sekretärin</t>
@@ -8227,7 +8227,7 @@
     <t>der Überblick</t>
   </si>
   <si>
-    <t>view, overview</t>
+    <t>view|overview</t>
   </si>
   <si>
     <t>die Unsicherheit</t>
@@ -8245,13 +8245,13 @@
     <t>der Winkel</t>
   </si>
   <si>
-    <t>angle, corner</t>
+    <t>angle|corner</t>
   </si>
   <si>
     <t>das Zitat</t>
   </si>
   <si>
-    <t>quotation, quote</t>
+    <t>quotation|quote</t>
   </si>
   <si>
     <t>das Abenteuer</t>
@@ -8275,7 +8275,7 @@
     <t>der Akteur</t>
   </si>
   <si>
-    <t>player, actor</t>
+    <t>player|actor</t>
   </si>
   <si>
     <t>die Allianz</t>
@@ -8290,7 +8290,7 @@
     <t>der Ausgleich</t>
   </si>
   <si>
-    <t>balancing, compensation, change</t>
+    <t>balancing|compensation|change</t>
   </si>
   <si>
     <t>die Begeisterung</t>
@@ -8350,7 +8350,7 @@
     <t>das Fräulein</t>
   </si>
   <si>
-    <t>young lady, miss</t>
+    <t>young lady|miss</t>
   </si>
   <si>
     <t>der Friedhof</t>
@@ -8392,13 +8392,13 @@
     <t>die Großstadt</t>
   </si>
   <si>
-    <t>city, large town</t>
+    <t>city|large town</t>
   </si>
   <si>
     <t>der Hang</t>
   </si>
   <si>
-    <t>slope, inclination</t>
+    <t>slope|inclination</t>
   </si>
   <si>
     <t>der Hügel</t>
@@ -8416,7 +8416,7 @@
     <t>der Kongress</t>
   </si>
   <si>
-    <t>congress, convention</t>
+    <t>congress|convention</t>
   </si>
   <si>
     <t>der Muskel</t>
@@ -8428,7 +8428,7 @@
     <t>der Nachweis</t>
   </si>
   <si>
-    <t>proof, evidence, certificate</t>
+    <t>proof|evidence|certificate</t>
   </si>
   <si>
     <t>die Orientierung</t>
@@ -8440,7 +8440,7 @@
     <t>der Personenkraftwagen</t>
   </si>
   <si>
-    <t>car, auto</t>
+    <t>car|auto</t>
   </si>
   <si>
     <t>der Rhythmus</t>
@@ -8461,7 +8461,7 @@
     <t>die Steuerung</t>
   </si>
   <si>
-    <t>control, steering</t>
+    <t>control|steering</t>
   </si>
   <si>
     <t>der Stolz</t>
@@ -8482,7 +8482,7 @@
     <t>die Unterhaltung</t>
   </si>
   <si>
-    <t>entertainment, conversation</t>
+    <t>entertainment|conversation</t>
   </si>
   <si>
     <t>die Unterlagen</t>
@@ -8494,13 +8494,13 @@
     <t>die Vereinigung</t>
   </si>
   <si>
-    <t>organization, association, unification</t>
+    <t>organization|association|unification</t>
   </si>
   <si>
     <t>die Vertretung</t>
   </si>
   <si>
-    <t>replacement, substitute</t>
+    <t>replacement|substitute</t>
   </si>
   <si>
     <t>die Volkshochschule</t>
@@ -8545,19 +8545,19 @@
     <t>die Zwiebel</t>
   </si>
   <si>
-    <t>onion, bulb</t>
+    <t>onion|bulb</t>
   </si>
   <si>
     <t>die Ablehnung</t>
   </si>
   <si>
-    <t>refusal, rejection</t>
+    <t>refusal|rejection</t>
   </si>
   <si>
     <t>die Abstimmung</t>
   </si>
   <si>
-    <t>vote, coordination</t>
+    <t>vote|coordination</t>
   </si>
   <si>
     <t>die Anordnung</t>
@@ -8566,7 +8566,7 @@
     <t>die Anregung</t>
   </si>
   <si>
-    <t>stimulus, idea</t>
+    <t>stimulus|idea</t>
   </si>
   <si>
     <t>der Aufsatz</t>
@@ -8605,7 +8605,7 @@
     <t>der Berater</t>
   </si>
   <si>
-    <t>advisor, consultant</t>
+    <t>advisor|consultant</t>
   </si>
   <si>
     <t>der Betrachter</t>
@@ -8620,7 +8620,7 @@
     <t>der Bildschirm</t>
   </si>
   <si>
-    <t>screen, monitor</t>
+    <t>screen|monitor</t>
   </si>
   <si>
     <t>die Blüte</t>
@@ -8647,7 +8647,7 @@
     <t>die Eintragung</t>
   </si>
   <si>
-    <t>entry, registration</t>
+    <t>entry|registration</t>
   </si>
   <si>
     <t>das Ensemble</t>
@@ -8689,7 +8689,7 @@
     <t>die Genehmigung</t>
   </si>
   <si>
-    <t>approval, permit, permission</t>
+    <t>approval|permit|permission</t>
   </si>
   <si>
     <t>der Großvater</t>
@@ -8719,13 +8719,13 @@
     <t>die Innenstadt</t>
   </si>
   <si>
-    <t>town center, downtown</t>
+    <t>town center|downtown</t>
   </si>
   <si>
     <t>das Kloster</t>
   </si>
   <si>
-    <t>monastery, convent</t>
+    <t>monastery|convent</t>
   </si>
   <si>
     <t>die Kohle</t>
@@ -8761,7 +8761,7 @@
     <t>der Maßstab</t>
   </si>
   <si>
-    <t>scale, yardstick, standard</t>
+    <t>scale|yardstick|standard</t>
   </si>
   <si>
     <t>die Materie</t>
@@ -8791,7 +8791,7 @@
     <t>der Rückgang</t>
   </si>
   <si>
-    <t>fall, decline</t>
+    <t>fall|decline</t>
   </si>
   <si>
     <t>der Sack</t>
@@ -8809,19 +8809,19 @@
     <t>die Sportart</t>
   </si>
   <si>
-    <t>type of sport, discipline</t>
+    <t>type of sport|discipline</t>
   </si>
   <si>
     <t>der Stamm</t>
   </si>
   <si>
-    <t>trunk, stem, tribe</t>
+    <t>trunk|stem|tribe</t>
   </si>
   <si>
     <t>der Streifen</t>
   </si>
   <si>
-    <t>stripe, strip</t>
+    <t>stripe|strip</t>
   </si>
   <si>
     <t>die Tasse</t>
@@ -8845,7 +8845,7 @@
     <t>die Überprüfung</t>
   </si>
   <si>
-    <t>screening, check, inspection</t>
+    <t>screening|check|inspection</t>
   </si>
   <si>
     <t>der Unsinn</t>
@@ -8857,31 +8857,31 @@
     <t>das Verbot</t>
   </si>
   <si>
-    <t>ban, prohibition</t>
+    <t>ban|prohibition</t>
   </si>
   <si>
     <t>die Vermutung</t>
   </si>
   <si>
-    <t>assumption, presumption</t>
+    <t>assumption|presumption</t>
   </si>
   <si>
     <t>die Versammlung</t>
   </si>
   <si>
-    <t>meeting, gathering, assembly</t>
+    <t>meeting|gathering|assembly</t>
   </si>
   <si>
     <t>die Wäsche</t>
   </si>
   <si>
-    <t>washing, laundry</t>
+    <t>washing|laundry</t>
   </si>
   <si>
     <t>die Werkstatt</t>
   </si>
   <si>
-    <t>workshop, garage</t>
+    <t>workshop|garage</t>
   </si>
   <si>
     <t>die Wirtschaftspolitik</t>
@@ -8905,7 +8905,7 @@
     <t>der Zwang</t>
   </si>
   <si>
-    <t>force, pressure, compulsion</t>
+    <t>force|pressure|compulsion</t>
   </si>
   <si>
     <t>das Antibiotikum</t>
@@ -8941,37 +8941,37 @@
     <t>der Aufstieg</t>
   </si>
   <si>
-    <t>climb, rise</t>
+    <t>climb|rise</t>
   </si>
   <si>
     <t>der Ausflug</t>
   </si>
   <si>
-    <t>outing, trip</t>
+    <t>outing|trip</t>
   </si>
   <si>
     <t>der Ausgang</t>
   </si>
   <si>
-    <t>exit, outcome, starting point</t>
+    <t>exit|outcome|starting point</t>
   </si>
   <si>
     <t>die Ausstattung</t>
   </si>
   <si>
-    <t>equipment, provision, furnishings</t>
+    <t>equipment|provision|furnishings</t>
   </si>
   <si>
     <t>die Bearbeitung</t>
   </si>
   <si>
-    <t>working, handling</t>
+    <t>working|handling</t>
   </si>
   <si>
     <t>die Besonderheit</t>
   </si>
   <si>
-    <t>characteristic, specific, feature</t>
+    <t>characteristic|specific|feature</t>
   </si>
   <si>
     <t>der Betracht</t>
@@ -9028,7 +9028,7 @@
     <t>der Ersatz</t>
   </si>
   <si>
-    <t>replacement, compensation</t>
+    <t>replacement|compensation</t>
   </si>
   <si>
     <t>die Feuerwehr</t>
@@ -9070,13 +9070,13 @@
     <t>der Gesetzgeber</t>
   </si>
   <si>
-    <t>legislator, legislature</t>
+    <t>legislator|legislature</t>
   </si>
   <si>
     <t>die Gliederung</t>
   </si>
   <si>
-    <t>structure, organization</t>
+    <t>structure|organization</t>
   </si>
   <si>
     <t>das Grab</t>
@@ -9088,13 +9088,13 @@
     <t>der Grenzwert</t>
   </si>
   <si>
-    <t>limiting value, limit</t>
+    <t>limiting value|limit</t>
   </si>
   <si>
     <t>das Handwerk</t>
   </si>
   <si>
-    <t>craft, trade</t>
+    <t>craft|trade</t>
   </si>
   <si>
     <t>das Heft</t>
@@ -9106,7 +9106,7 @@
     <t>der Helfer</t>
   </si>
   <si>
-    <t>helper, accomplice</t>
+    <t>helper|accomplice</t>
   </si>
   <si>
     <t>die Intelligenz</t>
@@ -9136,7 +9136,7 @@
     <t>der Klang</t>
   </si>
   <si>
-    <t>sound, tone</t>
+    <t>sound|tone</t>
   </si>
   <si>
     <t>der Kompromiss</t>
@@ -9154,7 +9154,7 @@
     <t>die Konstruktion</t>
   </si>
   <si>
-    <t>construction, design</t>
+    <t>construction|design</t>
   </si>
   <si>
     <t>der Kreislauf</t>
@@ -9166,7 +9166,7 @@
     <t>die Kugel</t>
   </si>
   <si>
-    <t>ball, sphere, bullet</t>
+    <t>ball|sphere|bullet</t>
   </si>
   <si>
     <t>die Kuh</t>
@@ -9190,7 +9190,7 @@
     <t>die Leistungsfähigkeit</t>
   </si>
   <si>
-    <t>productivity, power</t>
+    <t>productivity|power</t>
   </si>
   <si>
     <t>die Lieferung</t>
@@ -9214,7 +9214,7 @@
     <t>der Nachwuchs</t>
   </si>
   <si>
-    <t>offspring, new generation</t>
+    <t>offspring|new generation</t>
   </si>
   <si>
     <t>der Nacken</t>
@@ -9232,7 +9232,7 @@
     <t>der Parteitag</t>
   </si>
   <si>
-    <t>party conference, convention</t>
+    <t>party conference|convention</t>
   </si>
   <si>
     <t>die Party</t>
@@ -9256,7 +9256,7 @@
     <t>die Problematik</t>
   </si>
   <si>
-    <t>problematic nature, problems</t>
+    <t>problematic nature|problems</t>
   </si>
   <si>
     <t>die Rezession</t>
@@ -9268,7 +9268,7 @@
     <t>der Salon</t>
   </si>
   <si>
-    <t>salon, drawing room</t>
+    <t>salon|drawing room</t>
   </si>
   <si>
     <t>die Schauspielerin</t>
@@ -9292,13 +9292,13 @@
     <t>die Skala</t>
   </si>
   <si>
-    <t>scale, dial, range</t>
+    <t>scale|dial|range</t>
   </si>
   <si>
     <t>die Spalte</t>
   </si>
   <si>
-    <t>fissure, cleft, column</t>
+    <t>fissure|cleft|column</t>
   </si>
   <si>
     <t>das Spektrum</t>
@@ -9310,13 +9310,13 @@
     <t>die Steckdose</t>
   </si>
   <si>
-    <t>socket, electrical outlet</t>
+    <t>socket|electrical outlet</t>
   </si>
   <si>
     <t>die Tafel</t>
   </si>
   <si>
-    <t>board, table</t>
+    <t>board|table</t>
   </si>
   <si>
     <t>das Tagebuch</t>
@@ -9334,13 +9334,13 @@
     <t>das Tempo</t>
   </si>
   <si>
-    <t>pace, speed</t>
+    <t>pace|speed</t>
   </si>
   <si>
     <t>die Unruhe</t>
   </si>
   <si>
-    <t>restlessness, agitation</t>
+    <t>restlessness|agitation</t>
   </si>
   <si>
     <t>die Unterschrift</t>
@@ -9382,7 +9382,7 @@
     <t>die Verordnung</t>
   </si>
   <si>
-    <t>prescription, order</t>
+    <t>prescription|order</t>
   </si>
   <si>
     <t>die Villa</t>
@@ -9415,7 +9415,7 @@
     <t>die Zulassung</t>
   </si>
   <si>
-    <t>admission, license</t>
+    <t>admission|license</t>
   </si>
   <si>
     <t>die Zusammensetzung</t>
@@ -9427,13 +9427,13 @@
     <t>die Abschreibung</t>
   </si>
   <si>
-    <t>deduction, depreciation</t>
+    <t>deduction|depreciation</t>
   </si>
   <si>
     <t>die Achse</t>
   </si>
   <si>
-    <t>axle, axis</t>
+    <t>axle|axis</t>
   </si>
   <si>
     <t>die Anwesenheit</t>
@@ -9451,7 +9451,7 @@
     <t>die Autobahn</t>
   </si>
   <si>
-    <t>expressway, motorway</t>
+    <t>expressway|motorway</t>
   </si>
   <si>
     <t>die Batterie</t>
@@ -9469,19 +9469,19 @@
     <t>die Chefin</t>
   </si>
   <si>
-    <t>director, boss</t>
+    <t>director|boss</t>
   </si>
   <si>
     <t>der Chip</t>
   </si>
   <si>
-    <t>chip, crisp</t>
+    <t>chip|crisp</t>
   </si>
   <si>
     <t>der Chor</t>
   </si>
   <si>
-    <t>choir, chorus</t>
+    <t>choir|chorus</t>
   </si>
   <si>
     <t>das Design</t>
@@ -9511,19 +9511,19 @@
     <t>der Einbruch</t>
   </si>
   <si>
-    <t>break in, collapse</t>
+    <t>break in|collapse</t>
   </si>
   <si>
     <t>der Eintritt</t>
   </si>
   <si>
-    <t>entry, admission</t>
+    <t>entry|admission</t>
   </si>
   <si>
     <t>die Erholung</t>
   </si>
   <si>
-    <t>recovery, relaxation, rest</t>
+    <t>recovery|relaxation|rest</t>
   </si>
   <si>
     <t>der Europäer</t>
@@ -9559,25 +9559,25 @@
     <t>das Getränk</t>
   </si>
   <si>
-    <t>drink, beverage</t>
+    <t>drink|beverage</t>
   </si>
   <si>
     <t>das Gewehr</t>
   </si>
   <si>
-    <t>rifle, shotgun</t>
+    <t>rifle|shotgun</t>
   </si>
   <si>
     <t>das Glied</t>
   </si>
   <si>
-    <t>limb, joint, link</t>
+    <t>limb|joint|link</t>
   </si>
   <si>
     <t>der Graf</t>
   </si>
   <si>
-    <t>count, earl</t>
+    <t>count|earl</t>
   </si>
   <si>
     <t>das Gremium</t>
@@ -9589,19 +9589,19 @@
     <t>die Gunst</t>
   </si>
   <si>
-    <t>goodwill, favor</t>
+    <t>goodwill|favor</t>
   </si>
   <si>
     <t>das Gutachten</t>
   </si>
   <si>
-    <t>report, reference</t>
+    <t>report|reference</t>
   </si>
   <si>
     <t>der Handwerker</t>
   </si>
   <si>
-    <t>workman, tradesman</t>
+    <t>workman|tradesman</t>
   </si>
   <si>
     <t>die Haustür</t>
@@ -9619,7 +9619,7 @@
     <t>die Kassette</t>
   </si>
   <si>
-    <t>cassette, tape</t>
+    <t>cassette|tape</t>
   </si>
   <si>
     <t>der Kasten</t>
@@ -9628,13 +9628,13 @@
     <t>der Kommentar</t>
   </si>
   <si>
-    <t>comment, opinion</t>
+    <t>comment|opinion</t>
   </si>
   <si>
     <t>die Konzeption</t>
   </si>
   <si>
-    <t>concept, conception</t>
+    <t>concept|conception</t>
   </si>
   <si>
     <t>die Kreativität</t>
@@ -9646,7 +9646,7 @@
     <t>das Magazin</t>
   </si>
   <si>
-    <t>magazine, storehouse</t>
+    <t>magazine|storehouse</t>
   </si>
   <si>
     <t>der Marktanteil</t>
@@ -9688,13 +9688,13 @@
     <t>das Ministerium</t>
   </si>
   <si>
-    <t>ministry, department</t>
+    <t>ministry|department</t>
   </si>
   <si>
     <t>der Mythos</t>
   </si>
   <si>
-    <t>myth, legend</t>
+    <t>myth|legend</t>
   </si>
   <si>
     <t>die Naturwissenschaft</t>
@@ -9724,19 +9724,19 @@
     <t>das Präparat</t>
   </si>
   <si>
-    <t>preparation, medication</t>
+    <t>preparation|medication</t>
   </si>
   <si>
     <t>die Provinz</t>
   </si>
   <si>
-    <t>province, provinces</t>
+    <t>province|provinces</t>
   </si>
   <si>
     <t>die Rahmenbedingung</t>
   </si>
   <si>
-    <t>prevailing, condition</t>
+    <t>prevailing|condition</t>
   </si>
   <si>
     <t>der Regierungschef</t>
@@ -9748,7 +9748,7 @@
     <t>die Säule</t>
   </si>
   <si>
-    <t>column, pillar</t>
+    <t>column|pillar</t>
   </si>
   <si>
     <t>die Scheidung</t>
@@ -9811,7 +9811,7 @@
     <t>das Unrecht</t>
   </si>
   <si>
-    <t>injustice, wrong</t>
+    <t>injustice|wrong</t>
   </si>
   <si>
     <t>das Vitamin</t>
@@ -9838,7 +9838,7 @@
     <t>die Zielsetzung</t>
   </si>
   <si>
-    <t>target, objective</t>
+    <t>target|objective</t>
   </si>
   <si>
     <t>der Zucker</t>
@@ -9871,7 +9871,7 @@
     <t>die Arbeitskraft</t>
   </si>
   <si>
-    <t>work capacity, worker</t>
+    <t>work capacity|worker</t>
   </si>
   <si>
     <t>der Assistent</t>
@@ -9883,7 +9883,7 @@
     <t>die Auswertung</t>
   </si>
   <si>
-    <t>evaluation, analysis</t>
+    <t>evaluation|analysis</t>
   </si>
   <si>
     <t>die Bar</t>
@@ -9901,7 +9901,7 @@
     <t>die Bekämpfung</t>
   </si>
   <si>
-    <t>fighting, controlling</t>
+    <t>fighting|controlling</t>
   </si>
   <si>
     <t>die Beschränkung</t>
@@ -9928,19 +9928,19 @@
     <t>die Erhaltung</t>
   </si>
   <si>
-    <t>preservation, maintenance</t>
+    <t>preservation|maintenance</t>
   </si>
   <si>
     <t>der Erzähler</t>
   </si>
   <si>
-    <t>storyteller, narrator</t>
+    <t>storyteller|narrator</t>
   </si>
   <si>
     <t>der Fachbereich</t>
   </si>
   <si>
-    <t>academic department, field</t>
+    <t>academic department|field</t>
   </si>
   <si>
     <t>die Fachleute</t>
@@ -9955,7 +9955,7 @@
     <t>die Fassung</t>
   </si>
   <si>
-    <t>version, composure, frame, socket</t>
+    <t>version|composure|frame|socket</t>
   </si>
   <si>
     <t>der Flügel</t>
@@ -9967,7 +9967,7 @@
     <t>das Forum</t>
   </si>
   <si>
-    <t>forum, audience, public discussion</t>
+    <t>forum|audience|public discussion</t>
   </si>
   <si>
     <t>die Frequenz</t>
@@ -9991,19 +9991,19 @@
     <t>der Gipfel</t>
   </si>
   <si>
-    <t>peak, summit</t>
+    <t>peak|summit</t>
   </si>
   <si>
     <t>der Großteil</t>
   </si>
   <si>
-    <t>large part, majority</t>
+    <t>large part|majority</t>
   </si>
   <si>
     <t>der Hörer</t>
   </si>
   <si>
-    <t>listener, receiver</t>
+    <t>listener|receiver</t>
   </si>
   <si>
     <t>das Industrieland</t>
@@ -10021,7 +10021,7 @@
     <t>die Jagd</t>
   </si>
   <si>
-    <t>hunt, chase</t>
+    <t>hunt|chase</t>
   </si>
   <si>
     <t>die Jahreszeit</t>
@@ -10054,7 +10054,7 @@
     <t>der Missbrauch</t>
   </si>
   <si>
-    <t>abuse, misuse</t>
+    <t>abuse|misuse</t>
   </si>
   <si>
     <t>die Motivation</t>
@@ -10096,7 +10096,7 @@
     <t>die Reichweite</t>
   </si>
   <si>
-    <t>reach, range</t>
+    <t>reach|range</t>
   </si>
   <si>
     <t>die Reparatur</t>
@@ -10117,7 +10117,7 @@
     <t>der Rucksack</t>
   </si>
   <si>
-    <t>rucksack, backpack</t>
+    <t>rucksack|backpack</t>
   </si>
   <si>
     <t>der Sänger</t>
@@ -10129,7 +10129,7 @@
     <t>die Tablette</t>
   </si>
   <si>
-    <t>tablet, pill</t>
+    <t>tablet|pill</t>
   </si>
   <si>
     <t>die Tageszeitung</t>
@@ -10147,7 +10147,7 @@
     <t>der Umzug</t>
   </si>
   <si>
-    <t>move, parade</t>
+    <t>move|parade</t>
   </si>
   <si>
     <t>der Veranstalter</t>
@@ -10159,7 +10159,7 @@
     <t>die Verknüpfung</t>
   </si>
   <si>
-    <t>combination, link</t>
+    <t>combination|link</t>
   </si>
   <si>
     <t>das Vorfeld</t>
@@ -10189,13 +10189,13 @@
     <t>die Wut</t>
   </si>
   <si>
-    <t>rage, fury</t>
+    <t>rage|fury</t>
   </si>
   <si>
     <t>die Zuordnung</t>
   </si>
   <si>
-    <t>classification, assignment</t>
+    <t>classification|assignment</t>
   </si>
   <si>
     <t>der Zuwachs</t>
@@ -10204,7 +10204,7 @@
     <t>der Abfall</t>
   </si>
   <si>
-    <t>waste, trash</t>
+    <t>waste|trash</t>
   </si>
   <si>
     <t>die Akte</t>
@@ -10213,7 +10213,7 @@
     <t>die Anleihe</t>
   </si>
   <si>
-    <t>loan, bond, borrowing</t>
+    <t>loan|bond|borrowing</t>
   </si>
   <si>
     <t>die Arbeitszeit</t>
@@ -10237,7 +10237,7 @@
     <t>die Ausrichtung</t>
   </si>
   <si>
-    <t>orientation, organization</t>
+    <t>orientation|organization</t>
   </si>
   <si>
     <t>der Ausweis</t>
@@ -10249,13 +10249,13 @@
     <t>die Beachtung</t>
   </si>
   <si>
-    <t>attention, consideration</t>
+    <t>attention|consideration</t>
   </si>
   <si>
     <t>das Diplom</t>
   </si>
   <si>
-    <t>degree, diploma</t>
+    <t>degree|diploma</t>
   </si>
   <si>
     <t>der Einblick</t>
@@ -10273,7 +10273,7 @@
     <t>die Erfassung</t>
   </si>
   <si>
-    <t>recording, entry</t>
+    <t>recording|entry</t>
   </si>
   <si>
     <t>die Fahne</t>
@@ -10291,7 +10291,7 @@
     <t>die Fassade</t>
   </si>
   <si>
-    <t>facade, front</t>
+    <t>facade|front</t>
   </si>
   <si>
     <t>die Feier</t>
@@ -10312,7 +10312,7 @@
     <t>das Gewebe</t>
   </si>
   <si>
-    <t>fabric, tissue</t>
+    <t>fabric|tissue</t>
   </si>
   <si>
     <t>der Gruß</t>
@@ -10324,7 +10324,7 @@
     <t>der Jurist</t>
   </si>
   <si>
-    <t>jurist, law student</t>
+    <t>jurist|law student</t>
   </si>
   <si>
     <t>die Kerze</t>
@@ -10342,7 +10342,7 @@
     <t>die Kommune</t>
   </si>
   <si>
-    <t>municipality, local authority</t>
+    <t>municipality|local authority</t>
   </si>
   <si>
     <t>die Koralle</t>
@@ -10354,13 +10354,13 @@
     <t>die Krankenkasse</t>
   </si>
   <si>
-    <t>health insurance, company</t>
+    <t>health insurance|company</t>
   </si>
   <si>
     <t>der Kunststoff</t>
   </si>
   <si>
-    <t>synthetic material, plastic</t>
+    <t>synthetic material|plastic</t>
   </si>
   <si>
     <t>die Landesregierung</t>
@@ -10399,7 +10399,7 @@
     <t>die Relation</t>
   </si>
   <si>
-    <t>appropriateness, proportion, relation</t>
+    <t>appropriateness|proportion|relation</t>
   </si>
   <si>
     <t>das Riff</t>
@@ -10411,7 +10411,7 @@
     <t>die Schlange</t>
   </si>
   <si>
-    <t>snake, line</t>
+    <t>snake|line</t>
   </si>
   <si>
     <t>das Schwein</t>
@@ -10429,43 +10429,43 @@
     <t>die Siedlung</t>
   </si>
   <si>
-    <t>settlement, housing development</t>
+    <t>settlement|housing development</t>
   </si>
   <si>
     <t>der Spruch</t>
   </si>
   <si>
-    <t>saying, slogan</t>
+    <t>saying|slogan</t>
   </si>
   <si>
     <t>die Stellungnahme</t>
   </si>
   <si>
-    <t>opinion, statement</t>
+    <t>opinion|statement</t>
   </si>
   <si>
     <t>der Strahl</t>
   </si>
   <si>
-    <t>ray, beam</t>
+    <t>ray|beam</t>
   </si>
   <si>
     <t>die Strömung</t>
   </si>
   <si>
-    <t>current, trend</t>
+    <t>current|trend</t>
   </si>
   <si>
     <t>die Verbindlichkeit</t>
   </si>
   <si>
-    <t>obligation, liability, reliability</t>
+    <t>obligation|liability|reliability</t>
   </si>
   <si>
     <t>das Volumen</t>
   </si>
   <si>
-    <t>volume, total amount</t>
+    <t>volume|total amount</t>
   </si>
   <si>
     <t>der Zugriff</t>
@@ -10474,7 +10474,7 @@
     <t>der Zuhörer</t>
   </si>
   <si>
-    <t>listener, audience</t>
+    <t>listener|audience</t>
   </si>
   <si>
     <t>sein</t>
@@ -32217,7 +32217,7 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -32225,7 +32225,7 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -32265,7 +32265,7 @@
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -32289,7 +32289,7 @@
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -32329,7 +32329,7 @@
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -32337,7 +32337,7 @@
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -32369,7 +32369,7 @@
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -32417,7 +32417,7 @@
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -32441,7 +32441,7 @@
       <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -32473,7 +32473,7 @@
       <c r="A38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -32481,7 +32481,7 @@
       <c r="A39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -32489,7 +32489,7 @@
       <c r="A40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -32513,7 +32513,7 @@
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -32521,7 +32521,7 @@
       <c r="A44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -32537,7 +32537,7 @@
       <c r="A46" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -32553,7 +32553,7 @@
       <c r="A48" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -32593,7 +32593,7 @@
       <c r="A53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -32641,7 +32641,7 @@
       <c r="A59" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -32657,7 +32657,7 @@
       <c r="A61" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -32673,7 +32673,7 @@
       <c r="A63" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -32689,7 +32689,7 @@
       <c r="A65" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -32729,7 +32729,7 @@
       <c r="A70" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -32737,7 +32737,7 @@
       <c r="A71" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -32745,7 +32745,7 @@
       <c r="A72" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -32769,7 +32769,7 @@
       <c r="A75" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -32841,7 +32841,7 @@
       <c r="A84" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -32857,7 +32857,7 @@
       <c r="A86" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -32897,7 +32897,7 @@
       <c r="A91" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>182</v>
       </c>
     </row>
@@ -32905,7 +32905,7 @@
       <c r="A92" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -32937,7 +32937,7 @@
       <c r="A96" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -32945,7 +32945,7 @@
       <c r="A97" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>194</v>
       </c>
     </row>
@@ -32985,7 +32985,7 @@
       <c r="A102" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -33009,7 +33009,7 @@
       <c r="A105" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>210</v>
       </c>
     </row>
@@ -33025,7 +33025,7 @@
       <c r="A107" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="3" t="s">
         <v>214</v>
       </c>
     </row>
@@ -33041,7 +33041,7 @@
       <c r="A109" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -33073,7 +33073,7 @@
       <c r="A113" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -33081,7 +33081,7 @@
       <c r="A114" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -33105,7 +33105,7 @@
       <c r="A117" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -33145,7 +33145,7 @@
       <c r="A122" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -33169,7 +33169,7 @@
       <c r="A125" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -33185,7 +33185,7 @@
       <c r="A127" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="3" t="s">
         <v>253</v>
       </c>
     </row>
@@ -33193,7 +33193,7 @@
       <c r="A128" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -33265,7 +33265,7 @@
       <c r="A137" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>273</v>
       </c>
     </row>
@@ -33345,7 +33345,7 @@
       <c r="A147" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>293</v>
       </c>
     </row>
@@ -33353,7 +33353,7 @@
       <c r="A148" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="3" t="s">
         <v>295</v>
       </c>
     </row>
@@ -33361,7 +33361,7 @@
       <c r="A149" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -33385,7 +33385,7 @@
       <c r="A152" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="3" t="s">
         <v>303</v>
       </c>
     </row>
@@ -33393,7 +33393,7 @@
       <c r="A153" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="3" t="s">
         <v>305</v>
       </c>
     </row>
@@ -33441,7 +33441,7 @@
       <c r="A159" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -33481,7 +33481,7 @@
       <c r="A164" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="3" t="s">
         <v>327</v>
       </c>
     </row>
@@ -33521,7 +33521,7 @@
       <c r="A169" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="3" t="s">
         <v>337</v>
       </c>
     </row>
@@ -33537,7 +33537,7 @@
       <c r="A171" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>341</v>
       </c>
     </row>
@@ -33545,7 +33545,7 @@
       <c r="A172" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -33593,7 +33593,7 @@
       <c r="A178" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>355</v>
       </c>
     </row>
@@ -33649,7 +33649,7 @@
       <c r="A185" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="3" t="s">
         <v>369</v>
       </c>
     </row>
@@ -33697,7 +33697,7 @@
       <c r="A191" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>381</v>
       </c>
     </row>
@@ -33705,7 +33705,7 @@
       <c r="A192" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>383</v>
       </c>
     </row>
@@ -33737,7 +33737,7 @@
       <c r="A196" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>391</v>
       </c>
     </row>
@@ -33753,7 +33753,7 @@
       <c r="A198" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="3" t="s">
         <v>395</v>
       </c>
     </row>
@@ -33769,7 +33769,7 @@
       <c r="A200" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>399</v>
       </c>
     </row>
@@ -33777,7 +33777,7 @@
       <c r="A201" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="3" t="s">
         <v>401</v>
       </c>
     </row>
@@ -33785,7 +33785,7 @@
       <c r="A202" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="3" t="s">
         <v>403</v>
       </c>
     </row>
@@ -33817,7 +33817,7 @@
       <c r="A206" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="3" t="s">
         <v>411</v>
       </c>
     </row>
@@ -33841,7 +33841,7 @@
       <c r="A209" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>417</v>
       </c>
     </row>
@@ -33865,7 +33865,7 @@
       <c r="A212" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="3" t="s">
         <v>423</v>
       </c>
     </row>
@@ -33897,7 +33897,7 @@
       <c r="A216" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="3" t="s">
         <v>431</v>
       </c>
     </row>
@@ -33905,7 +33905,7 @@
       <c r="A217" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="3" t="s">
         <v>433</v>
       </c>
     </row>
@@ -33913,7 +33913,7 @@
       <c r="A218" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>435</v>
       </c>
     </row>
@@ -33921,7 +33921,7 @@
       <c r="A219" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="3" t="s">
         <v>437</v>
       </c>
     </row>
@@ -33937,7 +33937,7 @@
       <c r="A221" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="3" t="s">
         <v>441</v>
       </c>
     </row>
@@ -33969,7 +33969,7 @@
       <c r="A225" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="3" t="s">
         <v>449</v>
       </c>
     </row>
@@ -33985,7 +33985,7 @@
       <c r="A227" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="3" t="s">
         <v>453</v>
       </c>
     </row>
@@ -34025,7 +34025,7 @@
       <c r="A232" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="3" t="s">
         <v>463</v>
       </c>
     </row>
@@ -34057,7 +34057,7 @@
       <c r="A236" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="3" t="s">
         <v>471</v>
       </c>
     </row>
@@ -34065,7 +34065,7 @@
       <c r="A237" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>473</v>
       </c>
     </row>
@@ -34081,7 +34081,7 @@
       <c r="A239" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B239" s="3" t="s">
         <v>476</v>
       </c>
     </row>
@@ -34105,7 +34105,7 @@
       <c r="A242" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" s="3" t="s">
         <v>482</v>
       </c>
     </row>
@@ -34121,7 +34121,7 @@
       <c r="A244" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="3" t="s">
         <v>486</v>
       </c>
     </row>
@@ -34153,7 +34153,7 @@
       <c r="A248" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B248" s="3" t="s">
         <v>494</v>
       </c>
     </row>
@@ -34161,7 +34161,7 @@
       <c r="A249" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" s="3" t="s">
         <v>496</v>
       </c>
     </row>
@@ -34169,7 +34169,7 @@
       <c r="A250" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" s="3" t="s">
         <v>498</v>
       </c>
     </row>
@@ -34177,7 +34177,7 @@
       <c r="A251" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" s="3" t="s">
         <v>500</v>
       </c>
     </row>
@@ -34201,7 +34201,7 @@
       <c r="A254" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="3" t="s">
         <v>506</v>
       </c>
     </row>
@@ -34241,7 +34241,7 @@
       <c r="A259" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="3" t="s">
         <v>516</v>
       </c>
     </row>
@@ -34257,7 +34257,7 @@
       <c r="A261" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" s="3" t="s">
         <v>520</v>
       </c>
     </row>
@@ -34281,7 +34281,7 @@
       <c r="A264" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" s="3" t="s">
         <v>526</v>
       </c>
     </row>
@@ -34297,7 +34297,7 @@
       <c r="A266" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B266" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -34305,7 +34305,7 @@
       <c r="A267" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" s="3" t="s">
         <v>532</v>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       <c r="A274" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B274" s="3" t="s">
         <v>546</v>
       </c>
     </row>
@@ -34385,7 +34385,7 @@
       <c r="A277" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B277" s="3" t="s">
         <v>551</v>
       </c>
     </row>
@@ -34393,7 +34393,7 @@
       <c r="A278" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="B278" s="3" t="s">
         <v>553</v>
       </c>
     </row>
@@ -34401,7 +34401,7 @@
       <c r="A279" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" s="3" t="s">
         <v>555</v>
       </c>
     </row>
@@ -34409,7 +34409,7 @@
       <c r="A280" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="3" t="s">
         <v>557</v>
       </c>
     </row>
@@ -34417,7 +34417,7 @@
       <c r="A281" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="3" t="s">
         <v>559</v>
       </c>
     </row>
@@ -34433,7 +34433,7 @@
       <c r="A283" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" s="3" t="s">
         <v>563</v>
       </c>
     </row>
@@ -34457,7 +34457,7 @@
       <c r="A286" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B286" s="3" t="s">
         <v>569</v>
       </c>
     </row>
@@ -34465,7 +34465,7 @@
       <c r="A287" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" s="3" t="s">
         <v>571</v>
       </c>
     </row>
@@ -34513,7 +34513,7 @@
       <c r="A293" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B293" s="3" t="s">
         <v>583</v>
       </c>
     </row>
@@ -34553,7 +34553,7 @@
       <c r="A298" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="B298" s="3" t="s">
         <v>593</v>
       </c>
     </row>
@@ -34609,7 +34609,7 @@
       <c r="A305" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B305" s="5" t="s">
+      <c r="B305" s="3" t="s">
         <v>607</v>
       </c>
     </row>
@@ -34617,7 +34617,7 @@
       <c r="A306" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B306" s="5" t="s">
+      <c r="B306" s="3" t="s">
         <v>609</v>
       </c>
     </row>
@@ -34665,7 +34665,7 @@
       <c r="A312" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="B312" s="3" t="s">
         <v>620</v>
       </c>
     </row>
@@ -34705,7 +34705,7 @@
       <c r="A317" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="B317" s="3" t="s">
         <v>630</v>
       </c>
     </row>
@@ -34761,7 +34761,7 @@
       <c r="A324" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="B324" s="3" t="s">
         <v>644</v>
       </c>
     </row>
@@ -34777,7 +34777,7 @@
       <c r="A326" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="B326" s="3" t="s">
         <v>648</v>
       </c>
     </row>
@@ -34785,7 +34785,7 @@
       <c r="A327" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="B327" s="3" t="s">
         <v>650</v>
       </c>
     </row>
@@ -34801,7 +34801,7 @@
       <c r="A329" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="B329" s="3" t="s">
         <v>654</v>
       </c>
     </row>
@@ -34817,7 +34817,7 @@
       <c r="A331" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="B331" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -34825,7 +34825,7 @@
       <c r="A332" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="B332" s="5" t="s">
+      <c r="B332" s="3" t="s">
         <v>660</v>
       </c>
     </row>
@@ -34849,7 +34849,7 @@
       <c r="A335" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="B335" s="5" t="s">
+      <c r="B335" s="3" t="s">
         <v>666</v>
       </c>
     </row>
@@ -34857,7 +34857,7 @@
       <c r="A336" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="B336" s="5" t="s">
+      <c r="B336" s="3" t="s">
         <v>668</v>
       </c>
     </row>
@@ -34881,7 +34881,7 @@
       <c r="A339" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B339" s="5" t="s">
+      <c r="B339" s="3" t="s">
         <v>674</v>
       </c>
     </row>
@@ -34897,7 +34897,7 @@
       <c r="A341" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="B341" s="3" t="s">
         <v>678</v>
       </c>
     </row>
@@ -34913,7 +34913,7 @@
       <c r="A343" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="B343" s="3" t="s">
         <v>682</v>
       </c>
     </row>
@@ -34953,7 +34953,7 @@
       <c r="A348" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B348" s="5" t="s">
+      <c r="B348" s="3" t="s">
         <v>692</v>
       </c>
     </row>
@@ -34961,7 +34961,7 @@
       <c r="A349" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="B349" s="3" t="s">
         <v>694</v>
       </c>
     </row>
@@ -34969,7 +34969,7 @@
       <c r="A350" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="B350" s="5" t="s">
+      <c r="B350" s="3" t="s">
         <v>696</v>
       </c>
     </row>
@@ -35001,7 +35001,7 @@
       <c r="A354" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="B354" s="5" t="s">
+      <c r="B354" s="3" t="s">
         <v>703</v>
       </c>
     </row>
@@ -35025,7 +35025,7 @@
       <c r="A357" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B357" s="5" t="s">
+      <c r="B357" s="3" t="s">
         <v>709</v>
       </c>
     </row>
@@ -35081,7 +35081,7 @@
       <c r="A364" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B364" s="5" t="s">
+      <c r="B364" s="3" t="s">
         <v>722</v>
       </c>
     </row>
@@ -35137,7 +35137,7 @@
       <c r="A371" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B371" s="5" t="s">
+      <c r="B371" s="3" t="s">
         <v>736</v>
       </c>
     </row>
@@ -35145,7 +35145,7 @@
       <c r="A372" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B372" s="3" t="s">
         <v>738</v>
       </c>
     </row>
@@ -35201,7 +35201,7 @@
       <c r="A379" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="B379" s="3" t="s">
         <v>751</v>
       </c>
     </row>
@@ -35273,7 +35273,7 @@
       <c r="A388" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B388" s="5" t="s">
+      <c r="B388" s="3" t="s">
         <v>769</v>
       </c>
     </row>
@@ -35313,7 +35313,7 @@
       <c r="A393" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="B393" s="3" t="s">
         <v>779</v>
       </c>
     </row>
@@ -35321,7 +35321,7 @@
       <c r="A394" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="B394" s="3" t="s">
         <v>781</v>
       </c>
     </row>
@@ -35329,7 +35329,7 @@
       <c r="A395" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="B395" s="3" t="s">
         <v>783</v>
       </c>
     </row>
@@ -35345,7 +35345,7 @@
       <c r="A397" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B397" s="3" t="s">
         <v>787</v>
       </c>
     </row>
@@ -35377,7 +35377,7 @@
       <c r="A401" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="B401" s="5" t="s">
+      <c r="B401" s="3" t="s">
         <v>794</v>
       </c>
     </row>
@@ -35393,7 +35393,7 @@
       <c r="A403" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="B403" s="5" t="s">
+      <c r="B403" s="3" t="s">
         <v>798</v>
       </c>
     </row>
@@ -35409,7 +35409,7 @@
       <c r="A405" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="B405" s="5" t="s">
+      <c r="B405" s="3" t="s">
         <v>802</v>
       </c>
     </row>
@@ -35441,7 +35441,7 @@
       <c r="A409" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="B409" s="5" t="s">
+      <c r="B409" s="3" t="s">
         <v>810</v>
       </c>
     </row>
@@ -35449,7 +35449,7 @@
       <c r="A410" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="B410" s="5" t="s">
+      <c r="B410" s="3" t="s">
         <v>812</v>
       </c>
     </row>
@@ -35457,7 +35457,7 @@
       <c r="A411" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="B411" s="5" t="s">
+      <c r="B411" s="3" t="s">
         <v>814</v>
       </c>
     </row>
@@ -35473,7 +35473,7 @@
       <c r="A413" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B413" s="5" t="s">
+      <c r="B413" s="3" t="s">
         <v>818</v>
       </c>
     </row>
@@ -35497,7 +35497,7 @@
       <c r="A416" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="B416" s="5" t="s">
+      <c r="B416" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -35505,7 +35505,7 @@
       <c r="A417" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="B417" s="5" t="s">
+      <c r="B417" s="3" t="s">
         <v>825</v>
       </c>
     </row>
@@ -35569,7 +35569,7 @@
       <c r="A425" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="B425" s="5" t="s">
+      <c r="B425" s="3" t="s">
         <v>840</v>
       </c>
     </row>
@@ -35585,7 +35585,7 @@
       <c r="A427" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="B427" s="5" t="s">
+      <c r="B427" s="3" t="s">
         <v>844</v>
       </c>
     </row>
@@ -35593,7 +35593,7 @@
       <c r="A428" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B428" s="5" t="s">
+      <c r="B428" s="3" t="s">
         <v>846</v>
       </c>
     </row>
@@ -35601,7 +35601,7 @@
       <c r="A429" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B429" s="5" t="s">
+      <c r="B429" s="3" t="s">
         <v>848</v>
       </c>
     </row>
@@ -35609,7 +35609,7 @@
       <c r="A430" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="B430" s="5" t="s">
+      <c r="B430" s="3" t="s">
         <v>850</v>
       </c>
     </row>
@@ -35617,7 +35617,7 @@
       <c r="A431" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="B431" s="5" t="s">
+      <c r="B431" s="3" t="s">
         <v>852</v>
       </c>
     </row>
@@ -35649,7 +35649,7 @@
       <c r="A435" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="B435" s="5" t="s">
+      <c r="B435" s="3" t="s">
         <v>860</v>
       </c>
     </row>
@@ -35681,7 +35681,7 @@
       <c r="A439" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="B439" s="5" t="s">
+      <c r="B439" s="3" t="s">
         <v>868</v>
       </c>
     </row>
@@ -35689,7 +35689,7 @@
       <c r="A440" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="B440" s="5" t="s">
+      <c r="B440" s="3" t="s">
         <v>870</v>
       </c>
     </row>
@@ -35713,7 +35713,7 @@
       <c r="A443" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B443" s="5" t="s">
+      <c r="B443" s="3" t="s">
         <v>876</v>
       </c>
     </row>
@@ -35737,7 +35737,7 @@
       <c r="A446" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B446" s="5" t="s">
+      <c r="B446" s="3" t="s">
         <v>882</v>
       </c>
     </row>
@@ -35753,7 +35753,7 @@
       <c r="A448" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B448" s="5" t="s">
+      <c r="B448" s="3" t="s">
         <v>886</v>
       </c>
     </row>
@@ -35769,7 +35769,7 @@
       <c r="A450" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="B450" s="5" t="s">
+      <c r="B450" s="3" t="s">
         <v>890</v>
       </c>
     </row>
@@ -35777,7 +35777,7 @@
       <c r="A451" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="B451" s="5" t="s">
+      <c r="B451" s="3" t="s">
         <v>892</v>
       </c>
     </row>
@@ -35841,7 +35841,7 @@
       <c r="A459" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="B459" s="5" t="s">
+      <c r="B459" s="3" t="s">
         <v>908</v>
       </c>
     </row>
@@ -35897,7 +35897,7 @@
       <c r="A466" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="B466" s="5" t="s">
+      <c r="B466" s="3" t="s">
         <v>922</v>
       </c>
     </row>
@@ -35977,7 +35977,7 @@
       <c r="A476" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="B476" s="5" t="s">
+      <c r="B476" s="3" t="s">
         <v>941</v>
       </c>
     </row>
@@ -35993,7 +35993,7 @@
       <c r="A478" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="B478" s="5" t="s">
+      <c r="B478" s="3" t="s">
         <v>945</v>
       </c>
     </row>
@@ -36009,7 +36009,7 @@
       <c r="A480" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="B480" s="5" t="s">
+      <c r="B480" s="3" t="s">
         <v>949</v>
       </c>
     </row>
@@ -36073,7 +36073,7 @@
       <c r="A488" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="B488" s="5" t="s">
+      <c r="B488" s="3" t="s">
         <v>682</v>
       </c>
     </row>
@@ -36081,7 +36081,7 @@
       <c r="A489" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="B489" s="5" t="s">
+      <c r="B489" s="3" t="s">
         <v>965</v>
       </c>
     </row>
@@ -36089,7 +36089,7 @@
       <c r="A490" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="B490" s="5" t="s">
+      <c r="B490" s="3" t="s">
         <v>967</v>
       </c>
     </row>
@@ -36113,7 +36113,7 @@
       <c r="A493" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="B493" s="5" t="s">
+      <c r="B493" s="3" t="s">
         <v>973</v>
       </c>
     </row>
@@ -36129,7 +36129,7 @@
       <c r="A495" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="B495" s="5" t="s">
+      <c r="B495" s="3" t="s">
         <v>977</v>
       </c>
     </row>
@@ -36137,7 +36137,7 @@
       <c r="A496" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="B496" s="5" t="s">
+      <c r="B496" s="3" t="s">
         <v>979</v>
       </c>
     </row>
@@ -36177,7 +36177,7 @@
       <c r="A501" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="B501" s="5" t="s">
+      <c r="B501" s="3" t="s">
         <v>989</v>
       </c>
     </row>
@@ -36273,7 +36273,7 @@
       <c r="A513" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="B513" s="5" t="s">
+      <c r="B513" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -36281,7 +36281,7 @@
       <c r="A514" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="B514" s="5" t="s">
+      <c r="B514" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -36289,7 +36289,7 @@
       <c r="A515" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="B515" s="5" t="s">
+      <c r="B515" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -36329,7 +36329,7 @@
       <c r="A520" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="B520" s="5" t="s">
+      <c r="B520" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
@@ -36353,7 +36353,7 @@
       <c r="A523" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="B523" s="5" t="s">
+      <c r="B523" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -36361,7 +36361,7 @@
       <c r="A524" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="B524" s="5" t="s">
+      <c r="B524" s="3" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -36393,7 +36393,7 @@
       <c r="A528" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="B528" s="5" t="s">
+      <c r="B528" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -36425,7 +36425,7 @@
       <c r="A532" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="B532" s="5" t="s">
+      <c r="B532" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -36457,7 +36457,7 @@
       <c r="A536" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="B536" s="5" t="s">
+      <c r="B536" s="3" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -36465,7 +36465,7 @@
       <c r="A537" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="B537" s="5" t="s">
+      <c r="B537" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -36489,7 +36489,7 @@
       <c r="A540" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="B540" s="5" t="s">
+      <c r="B540" s="3" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -36505,7 +36505,7 @@
       <c r="A542" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="B542" s="5" t="s">
+      <c r="B542" s="3" t="s">
         <v>1067</v>
       </c>
     </row>
@@ -36513,7 +36513,7 @@
       <c r="A543" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="B543" s="5" t="s">
+      <c r="B543" s="3" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -36553,7 +36553,7 @@
       <c r="A548" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="B548" s="5" t="s">
+      <c r="B548" s="3" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -36577,7 +36577,7 @@
       <c r="A551" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="B551" s="5" t="s">
+      <c r="B551" s="3" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -36593,7 +36593,7 @@
       <c r="A553" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="B553" s="5" t="s">
+      <c r="B553" s="3" t="s">
         <v>1088</v>
       </c>
     </row>
@@ -36625,7 +36625,7 @@
       <c r="A557" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="B557" s="5" t="s">
+      <c r="B557" s="3" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -36657,7 +36657,7 @@
       <c r="A561" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="B561" s="5" t="s">
+      <c r="B561" s="3" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -36665,7 +36665,7 @@
       <c r="A562" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="B562" s="5" t="s">
+      <c r="B562" s="3" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -36673,7 +36673,7 @@
       <c r="A563" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="B563" s="5" t="s">
+      <c r="B563" s="3" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -36705,7 +36705,7 @@
       <c r="A567" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="B567" s="5" t="s">
+      <c r="B567" s="3" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -36713,7 +36713,7 @@
       <c r="A568" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="B568" s="5" t="s">
+      <c r="B568" s="3" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -36737,7 +36737,7 @@
       <c r="A571" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="B571" s="5" t="s">
+      <c r="B571" s="3" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -36745,7 +36745,7 @@
       <c r="A572" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="B572" s="5" t="s">
+      <c r="B572" s="3" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -36753,7 +36753,7 @@
       <c r="A573" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="B573" s="5" t="s">
+      <c r="B573" s="3" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -36841,7 +36841,7 @@
       <c r="A584" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="B584" s="5" t="s">
+      <c r="B584" s="3" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -36849,7 +36849,7 @@
       <c r="A585" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="B585" s="5" t="s">
+      <c r="B585" s="3" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -36865,7 +36865,7 @@
       <c r="A587" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="B587" s="5" t="s">
+      <c r="B587" s="3" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -36873,7 +36873,7 @@
       <c r="A588" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="B588" s="5" t="s">
+      <c r="B588" s="3" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36881,7 +36881,7 @@
       <c r="A589" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="B589" s="5" t="s">
+      <c r="B589" s="3" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -36897,7 +36897,7 @@
       <c r="A591" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="B591" s="5" t="s">
+      <c r="B591" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -36921,7 +36921,7 @@
       <c r="A594" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="B594" s="5" t="s">
+      <c r="B594" s="3" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -36937,7 +36937,7 @@
       <c r="A596" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="B596" s="5" t="s">
+      <c r="B596" s="3" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -36969,7 +36969,7 @@
       <c r="A600" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="B600" s="5" t="s">
+      <c r="B600" s="3" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -37009,7 +37009,7 @@
       <c r="A605" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="B605" s="5" t="s">
+      <c r="B605" s="3" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -37017,7 +37017,7 @@
       <c r="A606" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="B606" s="5" t="s">
+      <c r="B606" s="3" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -37025,7 +37025,7 @@
       <c r="A607" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="B607" s="5" t="s">
+      <c r="B607" s="3" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -37049,7 +37049,7 @@
       <c r="A610" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="B610" s="5" t="s">
+      <c r="B610" s="3" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -37057,7 +37057,7 @@
       <c r="A611" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="B611" s="5" t="s">
+      <c r="B611" s="3" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -37065,7 +37065,7 @@
       <c r="A612" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="B612" s="5" t="s">
+      <c r="B612" s="3" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -37081,7 +37081,7 @@
       <c r="A614" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="B614" s="5" t="s">
+      <c r="B614" s="3" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -37097,7 +37097,7 @@
       <c r="A616" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="B616" s="5" t="s">
+      <c r="B616" s="3" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -37121,7 +37121,7 @@
       <c r="A619" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="B619" s="5" t="s">
+      <c r="B619" s="3" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -37137,7 +37137,7 @@
       <c r="A621" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="B621" s="5" t="s">
+      <c r="B621" s="3" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -37153,7 +37153,7 @@
       <c r="A623" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="B623" s="4" t="s">
+      <c r="B623" s="2" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -37169,7 +37169,7 @@
       <c r="A625" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="B625" s="5" t="s">
+      <c r="B625" s="3" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -37185,7 +37185,7 @@
       <c r="A627" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="B627" s="5" t="s">
+      <c r="B627" s="3" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -37193,7 +37193,7 @@
       <c r="A628" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="B628" s="5" t="s">
+      <c r="B628" s="3" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -37257,7 +37257,7 @@
       <c r="A636" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="B636" s="5" t="s">
+      <c r="B636" s="3" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -37305,7 +37305,7 @@
       <c r="A642" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="B642" s="5" t="s">
+      <c r="B642" s="3" t="s">
         <v>1264</v>
       </c>
     </row>
@@ -37313,7 +37313,7 @@
       <c r="A643" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="B643" s="5" t="s">
+      <c r="B643" s="3" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -37329,7 +37329,7 @@
       <c r="A645" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="B645" s="5" t="s">
+      <c r="B645" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
@@ -37337,7 +37337,7 @@
       <c r="A646" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="B646" s="5" t="s">
+      <c r="B646" s="3" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -37385,7 +37385,7 @@
       <c r="A652" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="B652" s="5" t="s">
+      <c r="B652" s="3" t="s">
         <v>1284</v>
       </c>
     </row>
@@ -37425,7 +37425,7 @@
       <c r="A657" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="B657" s="5" t="s">
+      <c r="B657" s="3" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -37449,7 +37449,7 @@
       <c r="A660" s="5" t="s">
         <v>1299</v>
       </c>
-      <c r="B660" s="5" t="s">
+      <c r="B660" s="3" t="s">
         <v>1300</v>
       </c>
     </row>
@@ -37457,7 +37457,7 @@
       <c r="A661" s="5" t="s">
         <v>1301</v>
       </c>
-      <c r="B661" s="5" t="s">
+      <c r="B661" s="3" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -37473,7 +37473,7 @@
       <c r="A663" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="B663" s="5" t="s">
+      <c r="B663" s="3" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -37481,7 +37481,7 @@
       <c r="A664" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="B664" s="5" t="s">
+      <c r="B664" s="3" t="s">
         <v>1307</v>
       </c>
     </row>
@@ -37529,7 +37529,7 @@
       <c r="A670" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="B670" s="5" t="s">
+      <c r="B670" s="3" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -37561,7 +37561,7 @@
       <c r="A674" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="B674" s="5" t="s">
+      <c r="B674" s="3" t="s">
         <v>1327</v>
       </c>
     </row>
@@ -37569,7 +37569,7 @@
       <c r="A675" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="B675" s="5" t="s">
+      <c r="B675" s="3" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -37617,7 +37617,7 @@
       <c r="A681" s="5" t="s">
         <v>1339</v>
       </c>
-      <c r="B681" s="5" t="s">
+      <c r="B681" s="3" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -37625,7 +37625,7 @@
       <c r="A682" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="B682" s="5" t="s">
+      <c r="B682" s="3" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -37697,7 +37697,7 @@
       <c r="A691" s="5" t="s">
         <v>1359</v>
       </c>
-      <c r="B691" s="5" t="s">
+      <c r="B691" s="3" t="s">
         <v>1360</v>
       </c>
     </row>
@@ -37761,7 +37761,7 @@
       <c r="A699" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="B699" s="5" t="s">
+      <c r="B699" s="3" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -37825,7 +37825,7 @@
       <c r="A707" s="5" t="s">
         <v>1391</v>
       </c>
-      <c r="B707" s="5" t="s">
+      <c r="B707" s="3" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -37833,7 +37833,7 @@
       <c r="A708" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="B708" s="5" t="s">
+      <c r="B708" s="3" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -37849,7 +37849,7 @@
       <c r="A710" s="5" t="s">
         <v>1397</v>
       </c>
-      <c r="B710" s="5" t="s">
+      <c r="B710" s="3" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -37873,7 +37873,7 @@
       <c r="A713" s="5" t="s">
         <v>1402</v>
       </c>
-      <c r="B713" s="5" t="s">
+      <c r="B713" s="3" t="s">
         <v>1403</v>
       </c>
     </row>
@@ -37881,7 +37881,7 @@
       <c r="A714" s="5" t="s">
         <v>1404</v>
       </c>
-      <c r="B714" s="5" t="s">
+      <c r="B714" s="3" t="s">
         <v>1405</v>
       </c>
     </row>
@@ -37889,7 +37889,7 @@
       <c r="A715" s="5" t="s">
         <v>1406</v>
       </c>
-      <c r="B715" s="5" t="s">
+      <c r="B715" s="3" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -37905,7 +37905,7 @@
       <c r="A717" s="5" t="s">
         <v>1410</v>
       </c>
-      <c r="B717" s="5" t="s">
+      <c r="B717" s="3" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -37929,7 +37929,7 @@
       <c r="A720" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="B720" s="5" t="s">
+      <c r="B720" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
@@ -38017,7 +38017,7 @@
       <c r="A731" s="5" t="s">
         <v>1437</v>
       </c>
-      <c r="B731" s="5" t="s">
+      <c r="B731" s="3" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -38025,7 +38025,7 @@
       <c r="A732" s="5" t="s">
         <v>1439</v>
       </c>
-      <c r="B732" s="5" t="s">
+      <c r="B732" s="3" t="s">
         <v>1440</v>
       </c>
     </row>
@@ -38033,7 +38033,7 @@
       <c r="A733" s="5" t="s">
         <v>1441</v>
       </c>
-      <c r="B733" s="5" t="s">
+      <c r="B733" s="3" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -38041,7 +38041,7 @@
       <c r="A734" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="B734" s="5" t="s">
+      <c r="B734" s="3" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -38073,7 +38073,7 @@
       <c r="A738" s="5" t="s">
         <v>1451</v>
       </c>
-      <c r="B738" s="5" t="s">
+      <c r="B738" s="3" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -38081,7 +38081,7 @@
       <c r="A739" s="5" t="s">
         <v>1453</v>
       </c>
-      <c r="B739" s="5" t="s">
+      <c r="B739" s="3" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -38097,7 +38097,7 @@
       <c r="A741" s="5" t="s">
         <v>1457</v>
       </c>
-      <c r="B741" s="5" t="s">
+      <c r="B741" s="3" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -38137,7 +38137,7 @@
       <c r="A746" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="B746" s="5" t="s">
+      <c r="B746" s="3" t="s">
         <v>1468</v>
       </c>
     </row>
@@ -38153,7 +38153,7 @@
       <c r="A748" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="B748" s="5" t="s">
+      <c r="B748" s="3" t="s">
         <v>1472</v>
       </c>
     </row>
@@ -38177,7 +38177,7 @@
       <c r="A751" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B751" s="5" t="s">
+      <c r="B751" s="3" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -38209,7 +38209,7 @@
       <c r="A755" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="B755" s="5" t="s">
+      <c r="B755" s="3" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -38233,7 +38233,7 @@
       <c r="A758" s="5" t="s">
         <v>1491</v>
       </c>
-      <c r="B758" s="5" t="s">
+      <c r="B758" s="3" t="s">
         <v>1492</v>
       </c>
     </row>
@@ -38241,7 +38241,7 @@
       <c r="A759" s="5" t="s">
         <v>1493</v>
       </c>
-      <c r="B759" s="5" t="s">
+      <c r="B759" s="3" t="s">
         <v>563</v>
       </c>
     </row>
@@ -38249,7 +38249,7 @@
       <c r="A760" s="5" t="s">
         <v>1494</v>
       </c>
-      <c r="B760" s="5" t="s">
+      <c r="B760" s="3" t="s">
         <v>1495</v>
       </c>
     </row>
@@ -38305,7 +38305,7 @@
       <c r="A767" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="B767" s="5" t="s">
+      <c r="B767" s="3" t="s">
         <v>1508</v>
       </c>
     </row>
@@ -38345,7 +38345,7 @@
       <c r="A772" s="5" t="s">
         <v>1516</v>
       </c>
-      <c r="B772" s="5" t="s">
+      <c r="B772" s="3" t="s">
         <v>1517</v>
       </c>
     </row>
@@ -38353,7 +38353,7 @@
       <c r="A773" s="5" t="s">
         <v>1518</v>
       </c>
-      <c r="B773" s="5" t="s">
+      <c r="B773" s="3" t="s">
         <v>1519</v>
       </c>
     </row>
@@ -38409,7 +38409,7 @@
       <c r="A780" s="5" t="s">
         <v>1532</v>
       </c>
-      <c r="B780" s="5" t="s">
+      <c r="B780" s="3" t="s">
         <v>1533</v>
       </c>
     </row>
@@ -38449,7 +38449,7 @@
       <c r="A785" s="5" t="s">
         <v>1542</v>
       </c>
-      <c r="B785" s="5" t="s">
+      <c r="B785" s="3" t="s">
         <v>1543</v>
       </c>
     </row>
@@ -38473,7 +38473,7 @@
       <c r="A788" s="5" t="s">
         <v>1548</v>
       </c>
-      <c r="B788" s="5" t="s">
+      <c r="B788" s="3" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -38481,7 +38481,7 @@
       <c r="A789" s="5" t="s">
         <v>1550</v>
       </c>
-      <c r="B789" s="5" t="s">
+      <c r="B789" s="3" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -38513,7 +38513,7 @@
       <c r="A793" s="5" t="s">
         <v>1558</v>
       </c>
-      <c r="B793" s="5" t="s">
+      <c r="B793" s="3" t="s">
         <v>1559</v>
       </c>
     </row>
@@ -38553,7 +38553,7 @@
       <c r="A798" s="5" t="s">
         <v>1568</v>
       </c>
-      <c r="B798" s="5" t="s">
+      <c r="B798" s="3" t="s">
         <v>1569</v>
       </c>
     </row>
@@ -38601,7 +38601,7 @@
       <c r="A804" s="5" t="s">
         <v>1580</v>
       </c>
-      <c r="B804" s="5" t="s">
+      <c r="B804" s="3" t="s">
         <v>1581</v>
       </c>
     </row>
@@ -38609,7 +38609,7 @@
       <c r="A805" s="5" t="s">
         <v>1582</v>
       </c>
-      <c r="B805" s="5" t="s">
+      <c r="B805" s="3" t="s">
         <v>1583</v>
       </c>
     </row>
@@ -38617,7 +38617,7 @@
       <c r="A806" s="5" t="s">
         <v>1584</v>
       </c>
-      <c r="B806" s="5" t="s">
+      <c r="B806" s="3" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -38625,7 +38625,7 @@
       <c r="A807" s="5" t="s">
         <v>1586</v>
       </c>
-      <c r="B807" s="5" t="s">
+      <c r="B807" s="3" t="s">
         <v>1587</v>
       </c>
     </row>
@@ -38633,7 +38633,7 @@
       <c r="A808" s="5" t="s">
         <v>1588</v>
       </c>
-      <c r="B808" s="5" t="s">
+      <c r="B808" s="3" t="s">
         <v>1589</v>
       </c>
     </row>
@@ -38641,7 +38641,7 @@
       <c r="A809" s="5" t="s">
         <v>1590</v>
       </c>
-      <c r="B809" s="5" t="s">
+      <c r="B809" s="3" t="s">
         <v>1591</v>
       </c>
     </row>
@@ -38673,7 +38673,7 @@
       <c r="A813" s="5" t="s">
         <v>1598</v>
       </c>
-      <c r="B813" s="5" t="s">
+      <c r="B813" s="3" t="s">
         <v>1599</v>
       </c>
     </row>
@@ -38689,7 +38689,7 @@
       <c r="A815" s="5" t="s">
         <v>1602</v>
       </c>
-      <c r="B815" s="5" t="s">
+      <c r="B815" s="3" t="s">
         <v>1603</v>
       </c>
     </row>
@@ -38721,7 +38721,7 @@
       <c r="A819" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="B819" s="5" t="s">
+      <c r="B819" s="3" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -38729,7 +38729,7 @@
       <c r="A820" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="B820" s="5" t="s">
+      <c r="B820" s="3" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -38777,7 +38777,7 @@
       <c r="A826" s="5" t="s">
         <v>1624</v>
       </c>
-      <c r="B826" s="5" t="s">
+      <c r="B826" s="3" t="s">
         <v>1625</v>
       </c>
     </row>
@@ -38825,7 +38825,7 @@
       <c r="A832" s="5" t="s">
         <v>1634</v>
       </c>
-      <c r="B832" s="5" t="s">
+      <c r="B832" s="3" t="s">
         <v>1635</v>
       </c>
     </row>
@@ -38833,7 +38833,7 @@
       <c r="A833" s="5" t="s">
         <v>1636</v>
       </c>
-      <c r="B833" s="5" t="s">
+      <c r="B833" s="3" t="s">
         <v>1637</v>
       </c>
     </row>
@@ -38841,7 +38841,7 @@
       <c r="A834" s="5" t="s">
         <v>1638</v>
       </c>
-      <c r="B834" s="5" t="s">
+      <c r="B834" s="3" t="s">
         <v>1639</v>
       </c>
     </row>
@@ -38865,7 +38865,7 @@
       <c r="A837" s="5" t="s">
         <v>1441</v>
       </c>
-      <c r="B837" s="5" t="s">
+      <c r="B837" s="3" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -38881,7 +38881,7 @@
       <c r="A839" s="5" t="s">
         <v>1647</v>
       </c>
-      <c r="B839" s="5" t="s">
+      <c r="B839" s="3" t="s">
         <v>1648</v>
       </c>
     </row>
@@ -38897,7 +38897,7 @@
       <c r="A841" s="5" t="s">
         <v>1651</v>
       </c>
-      <c r="B841" s="5" t="s">
+      <c r="B841" s="3" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -38921,7 +38921,7 @@
       <c r="A844" s="5" t="s">
         <v>1657</v>
       </c>
-      <c r="B844" s="5" t="s">
+      <c r="B844" s="3" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -38937,7 +38937,7 @@
       <c r="A846" s="5" t="s">
         <v>1661</v>
       </c>
-      <c r="B846" s="5" t="s">
+      <c r="B846" s="3" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -38969,7 +38969,7 @@
       <c r="A850" s="5" t="s">
         <v>1667</v>
       </c>
-      <c r="B850" s="5" t="s">
+      <c r="B850" s="3" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -39017,7 +39017,7 @@
       <c r="A856" s="5" t="s">
         <v>1679</v>
       </c>
-      <c r="B856" s="5" t="s">
+      <c r="B856" s="3" t="s">
         <v>1680</v>
       </c>
     </row>
@@ -39033,7 +39033,7 @@
       <c r="A858" s="5" t="s">
         <v>1683</v>
       </c>
-      <c r="B858" s="5" t="s">
+      <c r="B858" s="3" t="s">
         <v>1684</v>
       </c>
     </row>
@@ -39065,7 +39065,7 @@
       <c r="A862" s="5" t="s">
         <v>1691</v>
       </c>
-      <c r="B862" s="5" t="s">
+      <c r="B862" s="3" t="s">
         <v>1692</v>
       </c>
     </row>
@@ -39121,7 +39121,7 @@
       <c r="A869" s="5" t="s">
         <v>1704</v>
       </c>
-      <c r="B869" s="5" t="s">
+      <c r="B869" s="3" t="s">
         <v>1705</v>
       </c>
     </row>
@@ -39161,7 +39161,7 @@
       <c r="A874" s="5" t="s">
         <v>1714</v>
       </c>
-      <c r="B874" s="5" t="s">
+      <c r="B874" s="3" t="s">
         <v>1715</v>
       </c>
     </row>
@@ -39249,7 +39249,7 @@
       <c r="A885" s="5" t="s">
         <v>1736</v>
       </c>
-      <c r="B885" s="5" t="s">
+      <c r="B885" s="3" t="s">
         <v>1737</v>
       </c>
     </row>
@@ -39273,7 +39273,7 @@
       <c r="A888" s="5" t="s">
         <v>1742</v>
       </c>
-      <c r="B888" s="5" t="s">
+      <c r="B888" s="3" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -39313,7 +39313,7 @@
       <c r="A893" s="5" t="s">
         <v>1752</v>
       </c>
-      <c r="B893" s="5" t="s">
+      <c r="B893" s="3" t="s">
         <v>1753</v>
       </c>
     </row>
@@ -39385,7 +39385,7 @@
       <c r="A902" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="B902" s="5" t="s">
+      <c r="B902" s="3" t="s">
         <v>1771</v>
       </c>
     </row>
@@ -39417,7 +39417,7 @@
       <c r="A906" s="5" t="s">
         <v>1778</v>
       </c>
-      <c r="B906" s="5" t="s">
+      <c r="B906" s="3" t="s">
         <v>1779</v>
       </c>
     </row>
@@ -39425,7 +39425,7 @@
       <c r="A907" s="5" t="s">
         <v>1780</v>
       </c>
-      <c r="B907" s="5" t="s">
+      <c r="B907" s="3" t="s">
         <v>1781</v>
       </c>
     </row>
@@ -39441,7 +39441,7 @@
       <c r="A909" s="5" t="s">
         <v>1784</v>
       </c>
-      <c r="B909" s="5" t="s">
+      <c r="B909" s="3" t="s">
         <v>1785</v>
       </c>
     </row>
@@ -39449,7 +39449,7 @@
       <c r="A910" s="5" t="s">
         <v>1786</v>
       </c>
-      <c r="B910" s="5" t="s">
+      <c r="B910" s="3" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -39489,7 +39489,7 @@
       <c r="A915" s="5" t="s">
         <v>1795</v>
       </c>
-      <c r="B915" s="5" t="s">
+      <c r="B915" s="3" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -39545,7 +39545,7 @@
       <c r="A922" s="5" t="s">
         <v>1809</v>
       </c>
-      <c r="B922" s="5" t="s">
+      <c r="B922" s="3" t="s">
         <v>1810</v>
       </c>
     </row>
@@ -39649,7 +39649,7 @@
       <c r="A935" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="B935" s="5" t="s">
+      <c r="B935" s="3" t="s">
         <v>1836</v>
       </c>
     </row>
@@ -39665,7 +39665,7 @@
       <c r="A937" s="5" t="s">
         <v>1839</v>
       </c>
-      <c r="B937" s="5" t="s">
+      <c r="B937" s="3" t="s">
         <v>1840</v>
       </c>
     </row>
@@ -39689,7 +39689,7 @@
       <c r="A940" s="5" t="s">
         <v>1844</v>
       </c>
-      <c r="B940" s="5" t="s">
+      <c r="B940" s="3" t="s">
         <v>1845</v>
       </c>
     </row>
@@ -39705,7 +39705,7 @@
       <c r="A942" s="5" t="s">
         <v>1847</v>
       </c>
-      <c r="B942" s="5" t="s">
+      <c r="B942" s="3" t="s">
         <v>1848</v>
       </c>
     </row>
@@ -39713,7 +39713,7 @@
       <c r="A943" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="B943" s="5" t="s">
+      <c r="B943" s="3" t="s">
         <v>1850</v>
       </c>
     </row>
@@ -39745,7 +39745,7 @@
       <c r="A947" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="B947" s="5" t="s">
+      <c r="B947" s="3" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -39769,7 +39769,7 @@
       <c r="A950" s="5" t="s">
         <v>1862</v>
       </c>
-      <c r="B950" s="5" t="s">
+      <c r="B950" s="3" t="s">
         <v>1863</v>
       </c>
     </row>
@@ -39777,7 +39777,7 @@
       <c r="A951" s="5" t="s">
         <v>1864</v>
       </c>
-      <c r="B951" s="5" t="s">
+      <c r="B951" s="3" t="s">
         <v>1865</v>
       </c>
     </row>
@@ -39801,7 +39801,7 @@
       <c r="A954" s="5" t="s">
         <v>1870</v>
       </c>
-      <c r="B954" s="5" t="s">
+      <c r="B954" s="3" t="s">
         <v>1871</v>
       </c>
     </row>
@@ -39817,7 +39817,7 @@
       <c r="A956" s="5" t="s">
         <v>1873</v>
       </c>
-      <c r="B956" s="5" t="s">
+      <c r="B956" s="3" t="s">
         <v>1874</v>
       </c>
     </row>
@@ -39865,7 +39865,7 @@
       <c r="A962" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="B962" s="5" t="s">
+      <c r="B962" s="3" t="s">
         <v>1885</v>
       </c>
     </row>
@@ -39897,7 +39897,7 @@
       <c r="A966" s="5" t="s">
         <v>1891</v>
       </c>
-      <c r="B966" s="5" t="s">
+      <c r="B966" s="3" t="s">
         <v>1892</v>
       </c>
     </row>
@@ -39969,7 +39969,7 @@
       <c r="A975" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="B975" s="5" t="s">
+      <c r="B975" s="3" t="s">
         <v>1909</v>
       </c>
     </row>
@@ -39977,7 +39977,7 @@
       <c r="A976" s="5" t="s">
         <v>1910</v>
       </c>
-      <c r="B976" s="5" t="s">
+      <c r="B976" s="3" t="s">
         <v>1911</v>
       </c>
     </row>
@@ -39993,7 +39993,7 @@
       <c r="A978" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="B978" s="5" t="s">
+      <c r="B978" s="3" t="s">
         <v>1914</v>
       </c>
     </row>
@@ -40041,7 +40041,7 @@
       <c r="A984" s="5" t="s">
         <v>1925</v>
       </c>
-      <c r="B984" s="5" t="s">
+      <c r="B984" s="3" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -40073,7 +40073,7 @@
       <c r="A988" s="5" t="s">
         <v>1618</v>
       </c>
-      <c r="B988" s="5" t="s">
+      <c r="B988" s="3" t="s">
         <v>1933</v>
       </c>
     </row>
@@ -40089,7 +40089,7 @@
       <c r="A990" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="B990" s="5" t="s">
+      <c r="B990" s="3" t="s">
         <v>1937</v>
       </c>
     </row>
@@ -40121,7 +40121,7 @@
       <c r="A994" s="5" t="s">
         <v>1943</v>
       </c>
-      <c r="B994" s="5" t="s">
+      <c r="B994" s="3" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -40129,7 +40129,7 @@
       <c r="A995" s="5" t="s">
         <v>1945</v>
       </c>
-      <c r="B995" s="5" t="s">
+      <c r="B995" s="3" t="s">
         <v>1946</v>
       </c>
     </row>
@@ -40145,7 +40145,7 @@
       <c r="A997" s="5" t="s">
         <v>1949</v>
       </c>
-      <c r="B997" s="5" t="s">
+      <c r="B997" s="3" t="s">
         <v>1950</v>
       </c>
     </row>
@@ -40153,7 +40153,7 @@
       <c r="A998" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="B998" s="5" t="s">
+      <c r="B998" s="3" t="s">
         <v>1952</v>
       </c>
     </row>
@@ -40161,7 +40161,7 @@
       <c r="A999" s="5" t="s">
         <v>1953</v>
       </c>
-      <c r="B999" s="5" t="s">
+      <c r="B999" s="3" t="s">
         <v>1954</v>
       </c>
     </row>
@@ -40201,7 +40201,7 @@
       <c r="A1004" s="5" t="s">
         <v>1962</v>
       </c>
-      <c r="B1004" s="5" t="s">
+      <c r="B1004" s="3" t="s">
         <v>1963</v>
       </c>
     </row>
@@ -40241,7 +40241,7 @@
       <c r="A1009" s="5" t="s">
         <v>1972</v>
       </c>
-      <c r="B1009" s="5" t="s">
+      <c r="B1009" s="3" t="s">
         <v>1973</v>
       </c>
     </row>
@@ -40265,7 +40265,7 @@
       <c r="A1012" s="5" t="s">
         <v>1978</v>
       </c>
-      <c r="B1012" s="5" t="s">
+      <c r="B1012" s="3" t="s">
         <v>1979</v>
       </c>
     </row>
@@ -40273,7 +40273,7 @@
       <c r="A1013" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="B1013" s="5" t="s">
+      <c r="B1013" s="3" t="s">
         <v>1981</v>
       </c>
     </row>
@@ -40289,7 +40289,7 @@
       <c r="A1015" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="B1015" s="5" t="s">
+      <c r="B1015" s="3" t="s">
         <v>1985</v>
       </c>
     </row>
@@ -40297,7 +40297,7 @@
       <c r="A1016" s="5" t="s">
         <v>1986</v>
       </c>
-      <c r="B1016" s="5" t="s">
+      <c r="B1016" s="3" t="s">
         <v>1987</v>
       </c>
     </row>
@@ -40329,7 +40329,7 @@
       <c r="A1020" s="5" t="s">
         <v>1993</v>
       </c>
-      <c r="B1020" s="5" t="s">
+      <c r="B1020" s="3" t="s">
         <v>1994</v>
       </c>
     </row>
@@ -40337,7 +40337,7 @@
       <c r="A1021" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="B1021" s="5" t="s">
+      <c r="B1021" s="3" t="s">
         <v>1996</v>
       </c>
     </row>
@@ -40353,7 +40353,7 @@
       <c r="A1023" s="5" t="s">
         <v>1999</v>
       </c>
-      <c r="B1023" s="5" t="s">
+      <c r="B1023" s="3" t="s">
         <v>2000</v>
       </c>
     </row>
@@ -40369,7 +40369,7 @@
       <c r="A1025" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="B1025" s="5" t="s">
+      <c r="B1025" s="3" t="s">
         <v>2004</v>
       </c>
     </row>
@@ -40401,7 +40401,7 @@
       <c r="A1029" s="5" t="s">
         <v>2011</v>
       </c>
-      <c r="B1029" s="5" t="s">
+      <c r="B1029" s="3" t="s">
         <v>2012</v>
       </c>
     </row>
@@ -40417,7 +40417,7 @@
       <c r="A1031" s="5" t="s">
         <v>2015</v>
       </c>
-      <c r="B1031" s="5" t="s">
+      <c r="B1031" s="3" t="s">
         <v>2016</v>
       </c>
     </row>
@@ -40449,7 +40449,7 @@
       <c r="A1035" s="5" t="s">
         <v>2022</v>
       </c>
-      <c r="B1035" s="5" t="s">
+      <c r="B1035" s="3" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -40473,7 +40473,7 @@
       <c r="A1038" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="B1038" s="5" t="s">
+      <c r="B1038" s="3" t="s">
         <v>2029</v>
       </c>
     </row>
@@ -40489,7 +40489,7 @@
       <c r="A1040" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="B1040" s="5" t="s">
+      <c r="B1040" s="3" t="s">
         <v>2033</v>
       </c>
     </row>
@@ -40505,7 +40505,7 @@
       <c r="A1042" s="5" t="s">
         <v>2036</v>
       </c>
-      <c r="B1042" s="5" t="s">
+      <c r="B1042" s="3" t="s">
         <v>2037</v>
       </c>
     </row>
@@ -40521,7 +40521,7 @@
       <c r="A1044" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="B1044" s="5" t="s">
+      <c r="B1044" s="3" t="s">
         <v>2041</v>
       </c>
     </row>
@@ -40529,7 +40529,7 @@
       <c r="A1045" s="5" t="s">
         <v>2042</v>
       </c>
-      <c r="B1045" s="5" t="s">
+      <c r="B1045" s="3" t="s">
         <v>2043</v>
       </c>
     </row>
@@ -40537,7 +40537,7 @@
       <c r="A1046" s="5" t="s">
         <v>2044</v>
       </c>
-      <c r="B1046" s="5" t="s">
+      <c r="B1046" s="3" t="s">
         <v>2045</v>
       </c>
     </row>
@@ -40585,7 +40585,7 @@
       <c r="A1052" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="B1052" s="5" t="s">
+      <c r="B1052" s="3" t="s">
         <v>2057</v>
       </c>
     </row>
@@ -40649,7 +40649,7 @@
       <c r="A1060" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="B1060" s="5" t="s">
+      <c r="B1060" s="3" t="s">
         <v>2073</v>
       </c>
     </row>
@@ -40689,7 +40689,7 @@
       <c r="A1065" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="B1065" s="5" t="s">
+      <c r="B1065" s="3" t="s">
         <v>2083</v>
       </c>
     </row>
@@ -40697,7 +40697,7 @@
       <c r="A1066" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="B1066" s="5" t="s">
+      <c r="B1066" s="3" t="s">
         <v>2085</v>
       </c>
     </row>
@@ -40729,7 +40729,7 @@
       <c r="A1070" s="5" t="s">
         <v>2092</v>
       </c>
-      <c r="B1070" s="5" t="s">
+      <c r="B1070" s="3" t="s">
         <v>2093</v>
       </c>
     </row>
@@ -40737,7 +40737,7 @@
       <c r="A1071" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="B1071" s="5" t="s">
+      <c r="B1071" s="3" t="s">
         <v>2095</v>
       </c>
     </row>
@@ -40753,7 +40753,7 @@
       <c r="A1073" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="B1073" s="5" t="s">
+      <c r="B1073" s="3" t="s">
         <v>2099</v>
       </c>
     </row>
@@ -40785,7 +40785,7 @@
       <c r="A1077" s="5" t="s">
         <v>2106</v>
       </c>
-      <c r="B1077" s="5" t="s">
+      <c r="B1077" s="3" t="s">
         <v>2107</v>
       </c>
     </row>
@@ -40793,7 +40793,7 @@
       <c r="A1078" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="B1078" s="5" t="s">
+      <c r="B1078" s="3" t="s">
         <v>2109</v>
       </c>
     </row>
@@ -40809,7 +40809,7 @@
       <c r="A1080" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="B1080" s="5" t="s">
+      <c r="B1080" s="3" t="s">
         <v>2113</v>
       </c>
     </row>
@@ -40817,7 +40817,7 @@
       <c r="A1081" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="B1081" s="5" t="s">
+      <c r="B1081" s="3" t="s">
         <v>2115</v>
       </c>
     </row>
@@ -40849,7 +40849,7 @@
       <c r="A1085" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="B1085" s="5" t="s">
+      <c r="B1085" s="3" t="s">
         <v>2122</v>
       </c>
     </row>
@@ -40865,7 +40865,7 @@
       <c r="A1087" s="5" t="s">
         <v>2125</v>
       </c>
-      <c r="B1087" s="5" t="s">
+      <c r="B1087" s="3" t="s">
         <v>2126</v>
       </c>
     </row>
@@ -40881,7 +40881,7 @@
       <c r="A1089" s="5" t="s">
         <v>2128</v>
       </c>
-      <c r="B1089" s="5" t="s">
+      <c r="B1089" s="3" t="s">
         <v>2129</v>
       </c>
     </row>
@@ -40961,7 +40961,7 @@
       <c r="A1099" s="5" t="s">
         <v>2148</v>
       </c>
-      <c r="B1099" s="5" t="s">
+      <c r="B1099" s="3" t="s">
         <v>2149</v>
       </c>
     </row>
@@ -40985,7 +40985,7 @@
       <c r="A1102" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="B1102" s="5" t="s">
+      <c r="B1102" s="3" t="s">
         <v>2154</v>
       </c>
     </row>
@@ -41017,7 +41017,7 @@
       <c r="A1106" s="5" t="s">
         <v>2160</v>
       </c>
-      <c r="B1106" s="5" t="s">
+      <c r="B1106" s="3" t="s">
         <v>2161</v>
       </c>
     </row>
@@ -41025,7 +41025,7 @@
       <c r="A1107" s="5" t="s">
         <v>2162</v>
       </c>
-      <c r="B1107" s="5" t="s">
+      <c r="B1107" s="3" t="s">
         <v>2163</v>
       </c>
     </row>
@@ -41073,7 +41073,7 @@
       <c r="A1113" s="5" t="s">
         <v>2173</v>
       </c>
-      <c r="B1113" s="5" t="s">
+      <c r="B1113" s="3" t="s">
         <v>2174</v>
       </c>
     </row>
@@ -41089,7 +41089,7 @@
       <c r="A1115" s="5" t="s">
         <v>2177</v>
       </c>
-      <c r="B1115" s="5" t="s">
+      <c r="B1115" s="3" t="s">
         <v>2178</v>
       </c>
     </row>
@@ -41145,7 +41145,7 @@
       <c r="A1122" s="5" t="s">
         <v>2191</v>
       </c>
-      <c r="B1122" s="5" t="s">
+      <c r="B1122" s="3" t="s">
         <v>2192</v>
       </c>
     </row>
@@ -41153,7 +41153,7 @@
       <c r="A1123" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="B1123" s="5" t="s">
+      <c r="B1123" s="3" t="s">
         <v>2194</v>
       </c>
     </row>
@@ -41169,7 +41169,7 @@
       <c r="A1125" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="B1125" s="5" t="s">
+      <c r="B1125" s="3" t="s">
         <v>2197</v>
       </c>
     </row>
@@ -41177,7 +41177,7 @@
       <c r="A1126" s="5" t="s">
         <v>2198</v>
       </c>
-      <c r="B1126" s="5" t="s">
+      <c r="B1126" s="3" t="s">
         <v>2199</v>
       </c>
     </row>
@@ -41201,7 +41201,7 @@
       <c r="A1129" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="B1129" s="5" t="s">
+      <c r="B1129" s="3" t="s">
         <v>2205</v>
       </c>
     </row>
@@ -41209,7 +41209,7 @@
       <c r="A1130" s="5" t="s">
         <v>2206</v>
       </c>
-      <c r="B1130" s="5" t="s">
+      <c r="B1130" s="3" t="s">
         <v>2207</v>
       </c>
     </row>
@@ -41233,7 +41233,7 @@
       <c r="A1133" s="5" t="s">
         <v>2212</v>
       </c>
-      <c r="B1133" s="5" t="s">
+      <c r="B1133" s="3" t="s">
         <v>2213</v>
       </c>
     </row>
@@ -41241,7 +41241,7 @@
       <c r="A1134" s="5" t="s">
         <v>2214</v>
       </c>
-      <c r="B1134" s="5" t="s">
+      <c r="B1134" s="3" t="s">
         <v>2215</v>
       </c>
     </row>
@@ -41321,7 +41321,7 @@
       <c r="A1144" s="5" t="s">
         <v>2232</v>
       </c>
-      <c r="B1144" s="5" t="s">
+      <c r="B1144" s="3" t="s">
         <v>2233</v>
       </c>
     </row>
@@ -41369,7 +41369,7 @@
       <c r="A1150" s="5" t="s">
         <v>2243</v>
       </c>
-      <c r="B1150" s="5" t="s">
+      <c r="B1150" s="3" t="s">
         <v>2244</v>
       </c>
     </row>
@@ -41497,7 +41497,7 @@
       <c r="A1166" s="5" t="s">
         <v>2273</v>
       </c>
-      <c r="B1166" s="5" t="s">
+      <c r="B1166" s="3" t="s">
         <v>2274</v>
       </c>
     </row>
@@ -41521,7 +41521,7 @@
       <c r="A1169" s="5" t="s">
         <v>2279</v>
       </c>
-      <c r="B1169" s="5" t="s">
+      <c r="B1169" s="3" t="s">
         <v>2280</v>
       </c>
     </row>
@@ -41577,7 +41577,7 @@
       <c r="A1176" s="5" t="s">
         <v>2292</v>
       </c>
-      <c r="B1176" s="5" t="s">
+      <c r="B1176" s="3" t="s">
         <v>2293</v>
       </c>
     </row>
@@ -41601,7 +41601,7 @@
       <c r="A1179" s="5" t="s">
         <v>2298</v>
       </c>
-      <c r="B1179" s="5" t="s">
+      <c r="B1179" s="3" t="s">
         <v>2299</v>
       </c>
     </row>
@@ -41665,7 +41665,7 @@
       <c r="A1187" s="5" t="s">
         <v>2312</v>
       </c>
-      <c r="B1187" s="5" t="s">
+      <c r="B1187" s="3" t="s">
         <v>2313</v>
       </c>
     </row>
@@ -41697,7 +41697,7 @@
       <c r="A1191" s="5" t="s">
         <v>2320</v>
       </c>
-      <c r="B1191" s="5" t="s">
+      <c r="B1191" s="3" t="s">
         <v>2321</v>
       </c>
     </row>
@@ -41713,7 +41713,7 @@
       <c r="A1193" s="5" t="s">
         <v>2324</v>
       </c>
-      <c r="B1193" s="5" t="s">
+      <c r="B1193" s="3" t="s">
         <v>2325</v>
       </c>
     </row>
@@ -41745,7 +41745,7 @@
       <c r="A1197" s="5" t="s">
         <v>2332</v>
       </c>
-      <c r="B1197" s="5" t="s">
+      <c r="B1197" s="3" t="s">
         <v>2333</v>
       </c>
     </row>
@@ -41777,7 +41777,7 @@
       <c r="A1201" s="5" t="s">
         <v>2340</v>
       </c>
-      <c r="B1201" s="5" t="s">
+      <c r="B1201" s="3" t="s">
         <v>2341</v>
       </c>
     </row>
@@ -41873,7 +41873,7 @@
       <c r="A1213" s="5" t="s">
         <v>2364</v>
       </c>
-      <c r="B1213" s="5" t="s">
+      <c r="B1213" s="3" t="s">
         <v>2365</v>
       </c>
     </row>
@@ -41937,7 +41937,7 @@
       <c r="A1221" s="5" t="s">
         <v>2379</v>
       </c>
-      <c r="B1221" s="5" t="s">
+      <c r="B1221" s="3" t="s">
         <v>2380</v>
       </c>
     </row>
@@ -42001,7 +42001,7 @@
       <c r="A1229" s="5" t="s">
         <v>2394</v>
       </c>
-      <c r="B1229" s="5" t="s">
+      <c r="B1229" s="3" t="s">
         <v>2395</v>
       </c>
     </row>
@@ -42033,7 +42033,7 @@
       <c r="A1233" s="5" t="s">
         <v>2402</v>
       </c>
-      <c r="B1233" s="5" t="s">
+      <c r="B1233" s="3" t="s">
         <v>2403</v>
       </c>
     </row>
@@ -42073,7 +42073,7 @@
       <c r="A1238" s="5" t="s">
         <v>2411</v>
       </c>
-      <c r="B1238" s="5" t="s">
+      <c r="B1238" s="3" t="s">
         <v>2412</v>
       </c>
     </row>
@@ -42185,7 +42185,7 @@
       <c r="A1252" s="5" t="s">
         <v>2438</v>
       </c>
-      <c r="B1252" s="5" t="s">
+      <c r="B1252" s="3" t="s">
         <v>2439</v>
       </c>
     </row>
@@ -42193,7 +42193,7 @@
       <c r="A1253" s="5" t="s">
         <v>2440</v>
       </c>
-      <c r="B1253" s="5" t="s">
+      <c r="B1253" s="3" t="s">
         <v>2441</v>
       </c>
     </row>
@@ -42201,7 +42201,7 @@
       <c r="A1254" s="5" t="s">
         <v>2442</v>
       </c>
-      <c r="B1254" s="5" t="s">
+      <c r="B1254" s="3" t="s">
         <v>2443</v>
       </c>
     </row>
@@ -42233,7 +42233,7 @@
       <c r="A1258" s="5" t="s">
         <v>2450</v>
       </c>
-      <c r="B1258" s="5" t="s">
+      <c r="B1258" s="3" t="s">
         <v>2451</v>
       </c>
     </row>
@@ -42241,7 +42241,7 @@
       <c r="A1259" s="5" t="s">
         <v>2452</v>
       </c>
-      <c r="B1259" s="5" t="s">
+      <c r="B1259" s="3" t="s">
         <v>2453</v>
       </c>
     </row>
@@ -42249,7 +42249,7 @@
       <c r="A1260" s="5" t="s">
         <v>2454</v>
       </c>
-      <c r="B1260" s="5" t="s">
+      <c r="B1260" s="3" t="s">
         <v>2455</v>
       </c>
     </row>
@@ -42257,7 +42257,7 @@
       <c r="A1261" s="5" t="s">
         <v>2456</v>
       </c>
-      <c r="B1261" s="5" t="s">
+      <c r="B1261" s="3" t="s">
         <v>2457</v>
       </c>
     </row>
@@ -42265,7 +42265,7 @@
       <c r="A1262" s="5" t="s">
         <v>2458</v>
       </c>
-      <c r="B1262" s="5" t="s">
+      <c r="B1262" s="3" t="s">
         <v>2459</v>
       </c>
     </row>
@@ -42321,7 +42321,7 @@
       <c r="A1269" s="5" t="s">
         <v>2470</v>
       </c>
-      <c r="B1269" s="5" t="s">
+      <c r="B1269" s="3" t="s">
         <v>2471</v>
       </c>
     </row>
@@ -42353,7 +42353,7 @@
       <c r="A1273" s="5" t="s">
         <v>2477</v>
       </c>
-      <c r="B1273" s="5" t="s">
+      <c r="B1273" s="3" t="s">
         <v>2478</v>
       </c>
     </row>
@@ -42393,7 +42393,7 @@
       <c r="A1278" s="5" t="s">
         <v>2486</v>
       </c>
-      <c r="B1278" s="5" t="s">
+      <c r="B1278" s="3" t="s">
         <v>2487</v>
       </c>
     </row>
@@ -42401,7 +42401,7 @@
       <c r="A1279" s="5" t="s">
         <v>2488</v>
       </c>
-      <c r="B1279" s="5" t="s">
+      <c r="B1279" s="3" t="s">
         <v>2489</v>
       </c>
     </row>
@@ -42449,7 +42449,7 @@
       <c r="A1285" s="5" t="s">
         <v>2500</v>
       </c>
-      <c r="B1285" s="5" t="s">
+      <c r="B1285" s="3" t="s">
         <v>2501</v>
       </c>
     </row>
@@ -42505,7 +42505,7 @@
       <c r="A1292" s="5" t="s">
         <v>2514</v>
       </c>
-      <c r="B1292" s="5" t="s">
+      <c r="B1292" s="3" t="s">
         <v>2515</v>
       </c>
     </row>
@@ -42545,7 +42545,7 @@
       <c r="A1297" s="5" t="s">
         <v>2524</v>
       </c>
-      <c r="B1297" s="5" t="s">
+      <c r="B1297" s="3" t="s">
         <v>2525</v>
       </c>
     </row>
@@ -42577,7 +42577,7 @@
       <c r="A1301" s="5" t="s">
         <v>2531</v>
       </c>
-      <c r="B1301" s="5" t="s">
+      <c r="B1301" s="3" t="s">
         <v>2532</v>
       </c>
     </row>
@@ -42617,7 +42617,7 @@
       <c r="A1306" s="5" t="s">
         <v>2541</v>
       </c>
-      <c r="B1306" s="5" t="s">
+      <c r="B1306" s="3" t="s">
         <v>2542</v>
       </c>
     </row>
@@ -42657,7 +42657,7 @@
       <c r="A1311" s="5" t="s">
         <v>2551</v>
       </c>
-      <c r="B1311" s="5" t="s">
+      <c r="B1311" s="3" t="s">
         <v>2552</v>
       </c>
     </row>
@@ -42673,7 +42673,7 @@
       <c r="A1313" s="5" t="s">
         <v>2555</v>
       </c>
-      <c r="B1313" s="5" t="s">
+      <c r="B1313" s="3" t="s">
         <v>2556</v>
       </c>
     </row>
@@ -42681,7 +42681,7 @@
       <c r="A1314" s="5" t="s">
         <v>2557</v>
       </c>
-      <c r="B1314" s="5" t="s">
+      <c r="B1314" s="3" t="s">
         <v>2558</v>
       </c>
     </row>
@@ -42697,7 +42697,7 @@
       <c r="A1316" s="5" t="s">
         <v>2561</v>
       </c>
-      <c r="B1316" s="5" t="s">
+      <c r="B1316" s="3" t="s">
         <v>2562</v>
       </c>
     </row>
@@ -42729,7 +42729,7 @@
       <c r="A1320" s="5" t="s">
         <v>2569</v>
       </c>
-      <c r="B1320" s="5" t="s">
+      <c r="B1320" s="3" t="s">
         <v>2570</v>
       </c>
     </row>
@@ -42745,7 +42745,7 @@
       <c r="A1322" s="5" t="s">
         <v>2573</v>
       </c>
-      <c r="B1322" s="5" t="s">
+      <c r="B1322" s="3" t="s">
         <v>2574</v>
       </c>
     </row>
@@ -42793,7 +42793,7 @@
       <c r="A1328" s="5" t="s">
         <v>2585</v>
       </c>
-      <c r="B1328" s="5" t="s">
+      <c r="B1328" s="3" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -42825,7 +42825,7 @@
       <c r="A1332" s="5" t="s">
         <v>2593</v>
       </c>
-      <c r="B1332" s="5" t="s">
+      <c r="B1332" s="3" t="s">
         <v>2594</v>
       </c>
     </row>
@@ -42873,7 +42873,7 @@
       <c r="A1338" s="5" t="s">
         <v>2604</v>
       </c>
-      <c r="B1338" s="5" t="s">
+      <c r="B1338" s="3" t="s">
         <v>2605</v>
       </c>
     </row>
@@ -42889,7 +42889,7 @@
       <c r="A1340" s="5" t="s">
         <v>2608</v>
       </c>
-      <c r="B1340" s="5" t="s">
+      <c r="B1340" s="3" t="s">
         <v>2609</v>
       </c>
     </row>
@@ -42921,7 +42921,7 @@
       <c r="A1344" s="5" t="s">
         <v>2616</v>
       </c>
-      <c r="B1344" s="5" t="s">
+      <c r="B1344" s="3" t="s">
         <v>2617</v>
       </c>
     </row>
@@ -42945,7 +42945,7 @@
       <c r="A1347" s="5" t="s">
         <v>2621</v>
       </c>
-      <c r="B1347" s="5" t="s">
+      <c r="B1347" s="3" t="s">
         <v>2622</v>
       </c>
     </row>
@@ -42969,7 +42969,7 @@
       <c r="A1350" s="5" t="s">
         <v>2627</v>
       </c>
-      <c r="B1350" s="5" t="s">
+      <c r="B1350" s="3" t="s">
         <v>2628</v>
       </c>
     </row>
@@ -42985,7 +42985,7 @@
       <c r="A1352" s="5" t="s">
         <v>2630</v>
       </c>
-      <c r="B1352" s="5" t="s">
+      <c r="B1352" s="3" t="s">
         <v>2631</v>
       </c>
     </row>
@@ -42993,7 +42993,7 @@
       <c r="A1353" s="5" t="s">
         <v>2632</v>
       </c>
-      <c r="B1353" s="5" t="s">
+      <c r="B1353" s="3" t="s">
         <v>2633</v>
       </c>
     </row>
@@ -43009,7 +43009,7 @@
       <c r="A1355" s="5" t="s">
         <v>2636</v>
       </c>
-      <c r="B1355" s="5" t="s">
+      <c r="B1355" s="3" t="s">
         <v>2637</v>
       </c>
     </row>
@@ -43049,7 +43049,7 @@
       <c r="A1360" s="5" t="s">
         <v>2644</v>
       </c>
-      <c r="B1360" s="5" t="s">
+      <c r="B1360" s="3" t="s">
         <v>2645</v>
       </c>
     </row>
@@ -43057,7 +43057,7 @@
       <c r="A1361" s="5" t="s">
         <v>2646</v>
       </c>
-      <c r="B1361" s="5" t="s">
+      <c r="B1361" s="3" t="s">
         <v>2647</v>
       </c>
     </row>
@@ -43089,7 +43089,7 @@
       <c r="A1365" s="5" t="s">
         <v>2654</v>
       </c>
-      <c r="B1365" s="5" t="s">
+      <c r="B1365" s="3" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -43177,7 +43177,7 @@
       <c r="A1376" s="5" t="s">
         <v>2675</v>
       </c>
-      <c r="B1376" s="5" t="s">
+      <c r="B1376" s="3" t="s">
         <v>2676</v>
       </c>
     </row>
@@ -43201,7 +43201,7 @@
       <c r="A1379" s="5" t="s">
         <v>2680</v>
       </c>
-      <c r="B1379" s="5" t="s">
+      <c r="B1379" s="3" t="s">
         <v>2681</v>
       </c>
     </row>
@@ -43209,7 +43209,7 @@
       <c r="A1380" s="5" t="s">
         <v>2682</v>
       </c>
-      <c r="B1380" s="5" t="s">
+      <c r="B1380" s="3" t="s">
         <v>2683</v>
       </c>
     </row>
@@ -43225,7 +43225,7 @@
       <c r="A1382" s="5" t="s">
         <v>2686</v>
       </c>
-      <c r="B1382" s="5" t="s">
+      <c r="B1382" s="3" t="s">
         <v>2687</v>
       </c>
     </row>
@@ -43241,7 +43241,7 @@
       <c r="A1384" s="5" t="s">
         <v>2690</v>
       </c>
-      <c r="B1384" s="5" t="s">
+      <c r="B1384" s="3" t="s">
         <v>2691</v>
       </c>
     </row>
@@ -43313,7 +43313,7 @@
       <c r="A1393" s="5" t="s">
         <v>2708</v>
       </c>
-      <c r="B1393" s="5" t="s">
+      <c r="B1393" s="3" t="s">
         <v>2709</v>
       </c>
     </row>
@@ -43337,7 +43337,7 @@
       <c r="A1396" s="5" t="s">
         <v>2714</v>
       </c>
-      <c r="B1396" s="5" t="s">
+      <c r="B1396" s="3" t="s">
         <v>2715</v>
       </c>
     </row>
@@ -43345,7 +43345,7 @@
       <c r="A1397" s="5" t="s">
         <v>2716</v>
       </c>
-      <c r="B1397" s="5" t="s">
+      <c r="B1397" s="3" t="s">
         <v>2717</v>
       </c>
     </row>
@@ -43377,7 +43377,7 @@
       <c r="A1401" s="5" t="s">
         <v>2724</v>
       </c>
-      <c r="B1401" s="5" t="s">
+      <c r="B1401" s="3" t="s">
         <v>2725</v>
       </c>
     </row>
@@ -43401,7 +43401,7 @@
       <c r="A1404" s="5" t="s">
         <v>2729</v>
       </c>
-      <c r="B1404" s="5" t="s">
+      <c r="B1404" s="3" t="s">
         <v>2730</v>
       </c>
     </row>
@@ -43489,7 +43489,7 @@
       <c r="A1415" s="5" t="s">
         <v>2749</v>
       </c>
-      <c r="B1415" s="5" t="s">
+      <c r="B1415" s="3" t="s">
         <v>2750</v>
       </c>
     </row>
@@ -43545,7 +43545,7 @@
       <c r="A1422" s="5" t="s">
         <v>2763</v>
       </c>
-      <c r="B1422" s="5" t="s">
+      <c r="B1422" s="3" t="s">
         <v>2764</v>
       </c>
     </row>
@@ -43553,7 +43553,7 @@
       <c r="A1423" s="5" t="s">
         <v>2765</v>
       </c>
-      <c r="B1423" s="5" t="s">
+      <c r="B1423" s="3" t="s">
         <v>2766</v>
       </c>
     </row>
@@ -43577,7 +43577,7 @@
       <c r="A1426" s="5" t="s">
         <v>2771</v>
       </c>
-      <c r="B1426" s="5" t="s">
+      <c r="B1426" s="3" t="s">
         <v>2772</v>
       </c>
     </row>
@@ -43593,7 +43593,7 @@
       <c r="A1428" s="5" t="s">
         <v>2775</v>
       </c>
-      <c r="B1428" s="5" t="s">
+      <c r="B1428" s="3" t="s">
         <v>2776</v>
       </c>
     </row>
@@ -43609,7 +43609,7 @@
       <c r="A1430" s="5" t="s">
         <v>2779</v>
       </c>
-      <c r="B1430" s="5" t="s">
+      <c r="B1430" s="3" t="s">
         <v>2780</v>
       </c>
     </row>
@@ -43641,7 +43641,7 @@
       <c r="A1434" s="5" t="s">
         <v>2786</v>
       </c>
-      <c r="B1434" s="5" t="s">
+      <c r="B1434" s="3" t="s">
         <v>2787</v>
       </c>
     </row>
@@ -43673,7 +43673,7 @@
       <c r="A1438" s="5" t="s">
         <v>2793</v>
       </c>
-      <c r="B1438" s="5" t="s">
+      <c r="B1438" s="3" t="s">
         <v>2794</v>
       </c>
     </row>
@@ -43689,7 +43689,7 @@
       <c r="A1440" s="5" t="s">
         <v>2797</v>
       </c>
-      <c r="B1440" s="5" t="s">
+      <c r="B1440" s="3" t="s">
         <v>2798</v>
       </c>
     </row>
@@ -43697,7 +43697,7 @@
       <c r="A1441" s="5" t="s">
         <v>2799</v>
       </c>
-      <c r="B1441" s="5" t="s">
+      <c r="B1441" s="3" t="s">
         <v>2800</v>
       </c>
     </row>
@@ -43761,7 +43761,7 @@
       <c r="A1449" s="5" t="s">
         <v>2814</v>
       </c>
-      <c r="B1449" s="5" t="s">
+      <c r="B1449" s="3" t="s">
         <v>2815</v>
       </c>
     </row>
@@ -43769,7 +43769,7 @@
       <c r="A1450" s="5" t="s">
         <v>2816</v>
       </c>
-      <c r="B1450" s="5" t="s">
+      <c r="B1450" s="3" t="s">
         <v>2817</v>
       </c>
     </row>
@@ -43777,7 +43777,7 @@
       <c r="A1451" s="5" t="s">
         <v>2818</v>
       </c>
-      <c r="B1451" s="5" t="s">
+      <c r="B1451" s="3" t="s">
         <v>2819</v>
       </c>
     </row>
@@ -43793,7 +43793,7 @@
       <c r="A1453" s="5" t="s">
         <v>2821</v>
       </c>
-      <c r="B1453" s="5" t="s">
+      <c r="B1453" s="3" t="s">
         <v>2822</v>
       </c>
     </row>
@@ -43849,7 +43849,7 @@
       <c r="A1460" s="5" t="s">
         <v>2834</v>
       </c>
-      <c r="B1460" s="5" t="s">
+      <c r="B1460" s="3" t="s">
         <v>2835</v>
       </c>
     </row>
@@ -43873,7 +43873,7 @@
       <c r="A1463" s="5" t="s">
         <v>2839</v>
       </c>
-      <c r="B1463" s="5" t="s">
+      <c r="B1463" s="3" t="s">
         <v>2840</v>
       </c>
     </row>
@@ -43913,7 +43913,7 @@
       <c r="A1468" s="5" t="s">
         <v>2848</v>
       </c>
-      <c r="B1468" s="5" t="s">
+      <c r="B1468" s="3" t="s">
         <v>2849</v>
       </c>
     </row>
@@ -43969,7 +43969,7 @@
       <c r="A1475" s="5" t="s">
         <v>2862</v>
       </c>
-      <c r="B1475" s="5" t="s">
+      <c r="B1475" s="3" t="s">
         <v>2863</v>
       </c>
     </row>
@@ -44009,7 +44009,7 @@
       <c r="A1480" s="5" t="s">
         <v>2872</v>
       </c>
-      <c r="B1480" s="5" t="s">
+      <c r="B1480" s="3" t="s">
         <v>2873</v>
       </c>
     </row>
@@ -44017,7 +44017,7 @@
       <c r="A1481" s="5" t="s">
         <v>2874</v>
       </c>
-      <c r="B1481" s="5" t="s">
+      <c r="B1481" s="3" t="s">
         <v>2875</v>
       </c>
     </row>
@@ -44057,7 +44057,7 @@
       <c r="A1486" s="5" t="s">
         <v>2883</v>
       </c>
-      <c r="B1486" s="5" t="s">
+      <c r="B1486" s="3" t="s">
         <v>2395</v>
       </c>
     </row>
@@ -44073,7 +44073,7 @@
       <c r="A1488" s="5" t="s">
         <v>2886</v>
       </c>
-      <c r="B1488" s="5" t="s">
+      <c r="B1488" s="3" t="s">
         <v>2887</v>
       </c>
     </row>
@@ -44113,7 +44113,7 @@
       <c r="A1493" s="5" t="s">
         <v>2896</v>
       </c>
-      <c r="B1493" s="5" t="s">
+      <c r="B1493" s="3" t="s">
         <v>2897</v>
       </c>
     </row>
@@ -44137,7 +44137,7 @@
       <c r="A1496" s="5" t="s">
         <v>2902</v>
       </c>
-      <c r="B1496" s="5" t="s">
+      <c r="B1496" s="3" t="s">
         <v>2903</v>
       </c>
     </row>
@@ -44145,7 +44145,7 @@
       <c r="A1497" s="5" t="s">
         <v>2904</v>
       </c>
-      <c r="B1497" s="5" t="s">
+      <c r="B1497" s="3" t="s">
         <v>2905</v>
       </c>
     </row>
@@ -44153,7 +44153,7 @@
       <c r="A1498" s="5" t="s">
         <v>2906</v>
       </c>
-      <c r="B1498" s="5" t="s">
+      <c r="B1498" s="3" t="s">
         <v>2907</v>
       </c>
     </row>
@@ -44185,7 +44185,7 @@
       <c r="A1502" s="5" t="s">
         <v>2914</v>
       </c>
-      <c r="B1502" s="5" t="s">
+      <c r="B1502" s="3" t="s">
         <v>2915</v>
       </c>
     </row>
@@ -44201,7 +44201,7 @@
       <c r="A1504" s="5" t="s">
         <v>2918</v>
       </c>
-      <c r="B1504" s="5" t="s">
+      <c r="B1504" s="3" t="s">
         <v>2919</v>
       </c>
     </row>
@@ -44209,7 +44209,7 @@
       <c r="A1505" s="5" t="s">
         <v>2920</v>
       </c>
-      <c r="B1505" s="5" t="s">
+      <c r="B1505" s="3" t="s">
         <v>2921</v>
       </c>
     </row>
@@ -44217,7 +44217,7 @@
       <c r="A1506" s="5" t="s">
         <v>2922</v>
       </c>
-      <c r="B1506" s="5" t="s">
+      <c r="B1506" s="3" t="s">
         <v>2923</v>
       </c>
     </row>
@@ -44225,7 +44225,7 @@
       <c r="A1507" s="5" t="s">
         <v>2924</v>
       </c>
-      <c r="B1507" s="5" t="s">
+      <c r="B1507" s="3" t="s">
         <v>2925</v>
       </c>
     </row>
@@ -44233,7 +44233,7 @@
       <c r="A1508" s="5" t="s">
         <v>2926</v>
       </c>
-      <c r="B1508" s="5" t="s">
+      <c r="B1508" s="3" t="s">
         <v>2927</v>
       </c>
     </row>
@@ -44265,7 +44265,7 @@
       <c r="A1512" s="5" t="s">
         <v>2934</v>
       </c>
-      <c r="B1512" s="5" t="s">
+      <c r="B1512" s="3" t="s">
         <v>2935</v>
       </c>
     </row>
@@ -44313,7 +44313,7 @@
       <c r="A1518" s="5" t="s">
         <v>2946</v>
       </c>
-      <c r="B1518" s="5" t="s">
+      <c r="B1518" s="3" t="s">
         <v>2947</v>
       </c>
     </row>
@@ -44321,7 +44321,7 @@
       <c r="A1519" s="5" t="s">
         <v>2948</v>
       </c>
-      <c r="B1519" s="5" t="s">
+      <c r="B1519" s="3" t="s">
         <v>2949</v>
       </c>
     </row>
@@ -44329,7 +44329,7 @@
       <c r="A1520" s="5" t="s">
         <v>2950</v>
       </c>
-      <c r="B1520" s="5" t="s">
+      <c r="B1520" s="3" t="s">
         <v>2951</v>
       </c>
     </row>
@@ -44337,7 +44337,7 @@
       <c r="A1521" s="5" t="s">
         <v>2952</v>
       </c>
-      <c r="B1521" s="5" t="s">
+      <c r="B1521" s="3" t="s">
         <v>2953</v>
       </c>
     </row>
@@ -44345,7 +44345,7 @@
       <c r="A1522" s="5" t="s">
         <v>2954</v>
       </c>
-      <c r="B1522" s="5" t="s">
+      <c r="B1522" s="3" t="s">
         <v>2955</v>
       </c>
     </row>
@@ -44353,7 +44353,7 @@
       <c r="A1523" s="5" t="s">
         <v>2956</v>
       </c>
-      <c r="B1523" s="5" t="s">
+      <c r="B1523" s="3" t="s">
         <v>2957</v>
       </c>
     </row>
@@ -44433,7 +44433,7 @@
       <c r="A1533" s="5" t="s">
         <v>2975</v>
       </c>
-      <c r="B1533" s="5" t="s">
+      <c r="B1533" s="3" t="s">
         <v>2976</v>
       </c>
     </row>
@@ -44489,7 +44489,7 @@
       <c r="A1540" s="5" t="s">
         <v>2989</v>
       </c>
-      <c r="B1540" s="5" t="s">
+      <c r="B1540" s="3" t="s">
         <v>2990</v>
       </c>
     </row>
@@ -44497,7 +44497,7 @@
       <c r="A1541" s="5" t="s">
         <v>2991</v>
       </c>
-      <c r="B1541" s="5" t="s">
+      <c r="B1541" s="3" t="s">
         <v>2992</v>
       </c>
     </row>
@@ -44513,7 +44513,7 @@
       <c r="A1543" s="5" t="s">
         <v>2995</v>
       </c>
-      <c r="B1543" s="5" t="s">
+      <c r="B1543" s="3" t="s">
         <v>2996</v>
       </c>
     </row>
@@ -44521,7 +44521,7 @@
       <c r="A1544" s="5" t="s">
         <v>2997</v>
       </c>
-      <c r="B1544" s="5" t="s">
+      <c r="B1544" s="3" t="s">
         <v>2998</v>
       </c>
     </row>
@@ -44537,7 +44537,7 @@
       <c r="A1546" s="5" t="s">
         <v>3001</v>
       </c>
-      <c r="B1546" s="5" t="s">
+      <c r="B1546" s="3" t="s">
         <v>3002</v>
       </c>
     </row>
@@ -44577,7 +44577,7 @@
       <c r="A1551" s="5" t="s">
         <v>3011</v>
       </c>
-      <c r="B1551" s="5" t="s">
+      <c r="B1551" s="3" t="s">
         <v>3012</v>
       </c>
     </row>
@@ -44601,7 +44601,7 @@
       <c r="A1554" s="5" t="s">
         <v>3017</v>
       </c>
-      <c r="B1554" s="5" t="s">
+      <c r="B1554" s="3" t="s">
         <v>3018</v>
       </c>
     </row>
@@ -44617,7 +44617,7 @@
       <c r="A1556" s="5" t="s">
         <v>3021</v>
       </c>
-      <c r="B1556" s="5" t="s">
+      <c r="B1556" s="3" t="s">
         <v>3022</v>
       </c>
     </row>
@@ -44649,7 +44649,7 @@
       <c r="A1560" s="5" t="s">
         <v>3029</v>
       </c>
-      <c r="B1560" s="5" t="s">
+      <c r="B1560" s="3" t="s">
         <v>3030</v>
       </c>
     </row>
@@ -44681,7 +44681,7 @@
       <c r="A1564" s="5" t="s">
         <v>3037</v>
       </c>
-      <c r="B1564" s="5" t="s">
+      <c r="B1564" s="3" t="s">
         <v>3038</v>
       </c>
     </row>
@@ -44705,7 +44705,7 @@
       <c r="A1567" s="5" t="s">
         <v>3043</v>
       </c>
-      <c r="B1567" s="5" t="s">
+      <c r="B1567" s="3" t="s">
         <v>3044</v>
       </c>
     </row>
@@ -44737,7 +44737,7 @@
       <c r="A1571" s="5" t="s">
         <v>3051</v>
       </c>
-      <c r="B1571" s="5" t="s">
+      <c r="B1571" s="3" t="s">
         <v>3052</v>
       </c>
     </row>
@@ -44753,7 +44753,7 @@
       <c r="A1573" s="5" t="s">
         <v>3055</v>
       </c>
-      <c r="B1573" s="5" t="s">
+      <c r="B1573" s="3" t="s">
         <v>3056</v>
       </c>
     </row>
@@ -44785,7 +44785,7 @@
       <c r="A1577" s="5" t="s">
         <v>3063</v>
       </c>
-      <c r="B1577" s="5" t="s">
+      <c r="B1577" s="3" t="s">
         <v>3064</v>
       </c>
     </row>
@@ -44793,7 +44793,7 @@
       <c r="A1578" s="5" t="s">
         <v>3065</v>
       </c>
-      <c r="B1578" s="5" t="s">
+      <c r="B1578" s="3" t="s">
         <v>3066</v>
       </c>
     </row>
@@ -44809,7 +44809,7 @@
       <c r="A1580" s="5" t="s">
         <v>3069</v>
       </c>
-      <c r="B1580" s="5" t="s">
+      <c r="B1580" s="3" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -44817,7 +44817,7 @@
       <c r="A1581" s="5" t="s">
         <v>3071</v>
       </c>
-      <c r="B1581" s="5" t="s">
+      <c r="B1581" s="3" t="s">
         <v>3072</v>
       </c>
     </row>
@@ -44841,7 +44841,7 @@
       <c r="A1584" s="5" t="s">
         <v>3077</v>
       </c>
-      <c r="B1584" s="5" t="s">
+      <c r="B1584" s="3" t="s">
         <v>3078</v>
       </c>
     </row>
@@ -44849,7 +44849,7 @@
       <c r="A1585" s="5" t="s">
         <v>3079</v>
       </c>
-      <c r="B1585" s="5" t="s">
+      <c r="B1585" s="3" t="s">
         <v>3080</v>
       </c>
     </row>
@@ -44913,7 +44913,7 @@
       <c r="A1593" s="5" t="s">
         <v>3093</v>
       </c>
-      <c r="B1593" s="5" t="s">
+      <c r="B1593" s="3" t="s">
         <v>3094</v>
       </c>
     </row>
@@ -44961,7 +44961,7 @@
       <c r="A1599" s="5" t="s">
         <v>3104</v>
       </c>
-      <c r="B1599" s="5" t="s">
+      <c r="B1599" s="3" t="s">
         <v>3105</v>
       </c>
     </row>
@@ -44977,7 +44977,7 @@
       <c r="A1601" s="5" t="s">
         <v>3108</v>
       </c>
-      <c r="B1601" s="5" t="s">
+      <c r="B1601" s="3" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -44985,7 +44985,7 @@
       <c r="A1602" s="5" t="s">
         <v>3110</v>
       </c>
-      <c r="B1602" s="5" t="s">
+      <c r="B1602" s="3" t="s">
         <v>3111</v>
       </c>
     </row>
@@ -45009,7 +45009,7 @@
       <c r="A1605" s="5" t="s">
         <v>3116</v>
       </c>
-      <c r="B1605" s="5" t="s">
+      <c r="B1605" s="3" t="s">
         <v>3117</v>
       </c>
     </row>
@@ -45033,7 +45033,7 @@
       <c r="A1608" s="5" t="s">
         <v>3122</v>
       </c>
-      <c r="B1608" s="5" t="s">
+      <c r="B1608" s="3" t="s">
         <v>3123</v>
       </c>
     </row>
@@ -45041,7 +45041,7 @@
       <c r="A1609" s="5" t="s">
         <v>3124</v>
       </c>
-      <c r="B1609" s="5" t="s">
+      <c r="B1609" s="3" t="s">
         <v>3125</v>
       </c>
     </row>
@@ -45049,7 +45049,7 @@
       <c r="A1610" s="5" t="s">
         <v>3126</v>
       </c>
-      <c r="B1610" s="5" t="s">
+      <c r="B1610" s="3" t="s">
         <v>3127</v>
       </c>
     </row>
@@ -45089,7 +45089,7 @@
       <c r="A1615" s="5" t="s">
         <v>3136</v>
       </c>
-      <c r="B1615" s="5" t="s">
+      <c r="B1615" s="3" t="s">
         <v>3137</v>
       </c>
     </row>
@@ -45097,7 +45097,7 @@
       <c r="A1616" s="5" t="s">
         <v>3138</v>
       </c>
-      <c r="B1616" s="5" t="s">
+      <c r="B1616" s="3" t="s">
         <v>3139</v>
       </c>
     </row>
@@ -45105,7 +45105,7 @@
       <c r="A1617" s="5" t="s">
         <v>3140</v>
       </c>
-      <c r="B1617" s="5" t="s">
+      <c r="B1617" s="3" t="s">
         <v>3141</v>
       </c>
     </row>
@@ -45153,7 +45153,7 @@
       <c r="A1623" s="5" t="s">
         <v>3152</v>
       </c>
-      <c r="B1623" s="5" t="s">
+      <c r="B1623" s="3" t="s">
         <v>3153</v>
       </c>
     </row>
@@ -45161,7 +45161,7 @@
       <c r="A1624" s="5" t="s">
         <v>3154</v>
       </c>
-      <c r="B1624" s="5" t="s">
+      <c r="B1624" s="3" t="s">
         <v>3155</v>
       </c>
     </row>
@@ -45169,7 +45169,7 @@
       <c r="A1625" s="5" t="s">
         <v>3156</v>
       </c>
-      <c r="B1625" s="5" t="s">
+      <c r="B1625" s="3" t="s">
         <v>3157</v>
       </c>
     </row>
@@ -45177,7 +45177,7 @@
       <c r="A1626" s="5" t="s">
         <v>3158</v>
       </c>
-      <c r="B1626" s="5" t="s">
+      <c r="B1626" s="3" t="s">
         <v>3159</v>
       </c>
     </row>
@@ -45193,7 +45193,7 @@
       <c r="A1628" s="5" t="s">
         <v>3162</v>
       </c>
-      <c r="B1628" s="5" t="s">
+      <c r="B1628" s="3" t="s">
         <v>3163</v>
       </c>
     </row>
@@ -45201,7 +45201,7 @@
       <c r="A1629" s="5" t="s">
         <v>3164</v>
       </c>
-      <c r="B1629" s="5" t="s">
+      <c r="B1629" s="3" t="s">
         <v>3165</v>
       </c>
     </row>
@@ -45209,7 +45209,7 @@
       <c r="A1630" s="5" t="s">
         <v>3166</v>
       </c>
-      <c r="B1630" s="5" t="s">
+      <c r="B1630" s="3" t="s">
         <v>3167</v>
       </c>
     </row>
@@ -45233,7 +45233,7 @@
       <c r="A1633" s="5" t="s">
         <v>3172</v>
       </c>
-      <c r="B1633" s="5" t="s">
+      <c r="B1633" s="3" t="s">
         <v>3173</v>
       </c>
     </row>
@@ -45241,7 +45241,7 @@
       <c r="A1634" s="5" t="s">
         <v>3174</v>
       </c>
-      <c r="B1634" s="5" t="s">
+      <c r="B1634" s="3" t="s">
         <v>2574</v>
       </c>
     </row>
@@ -45249,7 +45249,7 @@
       <c r="A1635" s="5" t="s">
         <v>3175</v>
       </c>
-      <c r="B1635" s="5" t="s">
+      <c r="B1635" s="3" t="s">
         <v>3176</v>
       </c>
     </row>
@@ -45257,7 +45257,7 @@
       <c r="A1636" s="5" t="s">
         <v>3177</v>
       </c>
-      <c r="B1636" s="5" t="s">
+      <c r="B1636" s="3" t="s">
         <v>3178</v>
       </c>
     </row>
@@ -45273,7 +45273,7 @@
       <c r="A1638" s="5" t="s">
         <v>3181</v>
       </c>
-      <c r="B1638" s="5" t="s">
+      <c r="B1638" s="3" t="s">
         <v>3182</v>
       </c>
     </row>
@@ -45329,7 +45329,7 @@
       <c r="A1645" s="5" t="s">
         <v>3195</v>
       </c>
-      <c r="B1645" s="5" t="s">
+      <c r="B1645" s="3" t="s">
         <v>3196</v>
       </c>
     </row>
@@ -45337,7 +45337,7 @@
       <c r="A1646" s="5" t="s">
         <v>3197</v>
       </c>
-      <c r="B1646" s="5" t="s">
+      <c r="B1646" s="3" t="s">
         <v>3198</v>
       </c>
     </row>
@@ -45377,7 +45377,7 @@
       <c r="A1651" s="5" t="s">
         <v>3207</v>
       </c>
-      <c r="B1651" s="5" t="s">
+      <c r="B1651" s="3" t="s">
         <v>3208</v>
       </c>
     </row>
@@ -45385,7 +45385,7 @@
       <c r="A1652" s="5" t="s">
         <v>3209</v>
       </c>
-      <c r="B1652" s="5" t="s">
+      <c r="B1652" s="3" t="s">
         <v>3210</v>
       </c>
     </row>
@@ -45393,7 +45393,7 @@
       <c r="A1653" s="5" t="s">
         <v>3211</v>
       </c>
-      <c r="B1653" s="5" t="s">
+      <c r="B1653" s="3" t="s">
         <v>3212</v>
       </c>
     </row>
@@ -45409,7 +45409,7 @@
       <c r="A1655" s="5" t="s">
         <v>3215</v>
       </c>
-      <c r="B1655" s="5" t="s">
+      <c r="B1655" s="3" t="s">
         <v>3216</v>
       </c>
     </row>
@@ -45497,7 +45497,7 @@
       <c r="A1666" s="5" t="s">
         <v>3236</v>
       </c>
-      <c r="B1666" s="5" t="s">
+      <c r="B1666" s="3" t="s">
         <v>3237</v>
       </c>
     </row>
@@ -45537,7 +45537,7 @@
       <c r="A1671" s="5" t="s">
         <v>3245</v>
       </c>
-      <c r="B1671" s="5" t="s">
+      <c r="B1671" s="3" t="s">
         <v>3246</v>
       </c>
     </row>
@@ -45585,7 +45585,7 @@
       <c r="A1677" s="5" t="s">
         <v>3256</v>
       </c>
-      <c r="B1677" s="5" t="s">
+      <c r="B1677" s="3" t="s">
         <v>3257</v>
       </c>
     </row>
@@ -45601,7 +45601,7 @@
       <c r="A1679" s="5" t="s">
         <v>3260</v>
       </c>
-      <c r="B1679" s="5" t="s">
+      <c r="B1679" s="3" t="s">
         <v>3261</v>
       </c>
     </row>
@@ -45625,7 +45625,7 @@
       <c r="A1682" s="5" t="s">
         <v>3266</v>
       </c>
-      <c r="B1682" s="5" t="s">
+      <c r="B1682" s="3" t="s">
         <v>3267</v>
       </c>
     </row>
@@ -45665,7 +45665,7 @@
       <c r="A1687" s="5" t="s">
         <v>3275</v>
       </c>
-      <c r="B1687" s="5" t="s">
+      <c r="B1687" s="3" t="s">
         <v>3276</v>
       </c>
     </row>
@@ -45673,7 +45673,7 @@
       <c r="A1688" s="5" t="s">
         <v>3277</v>
       </c>
-      <c r="B1688" s="5" t="s">
+      <c r="B1688" s="3" t="s">
         <v>3278</v>
       </c>
     </row>
@@ -45681,7 +45681,7 @@
       <c r="A1689" s="5" t="s">
         <v>3279</v>
       </c>
-      <c r="B1689" s="5" t="s">
+      <c r="B1689" s="3" t="s">
         <v>3280</v>
       </c>
     </row>
@@ -45705,7 +45705,7 @@
       <c r="A1692" s="5" t="s">
         <v>3284</v>
       </c>
-      <c r="B1692" s="5" t="s">
+      <c r="B1692" s="3" t="s">
         <v>3285</v>
       </c>
     </row>
@@ -45721,7 +45721,7 @@
       <c r="A1694" s="5" t="s">
         <v>3288</v>
       </c>
-      <c r="B1694" s="5" t="s">
+      <c r="B1694" s="3" t="s">
         <v>3289</v>
       </c>
     </row>
@@ -45753,7 +45753,7 @@
       <c r="A1698" s="5" t="s">
         <v>3296</v>
       </c>
-      <c r="B1698" s="5" t="s">
+      <c r="B1698" s="3" t="s">
         <v>3297</v>
       </c>
     </row>
@@ -45761,7 +45761,7 @@
       <c r="A1699" s="5" t="s">
         <v>3298</v>
       </c>
-      <c r="B1699" s="5" t="s">
+      <c r="B1699" s="3" t="s">
         <v>3299</v>
       </c>
     </row>
@@ -45769,7 +45769,7 @@
       <c r="A1700" s="5" t="s">
         <v>3300</v>
       </c>
-      <c r="B1700" s="5" t="s">
+      <c r="B1700" s="3" t="s">
         <v>3301</v>
       </c>
     </row>
@@ -45793,7 +45793,7 @@
       <c r="A1703" s="5" t="s">
         <v>3306</v>
       </c>
-      <c r="B1703" s="5" t="s">
+      <c r="B1703" s="3" t="s">
         <v>3307</v>
       </c>
     </row>
@@ -45841,7 +45841,7 @@
       <c r="A1709" s="5" t="s">
         <v>3317</v>
       </c>
-      <c r="B1709" s="5" t="s">
+      <c r="B1709" s="3" t="s">
         <v>3318</v>
       </c>
     </row>
@@ -45897,7 +45897,7 @@
       <c r="A1716" s="5" t="s">
         <v>3331</v>
       </c>
-      <c r="B1716" s="5" t="s">
+      <c r="B1716" s="3" t="s">
         <v>3332</v>
       </c>
     </row>
@@ -45929,7 +45929,7 @@
       <c r="A1720" s="5" t="s">
         <v>3338</v>
       </c>
-      <c r="B1720" s="5" t="s">
+      <c r="B1720" s="3" t="s">
         <v>3339</v>
       </c>
     </row>
@@ -45945,7 +45945,7 @@
       <c r="A1722" s="5" t="s">
         <v>3342</v>
       </c>
-      <c r="B1722" s="5" t="s">
+      <c r="B1722" s="3" t="s">
         <v>3343</v>
       </c>
     </row>
@@ -45969,7 +45969,7 @@
       <c r="A1725" s="5" t="s">
         <v>3348</v>
       </c>
-      <c r="B1725" s="5" t="s">
+      <c r="B1725" s="3" t="s">
         <v>3349</v>
       </c>
     </row>
@@ -45985,7 +45985,7 @@
       <c r="A1727" s="5" t="s">
         <v>3352</v>
       </c>
-      <c r="B1727" s="5" t="s">
+      <c r="B1727" s="3" t="s">
         <v>3353</v>
       </c>
     </row>
@@ -46025,7 +46025,7 @@
       <c r="A1732" s="5" t="s">
         <v>3362</v>
       </c>
-      <c r="B1732" s="5" t="s">
+      <c r="B1732" s="3" t="s">
         <v>3363</v>
       </c>
     </row>
@@ -46033,7 +46033,7 @@
       <c r="A1733" s="5" t="s">
         <v>3364</v>
       </c>
-      <c r="B1733" s="5" t="s">
+      <c r="B1733" s="3" t="s">
         <v>3365</v>
       </c>
     </row>
@@ -46049,7 +46049,7 @@
       <c r="A1735" s="5" t="s">
         <v>3367</v>
       </c>
-      <c r="B1735" s="5" t="s">
+      <c r="B1735" s="3" t="s">
         <v>3368</v>
       </c>
     </row>
@@ -46065,7 +46065,7 @@
       <c r="A1737" s="5" t="s">
         <v>3370</v>
       </c>
-      <c r="B1737" s="5" t="s">
+      <c r="B1737" s="3" t="s">
         <v>3371</v>
       </c>
     </row>
@@ -46097,7 +46097,7 @@
       <c r="A1741" s="5" t="s">
         <v>3378</v>
       </c>
-      <c r="B1741" s="5" t="s">
+      <c r="B1741" s="3" t="s">
         <v>3379</v>
       </c>
     </row>
@@ -46113,7 +46113,7 @@
       <c r="A1743" s="5" t="s">
         <v>3382</v>
       </c>
-      <c r="B1743" s="5" t="s">
+      <c r="B1743" s="3" t="s">
         <v>3383</v>
       </c>
     </row>
@@ -46121,7 +46121,7 @@
       <c r="A1744" s="5" t="s">
         <v>3384</v>
       </c>
-      <c r="B1744" s="5" t="s">
+      <c r="B1744" s="3" t="s">
         <v>3385</v>
       </c>
     </row>
@@ -46145,7 +46145,7 @@
       <c r="A1747" s="5" t="s">
         <v>3390</v>
       </c>
-      <c r="B1747" s="5" t="s">
+      <c r="B1747" s="3" t="s">
         <v>3391</v>
       </c>
     </row>
@@ -46169,7 +46169,7 @@
       <c r="A1750" s="5" t="s">
         <v>3396</v>
       </c>
-      <c r="B1750" s="5" t="s">
+      <c r="B1750" s="3" t="s">
         <v>3397</v>
       </c>
     </row>
@@ -46201,7 +46201,7 @@
       <c r="A1754" s="5" t="s">
         <v>3403</v>
       </c>
-      <c r="B1754" s="5" t="s">
+      <c r="B1754" s="3" t="s">
         <v>3404</v>
       </c>
     </row>
@@ -46217,7 +46217,7 @@
       <c r="A1756" s="5" t="s">
         <v>3407</v>
       </c>
-      <c r="B1756" s="5" t="s">
+      <c r="B1756" s="3" t="s">
         <v>3408</v>
       </c>
     </row>
@@ -46241,7 +46241,7 @@
       <c r="A1759" s="5" t="s">
         <v>3413</v>
       </c>
-      <c r="B1759" s="5" t="s">
+      <c r="B1759" s="3" t="s">
         <v>3414</v>
       </c>
     </row>
@@ -46257,7 +46257,7 @@
       <c r="A1761" s="5" t="s">
         <v>3417</v>
       </c>
-      <c r="B1761" s="5" t="s">
+      <c r="B1761" s="3" t="s">
         <v>3418</v>
       </c>
     </row>
@@ -46265,7 +46265,7 @@
       <c r="A1762" s="5" t="s">
         <v>3419</v>
       </c>
-      <c r="B1762" s="5" t="s">
+      <c r="B1762" s="3" t="s">
         <v>3420</v>
       </c>
     </row>
@@ -46321,7 +46321,7 @@
       <c r="A1769" s="5" t="s">
         <v>3432</v>
       </c>
-      <c r="B1769" s="5" t="s">
+      <c r="B1769" s="3" t="s">
         <v>3433</v>
       </c>
     </row>
@@ -46337,7 +46337,7 @@
       <c r="A1771" s="5" t="s">
         <v>3436</v>
       </c>
-      <c r="B1771" s="5" t="s">
+      <c r="B1771" s="3" t="s">
         <v>3437</v>
       </c>
     </row>
@@ -46361,7 +46361,7 @@
       <c r="A1774" s="5" t="s">
         <v>3442</v>
       </c>
-      <c r="B1774" s="5" t="s">
+      <c r="B1774" s="3" t="s">
         <v>3443</v>
       </c>
     </row>
@@ -46369,7 +46369,7 @@
       <c r="A1775" s="5" t="s">
         <v>3444</v>
       </c>
-      <c r="B1775" s="5" t="s">
+      <c r="B1775" s="3" t="s">
         <v>3445</v>
       </c>
     </row>
@@ -46377,7 +46377,7 @@
       <c r="A1776" s="5" t="s">
         <v>3446</v>
       </c>
-      <c r="B1776" s="5" t="s">
+      <c r="B1776" s="3" t="s">
         <v>3447</v>
       </c>
     </row>
@@ -46385,7 +46385,7 @@
       <c r="A1777" s="5" t="s">
         <v>3448</v>
       </c>
-      <c r="B1777" s="5" t="s">
+      <c r="B1777" s="3" t="s">
         <v>3449</v>
       </c>
     </row>
@@ -46393,7 +46393,7 @@
       <c r="A1778" s="5" t="s">
         <v>3450</v>
       </c>
-      <c r="B1778" s="5" t="s">
+      <c r="B1778" s="3" t="s">
         <v>3451</v>
       </c>
     </row>
@@ -46401,7 +46401,7 @@
       <c r="A1779" s="5" t="s">
         <v>3452</v>
       </c>
-      <c r="B1779" s="5" t="s">
+      <c r="B1779" s="3" t="s">
         <v>3453</v>
       </c>
     </row>
@@ -46409,7 +46409,7 @@
       <c r="A1780" s="5" t="s">
         <v>3454</v>
       </c>
-      <c r="B1780" s="5" t="s">
+      <c r="B1780" s="3" t="s">
         <v>3455</v>
       </c>
     </row>
@@ -46425,7 +46425,7 @@
       <c r="A1782" s="5" t="s">
         <v>3457</v>
       </c>
-      <c r="B1782" s="5" t="s">
+      <c r="B1782" s="3" t="s">
         <v>3458</v>
       </c>
     </row>
